--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K267" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K268" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14546,18 +14546,43 @@
       <c r="Z267" s="3"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
-      <c r="K268" s="3"/>
-      <c r="L268" s="2"/>
+      <c r="A268" s="9">
+        <v>44574.0</v>
+      </c>
+      <c r="B268" s="9">
+        <v>44574.0</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="7">
+        <v>30.1</v>
+      </c>
+      <c r="F268" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="G268" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="H268" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I268" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="J268" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="K268" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L268" s="8">
+        <v>15.7</v>
+      </c>
       <c r="M268" s="3"/>
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K268" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K269" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14599,18 +14599,43 @@
       <c r="Z268" s="3"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="2"/>
+      <c r="A269" s="9">
+        <v>44203.0</v>
+      </c>
+      <c r="B269" s="9">
+        <v>44571.0</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="F269" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="G269" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="H269" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I269" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="J269" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="K269" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L269" s="8">
+        <v>2.0</v>
+      </c>
       <c r="M269" s="3"/>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K269" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K270" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14652,18 +14652,43 @@
       <c r="Z269" s="3"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-      <c r="L270" s="2"/>
+      <c r="A270" s="9">
+        <v>44213.0</v>
+      </c>
+      <c r="B270" s="9">
+        <v>44579.0</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="F270" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="G270" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H270" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I270" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="J270" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="K270" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L270" s="8">
+        <v>9.0</v>
+      </c>
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K270" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K271" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14600,7 +14600,7 @@
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="9">
-        <v>44203.0</v>
+        <v>44568.0</v>
       </c>
       <c r="B269" s="9">
         <v>44571.0</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="9">
-        <v>44213.0</v>
+        <v>44578.0</v>
       </c>
       <c r="B270" s="9">
         <v>44579.0</v>
@@ -14705,18 +14705,43 @@
       <c r="Z270" s="3"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-      <c r="L271" s="2"/>
+      <c r="A271" s="9">
+        <v>44575.0</v>
+      </c>
+      <c r="B271" s="9">
+        <v>44578.0</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F271" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="G271" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="H271" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I271" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="J271" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="K271" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L271" s="8">
+        <v>1.0</v>
+      </c>
       <c r="M271" s="3"/>
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K271" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K272" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14758,18 +14758,43 @@
       <c r="Z271" s="3"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
-      <c r="L272" s="2"/>
+      <c r="A272" s="9">
+        <v>44575.0</v>
+      </c>
+      <c r="B272" s="9">
+        <v>44578.0</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="F272" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="G272" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H272" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I272" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="J272" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="K272" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="L272" s="8">
+        <v>13.1</v>
+      </c>
       <c r="M272" s="3"/>
       <c r="N272" s="3"/>
       <c r="O272" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K272" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K273" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14811,18 +14811,43 @@
       <c r="Z272" s="3"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="2"/>
+      <c r="A273" s="9">
+        <v>44582.0</v>
+      </c>
+      <c r="B273" s="9">
+        <v>44582.0</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="7">
+        <v>32.3</v>
+      </c>
+      <c r="F273" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="G273" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H273" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I273" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="J273" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="K273" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L273" s="8">
+        <v>9.0</v>
+      </c>
       <c r="M273" s="3"/>
       <c r="N273" s="3"/>
       <c r="O273" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K273" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K274" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14864,18 +14864,43 @@
       <c r="Z273" s="3"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
-      <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="2"/>
+      <c r="A274" s="9">
+        <v>44582.0</v>
+      </c>
+      <c r="B274" s="9">
+        <v>44585.0</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="F274" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="G274" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H274" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I274" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="J274" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="K274" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L274" s="8">
+        <v>2.0</v>
+      </c>
       <c r="M274" s="3"/>
       <c r="N274" s="3"/>
       <c r="O274" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K274" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K276" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -14917,18 +14917,43 @@
       <c r="Z274" s="3"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="2"/>
+      <c r="A275" s="9">
+        <v>44588.0</v>
+      </c>
+      <c r="B275" s="9">
+        <v>44588.0</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="7">
+        <v>33.2</v>
+      </c>
+      <c r="F275" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="G275" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="H275" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="I275" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="J275" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="K275" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L275" s="8">
+        <v>12.1</v>
+      </c>
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
       <c r="O275" s="3"/>
@@ -14945,18 +14970,43 @@
       <c r="Z275" s="3"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="A276" s="3"/>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="2"/>
+      <c r="A276" s="9">
+        <v>44582.0</v>
+      </c>
+      <c r="B276" s="9">
+        <v>44587.0</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="F276" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="G276" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="H276" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I276" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="J276" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="K276" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L276" s="8">
+        <v>15.0</v>
+      </c>
       <c r="M276" s="3"/>
       <c r="N276" s="3"/>
       <c r="O276" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K276" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K278" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15023,18 +15023,43 @@
       <c r="Z276" s="3"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
-      <c r="L277" s="2"/>
+      <c r="A277" s="9">
+        <v>44589.0</v>
+      </c>
+      <c r="B277" s="9">
+        <v>44592.0</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="F277" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="G277" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H277" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I277" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="J277" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="K277" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L277" s="8">
+        <v>1.0</v>
+      </c>
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
       <c r="O277" s="3"/>
@@ -15051,18 +15076,43 @@
       <c r="Z277" s="3"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
-      <c r="I278" s="3"/>
-      <c r="J278" s="3"/>
-      <c r="K278" s="3"/>
-      <c r="L278" s="2"/>
+      <c r="A278" s="9">
+        <v>44589.0</v>
+      </c>
+      <c r="B278" s="9">
+        <v>44593.0</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="F278" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="G278" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="H278" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="I278" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="J278" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="K278" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="L278" s="8">
+        <v>9.9</v>
+      </c>
       <c r="M278" s="3"/>
       <c r="N278" s="3"/>
       <c r="O278" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K278" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K279" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15129,18 +15129,43 @@
       <c r="Z278" s="3"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
-      <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
-      <c r="L279" s="2"/>
+      <c r="A279" s="9">
+        <v>44598.0</v>
+      </c>
+      <c r="B279" s="9">
+        <v>44598.0</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="F279" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="G279" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="H279" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="I279" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J279" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="K279" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L279" s="8">
+        <v>12.4</v>
+      </c>
       <c r="M279" s="3"/>
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K278" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K281" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15129,18 +15129,43 @@
       <c r="Z278" s="3"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
-      <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
-      <c r="L279" s="2"/>
+      <c r="A279" s="9">
+        <v>44596.0</v>
+      </c>
+      <c r="B279" s="9">
+        <v>44598.0</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="F279" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="G279" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="H279" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="I279" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J279" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="K279" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L279" s="8">
+        <v>12.4</v>
+      </c>
       <c r="M279" s="3"/>
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
@@ -15157,18 +15182,43 @@
       <c r="Z279" s="3"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
-      <c r="K280" s="3"/>
-      <c r="L280" s="2"/>
+      <c r="A280" s="9">
+        <v>44598.0</v>
+      </c>
+      <c r="B280" s="9">
+        <v>44598.0</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="F280" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="G280" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="H280" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="I280" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J280" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="K280" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L280" s="8">
+        <v>10.6</v>
+      </c>
       <c r="M280" s="3"/>
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
@@ -15185,18 +15235,43 @@
       <c r="Z280" s="3"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
-      <c r="I281" s="3"/>
-      <c r="J281" s="3"/>
-      <c r="K281" s="3"/>
-      <c r="L281" s="2"/>
+      <c r="A281" s="9">
+        <v>44595.0</v>
+      </c>
+      <c r="B281" s="9">
+        <v>44599.0</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="7">
+        <v>34.63</v>
+      </c>
+      <c r="F281" s="7">
+        <v>26.34</v>
+      </c>
+      <c r="G281" s="7">
+        <v>7.54</v>
+      </c>
+      <c r="H281" s="7">
+        <v>3.47</v>
+      </c>
+      <c r="I281" s="7">
+        <v>8.96</v>
+      </c>
+      <c r="J281" s="7">
+        <v>14.88</v>
+      </c>
+      <c r="K281" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L281" s="8">
+        <v>4.18</v>
+      </c>
       <c r="M281" s="3"/>
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K281" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K283" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15288,18 +15288,43 @@
       <c r="Z281" s="3"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
-      <c r="I282" s="3"/>
-      <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="2"/>
+      <c r="A282" s="9">
+        <v>44596.0</v>
+      </c>
+      <c r="B282" s="9">
+        <v>44599.0</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E282" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="F282" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="G282" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="H282" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I282" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="J282" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="K282" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L282" s="8">
+        <v>2.0</v>
+      </c>
       <c r="M282" s="3"/>
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
@@ -15316,18 +15341,43 @@
       <c r="Z282" s="3"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-      <c r="I283" s="3"/>
-      <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="2"/>
+      <c r="A283" s="9">
+        <v>44592.0</v>
+      </c>
+      <c r="B283" s="9">
+        <v>44602.0</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="F283" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="G283" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H283" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I283" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="J283" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="K283" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="L283" s="8">
+        <v>28.0</v>
+      </c>
       <c r="M283" s="3"/>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K283" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K284" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15394,18 +15394,43 @@
       <c r="Z283" s="3"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
-      <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
-      <c r="K284" s="3"/>
-      <c r="L284" s="2"/>
+      <c r="A284" s="9">
+        <v>44603.0</v>
+      </c>
+      <c r="B284" s="9">
+        <v>44606.0</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E284" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="F284" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="G284" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="H284" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="I284" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="J284" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="K284" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="L284" s="8">
+        <v>10.0</v>
+      </c>
       <c r="M284" s="3"/>
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -112,7 +112,7 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -125,6 +125,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -161,6 +164,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -479,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K284" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K285" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15447,18 +15456,43 @@
       <c r="Z284" s="3"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-      <c r="L285" s="2"/>
+      <c r="A285" s="10">
+        <v>44603.0</v>
+      </c>
+      <c r="B285" s="10">
+        <v>44604.0</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="11">
+        <v>32.5</v>
+      </c>
+      <c r="F285" s="11">
+        <v>29.3</v>
+      </c>
+      <c r="G285" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="H285" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="I285" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="J285" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="K285" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L285" s="8">
+        <v>11.3</v>
+      </c>
       <c r="M285" s="3"/>
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -112,7 +112,7 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -125,9 +125,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -145,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -164,12 +161,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -488,7 +479,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K285" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K286" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15456,34 +15447,34 @@
       <c r="Z284" s="3"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="A285" s="10">
+      <c r="A285" s="9">
         <v>44603.0</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B285" s="9">
         <v>44604.0</v>
       </c>
-      <c r="C285" s="11" t="s">
+      <c r="C285" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D285" s="11" t="s">
+      <c r="D285" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E285" s="11">
+      <c r="E285" s="7">
         <v>32.5</v>
       </c>
-      <c r="F285" s="11">
+      <c r="F285" s="7">
         <v>29.3</v>
       </c>
-      <c r="G285" s="11">
+      <c r="G285" s="7">
         <v>5.6</v>
       </c>
-      <c r="H285" s="11">
+      <c r="H285" s="7">
         <v>4.3</v>
       </c>
-      <c r="I285" s="11">
+      <c r="I285" s="7">
         <v>8.4</v>
       </c>
-      <c r="J285" s="11">
+      <c r="J285" s="7">
         <v>8.6</v>
       </c>
       <c r="K285" s="2">
@@ -15509,18 +15500,43 @@
       <c r="Z285" s="3"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
-      <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
-      <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
-      <c r="K286" s="3"/>
-      <c r="L286" s="2"/>
+      <c r="A286" s="9">
+        <v>44603.0</v>
+      </c>
+      <c r="B286" s="9">
+        <v>44606.0</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="F286" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="G286" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="H286" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I286" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="J286" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="K286" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L286" s="8">
+        <v>1.0</v>
+      </c>
       <c r="M286" s="3"/>
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,6 +150,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -479,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K286" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K288" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -616,8 +619,8 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>41.4</v>
@@ -1252,8 +1255,8 @@
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>39.3</v>
@@ -1782,8 +1785,8 @@
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E27" s="1">
         <v>37.83</v>
@@ -3160,8 +3163,8 @@
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E53" s="1">
         <v>40.05</v>
@@ -4432,8 +4435,8 @@
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>15</v>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E77" s="1">
         <v>41.42</v>
@@ -5333,8 +5336,8 @@
       <c r="C94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>15</v>
+      <c r="D94" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E94" s="1">
         <v>39.86</v>
@@ -6923,8 +6926,8 @@
       <c r="C124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>15</v>
+      <c r="D124" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E124" s="1">
         <v>35.77</v>
@@ -7930,8 +7933,8 @@
       <c r="C143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>15</v>
+      <c r="D143" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E143" s="1">
         <v>38.1</v>
@@ -8460,8 +8463,8 @@
       <c r="C153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>15</v>
+      <c r="D153" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E153" s="1">
         <v>36.18</v>
@@ -9043,8 +9046,8 @@
       <c r="C164" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>15</v>
+      <c r="D164" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E164" s="1">
         <v>35.79</v>
@@ -9467,8 +9470,8 @@
       <c r="C172" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>15</v>
+      <c r="D172" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E172" s="1">
         <v>35.25</v>
@@ -10156,8 +10159,8 @@
       <c r="C185" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>15</v>
+      <c r="D185" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E185" s="1">
         <v>34.48</v>
@@ -10421,8 +10424,8 @@
       <c r="C190" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>15</v>
+      <c r="D190" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E190" s="1">
         <v>34.0</v>
@@ -11269,8 +11272,8 @@
       <c r="C206" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>15</v>
+      <c r="D206" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E206" s="1">
         <v>38.87</v>
@@ -11375,8 +11378,8 @@
       <c r="C208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>15</v>
+      <c r="D208" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E208" s="1">
         <v>39.5</v>
@@ -12541,8 +12544,8 @@
       <c r="C230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>15</v>
+      <c r="D230" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E230" s="1">
         <v>36.58</v>
@@ -13230,8 +13233,8 @@
       <c r="C243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>15</v>
+      <c r="D243" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E243" s="1">
         <v>37.53</v>
@@ -13813,8 +13816,8 @@
       <c r="C254" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>15</v>
+      <c r="D254" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E254" s="1">
         <v>36.38</v>
@@ -14228,10 +14231,10 @@
       <c r="Z261" s="3"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="A262" s="5">
+      <c r="A262" s="6">
         <v>44558.0</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="6">
         <v>44560.0</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -14281,41 +14284,41 @@
       <c r="Z262" s="3"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="A263" s="6">
+      <c r="A263" s="7">
         <v>44559.0</v>
       </c>
-      <c r="B263" s="6">
+      <c r="B263" s="7">
         <v>44560.0</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D263" s="7" t="s">
+      <c r="D263" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E263" s="7">
+      <c r="E263" s="8">
         <v>35.9</v>
       </c>
-      <c r="F263" s="7">
+      <c r="F263" s="8">
         <v>24.2</v>
       </c>
-      <c r="G263" s="7">
+      <c r="G263" s="8">
         <v>8.4</v>
       </c>
-      <c r="H263" s="7">
+      <c r="H263" s="8">
         <v>6.8</v>
       </c>
-      <c r="I263" s="7">
+      <c r="I263" s="8">
         <v>9.0</v>
       </c>
-      <c r="J263" s="7">
+      <c r="J263" s="8">
         <v>13.5</v>
       </c>
       <c r="K263" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L263" s="8">
+      <c r="L263" s="9">
         <v>2.2</v>
       </c>
       <c r="M263" s="3"/>
@@ -14334,41 +14337,41 @@
       <c r="Z263" s="3"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="A264" s="6">
+      <c r="A264" s="7">
         <v>44561.0</v>
       </c>
-      <c r="B264" s="9">
+      <c r="B264" s="10">
         <v>44563.0</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="D264" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E264" s="7">
+      <c r="E264" s="8">
         <v>38.0</v>
       </c>
-      <c r="F264" s="7">
+      <c r="F264" s="8">
         <v>24.0</v>
       </c>
-      <c r="G264" s="7">
+      <c r="G264" s="8">
         <v>7.0</v>
       </c>
-      <c r="H264" s="7">
+      <c r="H264" s="8">
         <v>2.0</v>
       </c>
-      <c r="I264" s="7">
+      <c r="I264" s="8">
         <v>12.0</v>
       </c>
-      <c r="J264" s="7">
+      <c r="J264" s="8">
         <v>13.0</v>
       </c>
       <c r="K264" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L264" s="8">
+      <c r="L264" s="9">
         <v>1.0</v>
       </c>
       <c r="M264" s="3"/>
@@ -14387,41 +14390,41 @@
       <c r="Z264" s="3"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="A265" s="9">
+      <c r="A265" s="10">
         <v>44567.0</v>
       </c>
-      <c r="B265" s="9">
+      <c r="B265" s="10">
         <v>44568.0</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D265" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E265" s="7">
+      <c r="E265" s="8">
         <v>33.0</v>
       </c>
-      <c r="F265" s="7">
+      <c r="F265" s="8">
         <v>25.1</v>
       </c>
-      <c r="G265" s="7">
+      <c r="G265" s="8">
         <v>8.2</v>
       </c>
-      <c r="H265" s="7">
+      <c r="H265" s="8">
         <v>7.6</v>
       </c>
-      <c r="I265" s="7">
+      <c r="I265" s="8">
         <v>8.0</v>
       </c>
-      <c r="J265" s="7">
+      <c r="J265" s="8">
         <v>11.0</v>
       </c>
       <c r="K265" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L265" s="8">
+      <c r="L265" s="9">
         <v>7.1</v>
       </c>
       <c r="M265" s="3"/>
@@ -14440,41 +14443,41 @@
       <c r="Z265" s="3"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
-      <c r="A266" s="9">
+      <c r="A266" s="10">
         <v>44573.0</v>
       </c>
-      <c r="B266" s="9">
+      <c r="B266" s="10">
         <v>44574.0</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D266" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E266" s="7">
+      <c r="D266" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" s="8">
         <v>32.81</v>
       </c>
-      <c r="F266" s="7">
+      <c r="F266" s="8">
         <v>24.5</v>
       </c>
-      <c r="G266" s="7">
+      <c r="G266" s="8">
         <v>7.06</v>
       </c>
-      <c r="H266" s="7">
+      <c r="H266" s="8">
         <v>6.44</v>
       </c>
-      <c r="I266" s="7">
+      <c r="I266" s="8">
         <v>10.11</v>
       </c>
-      <c r="J266" s="7">
+      <c r="J266" s="8">
         <v>17.08</v>
       </c>
       <c r="K266" s="2">
         <f t="shared" si="1"/>
         <v>1.55</v>
       </c>
-      <c r="L266" s="8">
+      <c r="L266" s="9">
         <v>0.45</v>
       </c>
       <c r="M266" s="3"/>
@@ -14493,41 +14496,41 @@
       <c r="Z266" s="3"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="A267" s="9">
+      <c r="A267" s="10">
         <v>44564.0</v>
       </c>
-      <c r="B267" s="9">
+      <c r="B267" s="10">
         <v>44574.0</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E267" s="7">
+      <c r="E267" s="8">
         <v>29.0</v>
       </c>
-      <c r="F267" s="7">
+      <c r="F267" s="8">
         <v>18.0</v>
       </c>
-      <c r="G267" s="7">
+      <c r="G267" s="8">
         <v>3.0</v>
       </c>
-      <c r="H267" s="7">
+      <c r="H267" s="8">
         <v>3.0</v>
       </c>
-      <c r="I267" s="7">
+      <c r="I267" s="8">
         <v>5.0</v>
       </c>
-      <c r="J267" s="7">
+      <c r="J267" s="8">
         <v>12.0</v>
       </c>
       <c r="K267" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L267" s="8">
+      <c r="L267" s="9">
         <v>30.0</v>
       </c>
       <c r="M267" s="3"/>
@@ -14546,41 +14549,41 @@
       <c r="Z267" s="3"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="A268" s="9">
+      <c r="A268" s="10">
         <v>44574.0</v>
       </c>
-      <c r="B268" s="9">
+      <c r="B268" s="10">
         <v>44574.0</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E268" s="7">
+      <c r="E268" s="8">
         <v>30.1</v>
       </c>
-      <c r="F268" s="7">
+      <c r="F268" s="8">
         <v>20.2</v>
       </c>
-      <c r="G268" s="7">
+      <c r="G268" s="8">
         <v>7.3</v>
       </c>
-      <c r="H268" s="7">
+      <c r="H268" s="8">
         <v>6.0</v>
       </c>
-      <c r="I268" s="7">
+      <c r="I268" s="8">
         <v>8.6</v>
       </c>
-      <c r="J268" s="7">
+      <c r="J268" s="8">
         <v>12.1</v>
       </c>
       <c r="K268" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L268" s="8">
+      <c r="L268" s="9">
         <v>15.7</v>
       </c>
       <c r="M268" s="3"/>
@@ -14599,41 +14602,41 @@
       <c r="Z268" s="3"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="A269" s="9">
+      <c r="A269" s="10">
         <v>44568.0</v>
       </c>
-      <c r="B269" s="9">
+      <c r="B269" s="10">
         <v>44571.0</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E269" s="7">
+      <c r="E269" s="8">
         <v>36.0</v>
       </c>
-      <c r="F269" s="7">
+      <c r="F269" s="8">
         <v>24.0</v>
       </c>
-      <c r="G269" s="7">
+      <c r="G269" s="8">
         <v>9.0</v>
       </c>
-      <c r="H269" s="7">
+      <c r="H269" s="8">
         <v>2.0</v>
       </c>
-      <c r="I269" s="7">
+      <c r="I269" s="8">
         <v>10.0</v>
       </c>
-      <c r="J269" s="7">
+      <c r="J269" s="8">
         <v>14.0</v>
       </c>
       <c r="K269" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L269" s="8">
+      <c r="L269" s="9">
         <v>2.0</v>
       </c>
       <c r="M269" s="3"/>
@@ -14652,41 +14655,41 @@
       <c r="Z269" s="3"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="A270" s="9">
+      <c r="A270" s="10">
         <v>44578.0</v>
       </c>
-      <c r="B270" s="9">
+      <c r="B270" s="10">
         <v>44579.0</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D270" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E270" s="7">
+      <c r="E270" s="8">
         <v>29.0</v>
       </c>
-      <c r="F270" s="7">
+      <c r="F270" s="8">
         <v>26.0</v>
       </c>
-      <c r="G270" s="7">
+      <c r="G270" s="8">
         <v>5.0</v>
       </c>
-      <c r="H270" s="7">
+      <c r="H270" s="8">
         <v>4.0</v>
       </c>
-      <c r="I270" s="7">
+      <c r="I270" s="8">
         <v>10.0</v>
       </c>
-      <c r="J270" s="7">
+      <c r="J270" s="8">
         <v>15.0</v>
       </c>
       <c r="K270" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L270" s="8">
+      <c r="L270" s="9">
         <v>9.0</v>
       </c>
       <c r="M270" s="3"/>
@@ -14705,41 +14708,41 @@
       <c r="Z270" s="3"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="A271" s="9">
+      <c r="A271" s="10">
         <v>44575.0</v>
       </c>
-      <c r="B271" s="9">
+      <c r="B271" s="10">
         <v>44578.0</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D271" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E271" s="7">
+      <c r="E271" s="8">
         <v>34.0</v>
       </c>
-      <c r="F271" s="7">
+      <c r="F271" s="8">
         <v>27.0</v>
       </c>
-      <c r="G271" s="7">
+      <c r="G271" s="8">
         <v>10.0</v>
       </c>
-      <c r="H271" s="7">
+      <c r="H271" s="8">
         <v>3.0</v>
       </c>
-      <c r="I271" s="7">
+      <c r="I271" s="8">
         <v>11.0</v>
       </c>
-      <c r="J271" s="7">
+      <c r="J271" s="8">
         <v>12.0</v>
       </c>
       <c r="K271" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L271" s="8">
+      <c r="L271" s="9">
         <v>1.0</v>
       </c>
       <c r="M271" s="3"/>
@@ -14758,41 +14761,41 @@
       <c r="Z271" s="3"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="A272" s="9">
+      <c r="A272" s="10">
         <v>44575.0</v>
       </c>
-      <c r="B272" s="9">
+      <c r="B272" s="10">
         <v>44578.0</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D272" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E272" s="7">
+      <c r="E272" s="8">
         <v>31.7</v>
       </c>
-      <c r="F272" s="7">
+      <c r="F272" s="8">
         <v>23.9</v>
       </c>
-      <c r="G272" s="7">
+      <c r="G272" s="8">
         <v>8.0</v>
       </c>
-      <c r="H272" s="7">
+      <c r="H272" s="8">
         <v>2.0</v>
       </c>
-      <c r="I272" s="7">
+      <c r="I272" s="8">
         <v>9.0</v>
       </c>
-      <c r="J272" s="7">
+      <c r="J272" s="8">
         <v>11.1</v>
       </c>
       <c r="K272" s="2">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L272" s="8">
+      <c r="L272" s="9">
         <v>13.1</v>
       </c>
       <c r="M272" s="3"/>
@@ -14811,41 +14814,41 @@
       <c r="Z272" s="3"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="A273" s="9">
+      <c r="A273" s="10">
         <v>44582.0</v>
       </c>
-      <c r="B273" s="9">
+      <c r="B273" s="10">
         <v>44582.0</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D273" s="7" t="s">
+      <c r="D273" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E273" s="7">
+      <c r="E273" s="8">
         <v>32.3</v>
       </c>
-      <c r="F273" s="7">
+      <c r="F273" s="8">
         <v>27.2</v>
       </c>
-      <c r="G273" s="7">
+      <c r="G273" s="8">
         <v>7.0</v>
       </c>
-      <c r="H273" s="7">
+      <c r="H273" s="8">
         <v>6.5</v>
       </c>
-      <c r="I273" s="7">
+      <c r="I273" s="8">
         <v>6.8</v>
       </c>
-      <c r="J273" s="7">
+      <c r="J273" s="8">
         <v>11.2</v>
       </c>
       <c r="K273" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L273" s="8">
+      <c r="L273" s="9">
         <v>9.0</v>
       </c>
       <c r="M273" s="3"/>
@@ -14864,41 +14867,41 @@
       <c r="Z273" s="3"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="A274" s="9">
+      <c r="A274" s="10">
         <v>44582.0</v>
       </c>
-      <c r="B274" s="9">
+      <c r="B274" s="10">
         <v>44585.0</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D274" s="7" t="s">
+      <c r="D274" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E274" s="7">
+      <c r="E274" s="8">
         <v>35.0</v>
       </c>
-      <c r="F274" s="7">
+      <c r="F274" s="8">
         <v>28.0</v>
       </c>
-      <c r="G274" s="7">
+      <c r="G274" s="8">
         <v>8.0</v>
       </c>
-      <c r="H274" s="7">
+      <c r="H274" s="8">
         <v>3.0</v>
       </c>
-      <c r="I274" s="7">
+      <c r="I274" s="8">
         <v>10.0</v>
       </c>
-      <c r="J274" s="7">
+      <c r="J274" s="8">
         <v>11.0</v>
       </c>
       <c r="K274" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L274" s="8">
+      <c r="L274" s="9">
         <v>2.0</v>
       </c>
       <c r="M274" s="3"/>
@@ -14917,41 +14920,41 @@
       <c r="Z274" s="3"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="A275" s="9">
+      <c r="A275" s="10">
         <v>44588.0</v>
       </c>
-      <c r="B275" s="9">
+      <c r="B275" s="10">
         <v>44588.0</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D275" s="7" t="s">
+      <c r="D275" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E275" s="7">
+      <c r="E275" s="8">
         <v>33.2</v>
       </c>
-      <c r="F275" s="7">
+      <c r="F275" s="8">
         <v>26.1</v>
       </c>
-      <c r="G275" s="7">
+      <c r="G275" s="8">
         <v>6.2</v>
       </c>
-      <c r="H275" s="7">
+      <c r="H275" s="8">
         <v>6.0</v>
       </c>
-      <c r="I275" s="7">
+      <c r="I275" s="8">
         <v>5.8</v>
       </c>
-      <c r="J275" s="7">
+      <c r="J275" s="8">
         <v>10.6</v>
       </c>
       <c r="K275" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L275" s="8">
+      <c r="L275" s="9">
         <v>12.1</v>
       </c>
       <c r="M275" s="3"/>
@@ -14970,41 +14973,41 @@
       <c r="Z275" s="3"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="A276" s="9">
+      <c r="A276" s="10">
         <v>44582.0</v>
       </c>
-      <c r="B276" s="9">
+      <c r="B276" s="10">
         <v>44587.0</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D276" s="7" t="s">
+      <c r="D276" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E276" s="7">
+      <c r="E276" s="8">
         <v>27.0</v>
       </c>
-      <c r="F276" s="7">
+      <c r="F276" s="8">
         <v>26.0</v>
       </c>
-      <c r="G276" s="7">
+      <c r="G276" s="8">
         <v>7.0</v>
       </c>
-      <c r="H276" s="7">
+      <c r="H276" s="8">
         <v>3.0</v>
       </c>
-      <c r="I276" s="7">
+      <c r="I276" s="8">
         <v>9.0</v>
       </c>
-      <c r="J276" s="7">
+      <c r="J276" s="8">
         <v>9.0</v>
       </c>
       <c r="K276" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L276" s="8">
+      <c r="L276" s="9">
         <v>15.0</v>
       </c>
       <c r="M276" s="3"/>
@@ -15023,41 +15026,41 @@
       <c r="Z276" s="3"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="A277" s="9">
+      <c r="A277" s="10">
         <v>44589.0</v>
       </c>
-      <c r="B277" s="9">
+      <c r="B277" s="10">
         <v>44592.0</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="7" t="s">
+      <c r="D277" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E277" s="7">
+      <c r="E277" s="8">
         <v>33.0</v>
       </c>
-      <c r="F277" s="7">
+      <c r="F277" s="8">
         <v>28.0</v>
       </c>
-      <c r="G277" s="7">
+      <c r="G277" s="8">
         <v>8.0</v>
       </c>
-      <c r="H277" s="7">
+      <c r="H277" s="8">
         <v>5.0</v>
       </c>
-      <c r="I277" s="7">
+      <c r="I277" s="8">
         <v>11.0</v>
       </c>
-      <c r="J277" s="7">
+      <c r="J277" s="8">
         <v>11.0</v>
       </c>
       <c r="K277" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L277" s="8">
+      <c r="L277" s="9">
         <v>1.0</v>
       </c>
       <c r="M277" s="3"/>
@@ -15076,41 +15079,41 @@
       <c r="Z277" s="3"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="A278" s="9">
+      <c r="A278" s="10">
         <v>44589.0</v>
       </c>
-      <c r="B278" s="9">
+      <c r="B278" s="10">
         <v>44593.0</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D278" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E278" s="7">
+      <c r="E278" s="8">
         <v>31.3</v>
       </c>
-      <c r="F278" s="7">
+      <c r="F278" s="8">
         <v>27.3</v>
       </c>
-      <c r="G278" s="7">
+      <c r="G278" s="8">
         <v>6.7</v>
       </c>
-      <c r="H278" s="7">
+      <c r="H278" s="8">
         <v>3.9</v>
       </c>
-      <c r="I278" s="7">
+      <c r="I278" s="8">
         <v>7.9</v>
       </c>
-      <c r="J278" s="7">
+      <c r="J278" s="8">
         <v>11.6</v>
       </c>
       <c r="K278" s="2">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="L278" s="8">
+      <c r="L278" s="9">
         <v>9.9</v>
       </c>
       <c r="M278" s="3"/>
@@ -15129,41 +15132,41 @@
       <c r="Z278" s="3"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="A279" s="9">
+      <c r="A279" s="10">
         <v>44596.0</v>
       </c>
-      <c r="B279" s="9">
+      <c r="B279" s="10">
         <v>44598.0</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D279" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E279" s="7">
+      <c r="E279" s="8">
         <v>31.1</v>
       </c>
-      <c r="F279" s="7">
+      <c r="F279" s="8">
         <v>26.7</v>
       </c>
-      <c r="G279" s="7">
+      <c r="G279" s="8">
         <v>6.6</v>
       </c>
-      <c r="H279" s="7">
+      <c r="H279" s="8">
         <v>5.2</v>
       </c>
-      <c r="I279" s="7">
+      <c r="I279" s="8">
         <v>6.9</v>
       </c>
-      <c r="J279" s="7">
+      <c r="J279" s="8">
         <v>11.1</v>
       </c>
       <c r="K279" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L279" s="8">
+      <c r="L279" s="9">
         <v>12.4</v>
       </c>
       <c r="M279" s="3"/>
@@ -15182,41 +15185,41 @@
       <c r="Z279" s="3"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="A280" s="9">
+      <c r="A280" s="10">
         <v>44598.0</v>
       </c>
-      <c r="B280" s="9">
+      <c r="B280" s="10">
         <v>44598.0</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D280" s="7" t="s">
+      <c r="D280" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E280" s="7">
+      <c r="E280" s="8">
         <v>33.1</v>
       </c>
-      <c r="F280" s="7">
+      <c r="F280" s="8">
         <v>25.1</v>
       </c>
-      <c r="G280" s="7">
+      <c r="G280" s="8">
         <v>5.8</v>
       </c>
-      <c r="H280" s="7">
+      <c r="H280" s="8">
         <v>5.2</v>
       </c>
-      <c r="I280" s="7">
+      <c r="I280" s="8">
         <v>8.5</v>
       </c>
-      <c r="J280" s="7">
+      <c r="J280" s="8">
         <v>11.7</v>
       </c>
       <c r="K280" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L280" s="8">
+      <c r="L280" s="9">
         <v>10.6</v>
       </c>
       <c r="M280" s="3"/>
@@ -15235,41 +15238,41 @@
       <c r="Z280" s="3"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="A281" s="9">
+      <c r="A281" s="10">
         <v>44595.0</v>
       </c>
-      <c r="B281" s="9">
+      <c r="B281" s="10">
         <v>44599.0</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D281" s="7" t="s">
+      <c r="D281" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E281" s="7">
+      <c r="E281" s="8">
         <v>34.63</v>
       </c>
-      <c r="F281" s="7">
+      <c r="F281" s="8">
         <v>26.34</v>
       </c>
-      <c r="G281" s="7">
+      <c r="G281" s="8">
         <v>7.54</v>
       </c>
-      <c r="H281" s="7">
+      <c r="H281" s="8">
         <v>3.47</v>
       </c>
-      <c r="I281" s="7">
+      <c r="I281" s="8">
         <v>8.96</v>
       </c>
-      <c r="J281" s="7">
+      <c r="J281" s="8">
         <v>14.88</v>
       </c>
       <c r="K281" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L281" s="8">
+      <c r="L281" s="9">
         <v>4.18</v>
       </c>
       <c r="M281" s="3"/>
@@ -15288,41 +15291,41 @@
       <c r="Z281" s="3"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="A282" s="9">
+      <c r="A282" s="10">
         <v>44596.0</v>
       </c>
-      <c r="B282" s="9">
+      <c r="B282" s="10">
         <v>44599.0</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="7" t="s">
+      <c r="D282" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E282" s="7">
+      <c r="E282" s="8">
         <v>31.0</v>
       </c>
-      <c r="F282" s="7">
+      <c r="F282" s="8">
         <v>26.0</v>
       </c>
-      <c r="G282" s="7">
+      <c r="G282" s="8">
         <v>10.0</v>
       </c>
-      <c r="H282" s="7">
+      <c r="H282" s="8">
         <v>4.0</v>
       </c>
-      <c r="I282" s="7">
+      <c r="I282" s="8">
         <v>12.0</v>
       </c>
-      <c r="J282" s="7">
+      <c r="J282" s="8">
         <v>12.0</v>
       </c>
       <c r="K282" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L282" s="8">
+      <c r="L282" s="9">
         <v>2.0</v>
       </c>
       <c r="M282" s="3"/>
@@ -15341,41 +15344,41 @@
       <c r="Z282" s="3"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="A283" s="9">
+      <c r="A283" s="10">
         <v>44592.0</v>
       </c>
-      <c r="B283" s="9">
+      <c r="B283" s="10">
         <v>44602.0</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D283" s="7" t="s">
+      <c r="D283" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E283" s="7">
+      <c r="E283" s="8">
         <v>30.5</v>
       </c>
-      <c r="F283" s="7">
+      <c r="F283" s="8">
         <v>17.0</v>
       </c>
-      <c r="G283" s="7">
+      <c r="G283" s="8">
         <v>3.0</v>
       </c>
-      <c r="H283" s="7">
+      <c r="H283" s="8">
         <v>2.0</v>
       </c>
-      <c r="I283" s="7">
+      <c r="I283" s="8">
         <v>6.7</v>
       </c>
-      <c r="J283" s="7">
+      <c r="J283" s="8">
         <v>11.2</v>
       </c>
       <c r="K283" s="2">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="L283" s="8">
+      <c r="L283" s="9">
         <v>28.0</v>
       </c>
       <c r="M283" s="3"/>
@@ -15394,41 +15397,41 @@
       <c r="Z283" s="3"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
-      <c r="A284" s="9">
+      <c r="A284" s="10">
         <v>44603.0</v>
       </c>
-      <c r="B284" s="9">
+      <c r="B284" s="10">
         <v>44606.0</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D284" s="7" t="s">
+      <c r="D284" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E284" s="7">
+      <c r="E284" s="8">
         <v>31.1</v>
       </c>
-      <c r="F284" s="7">
+      <c r="F284" s="8">
         <v>23.7</v>
       </c>
-      <c r="G284" s="7">
+      <c r="G284" s="8">
         <v>8.8</v>
       </c>
-      <c r="H284" s="7">
+      <c r="H284" s="8">
         <v>5.8</v>
       </c>
-      <c r="I284" s="7">
+      <c r="I284" s="8">
         <v>8.3</v>
       </c>
-      <c r="J284" s="7">
+      <c r="J284" s="8">
         <v>9.9</v>
       </c>
       <c r="K284" s="2">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="L284" s="8">
+      <c r="L284" s="9">
         <v>10.0</v>
       </c>
       <c r="M284" s="3"/>
@@ -15447,41 +15450,41 @@
       <c r="Z284" s="3"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="A285" s="9">
+      <c r="A285" s="10">
         <v>44603.0</v>
       </c>
-      <c r="B285" s="9">
+      <c r="B285" s="10">
         <v>44604.0</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D285" s="7" t="s">
+      <c r="D285" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E285" s="7">
+      <c r="E285" s="8">
         <v>32.5</v>
       </c>
-      <c r="F285" s="7">
+      <c r="F285" s="8">
         <v>29.3</v>
       </c>
-      <c r="G285" s="7">
+      <c r="G285" s="8">
         <v>5.6</v>
       </c>
-      <c r="H285" s="7">
+      <c r="H285" s="8">
         <v>4.3</v>
       </c>
-      <c r="I285" s="7">
+      <c r="I285" s="8">
         <v>8.4</v>
       </c>
-      <c r="J285" s="7">
+      <c r="J285" s="8">
         <v>8.6</v>
       </c>
       <c r="K285" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L285" s="8">
+      <c r="L285" s="9">
         <v>11.3</v>
       </c>
       <c r="M285" s="3"/>
@@ -15500,41 +15503,41 @@
       <c r="Z285" s="3"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
-      <c r="A286" s="9">
+      <c r="A286" s="10">
         <v>44603.0</v>
       </c>
-      <c r="B286" s="9">
+      <c r="B286" s="10">
         <v>44606.0</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D286" s="7" t="s">
+      <c r="D286" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E286" s="7">
+      <c r="E286" s="8">
         <v>38.0</v>
       </c>
-      <c r="F286" s="7">
+      <c r="F286" s="8">
         <v>26.0</v>
       </c>
-      <c r="G286" s="7">
+      <c r="G286" s="8">
         <v>8.0</v>
       </c>
-      <c r="H286" s="7">
+      <c r="H286" s="8">
         <v>2.0</v>
       </c>
-      <c r="I286" s="7">
+      <c r="I286" s="8">
         <v>10.0</v>
       </c>
-      <c r="J286" s="7">
+      <c r="J286" s="8">
         <v>12.0</v>
       </c>
       <c r="K286" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L286" s="8">
+      <c r="L286" s="9">
         <v>1.0</v>
       </c>
       <c r="M286" s="3"/>
@@ -15553,18 +15556,43 @@
       <c r="Z286" s="3"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
-      <c r="A287" s="3"/>
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
-      <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
-      <c r="K287" s="3"/>
-      <c r="L287" s="2"/>
+      <c r="A287" s="10">
+        <v>44608.0</v>
+      </c>
+      <c r="B287" s="10">
+        <v>44609.0</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" s="8">
+        <v>36.05</v>
+      </c>
+      <c r="F287" s="8">
+        <v>24.46</v>
+      </c>
+      <c r="G287" s="8">
+        <v>8.27</v>
+      </c>
+      <c r="H287" s="8">
+        <v>5.83</v>
+      </c>
+      <c r="I287" s="8">
+        <v>9.14</v>
+      </c>
+      <c r="J287" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="K287" s="2">
+        <f t="shared" si="1"/>
+        <v>1.79</v>
+      </c>
+      <c r="L287" s="9">
+        <v>0.21</v>
+      </c>
       <c r="M287" s="3"/>
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
@@ -15581,18 +15609,43 @@
       <c r="Z287" s="3"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
-      <c r="A288" s="3"/>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
-      <c r="I288" s="3"/>
-      <c r="J288" s="3"/>
-      <c r="K288" s="3"/>
-      <c r="L288" s="2"/>
+      <c r="A288" s="10">
+        <v>44608.0</v>
+      </c>
+      <c r="B288" s="10">
+        <v>44609.0</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="8">
+        <v>36.4</v>
+      </c>
+      <c r="F288" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="G288" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="H288" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I288" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="J288" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="K288" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L288" s="9">
+        <v>2.8</v>
+      </c>
       <c r="M288" s="3"/>
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -482,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K288" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K289" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15662,18 +15662,43 @@
       <c r="Z288" s="3"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="A289" s="3"/>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
-      <c r="J289" s="3"/>
-      <c r="K289" s="3"/>
-      <c r="L289" s="2"/>
+      <c r="A289" s="10">
+        <v>44610.0</v>
+      </c>
+      <c r="B289" s="10">
+        <v>44610.0</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="8">
+        <v>32.2</v>
+      </c>
+      <c r="F289" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="G289" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="H289" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I289" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J289" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K289" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L289" s="9">
+        <v>10.2</v>
+      </c>
       <c r="M289" s="3"/>
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -482,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K289" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K290" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15715,18 +15715,43 @@
       <c r="Z289" s="3"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="A290" s="3"/>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
-      <c r="J290" s="3"/>
-      <c r="K290" s="3"/>
-      <c r="L290" s="2"/>
+      <c r="A290" s="10">
+        <v>44603.0</v>
+      </c>
+      <c r="B290" s="10">
+        <v>44608.0</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F290" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G290" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H290" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I290" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J290" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K290" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L290" s="9">
+        <v>15.0</v>
+      </c>
       <c r="M290" s="3"/>
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -112,7 +112,7 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -125,6 +125,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -164,6 +167,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -482,7 +491,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K290" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K292" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15768,18 +15777,43 @@
       <c r="Z290" s="3"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="A291" s="3"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
-      <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
-      <c r="K291" s="3"/>
-      <c r="L291" s="2"/>
+      <c r="A291" s="11">
+        <v>44610.0</v>
+      </c>
+      <c r="B291" s="11">
+        <v>44613.0</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="F291" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="G291" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="H291" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="I291" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="J291" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="K291" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L291" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M291" s="3"/>
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
@@ -15796,18 +15830,43 @@
       <c r="Z291" s="3"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="A292" s="3"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
-      <c r="K292" s="3"/>
-      <c r="L292" s="2"/>
+      <c r="A292" s="11">
+        <v>44620.0</v>
+      </c>
+      <c r="B292" s="11">
+        <v>44621.0</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E292" s="12">
+        <v>38.0</v>
+      </c>
+      <c r="F292" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="G292" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="H292" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="I292" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J292" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="K292" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L292" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M292" s="3"/>
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -112,7 +112,7 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -125,9 +125,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -145,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -167,12 +164,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -491,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K292" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K294" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15777,34 +15768,34 @@
       <c r="Z290" s="3"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="A291" s="11">
+      <c r="A291" s="10">
         <v>44610.0</v>
       </c>
-      <c r="B291" s="11">
+      <c r="B291" s="10">
         <v>44613.0</v>
       </c>
-      <c r="C291" s="12" t="s">
+      <c r="C291" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D291" s="12" t="s">
+      <c r="D291" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E291" s="12">
+      <c r="E291" s="8">
         <v>33.0</v>
       </c>
-      <c r="F291" s="12">
+      <c r="F291" s="8">
         <v>28.0</v>
       </c>
-      <c r="G291" s="12">
+      <c r="G291" s="8">
         <v>8.0</v>
       </c>
-      <c r="H291" s="12">
+      <c r="H291" s="8">
         <v>4.0</v>
       </c>
-      <c r="I291" s="12">
+      <c r="I291" s="8">
         <v>10.0</v>
       </c>
-      <c r="J291" s="12">
+      <c r="J291" s="8">
         <v>12.0</v>
       </c>
       <c r="K291" s="2">
@@ -15830,34 +15821,34 @@
       <c r="Z291" s="3"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="A292" s="11">
+      <c r="A292" s="10">
         <v>44620.0</v>
       </c>
-      <c r="B292" s="11">
+      <c r="B292" s="10">
         <v>44621.0</v>
       </c>
-      <c r="C292" s="12" t="s">
+      <c r="C292" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D292" s="12" t="s">
+      <c r="D292" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E292" s="12">
+      <c r="E292" s="8">
         <v>38.0</v>
       </c>
-      <c r="F292" s="12">
+      <c r="F292" s="8">
         <v>27.0</v>
       </c>
-      <c r="G292" s="12">
+      <c r="G292" s="8">
         <v>7.0</v>
       </c>
-      <c r="H292" s="12">
+      <c r="H292" s="8">
         <v>4.0</v>
       </c>
-      <c r="I292" s="12">
+      <c r="I292" s="8">
         <v>8.0</v>
       </c>
-      <c r="J292" s="12">
+      <c r="J292" s="8">
         <v>11.0</v>
       </c>
       <c r="K292" s="2">
@@ -15883,18 +15874,43 @@
       <c r="Z292" s="3"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
-      <c r="A293" s="3"/>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
-      <c r="J293" s="3"/>
-      <c r="K293" s="3"/>
-      <c r="L293" s="2"/>
+      <c r="A293" s="10">
+        <v>44617.0</v>
+      </c>
+      <c r="B293" s="10">
+        <v>44620.0</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" s="8">
+        <v>32.6</v>
+      </c>
+      <c r="F293" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="G293" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H293" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I293" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="J293" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K293" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
+      <c r="L293" s="9">
+        <v>10.7</v>
+      </c>
       <c r="M293" s="3"/>
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
@@ -15911,18 +15927,43 @@
       <c r="Z293" s="3"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
-      <c r="A294" s="3"/>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
-      <c r="J294" s="3"/>
-      <c r="K294" s="3"/>
-      <c r="L294" s="2"/>
+      <c r="A294" s="10">
+        <v>44621.0</v>
+      </c>
+      <c r="B294" s="10">
+        <v>44621.0</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="8">
+        <v>37.4</v>
+      </c>
+      <c r="F294" s="8">
+        <v>22.8</v>
+      </c>
+      <c r="G294" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="H294" s="8">
+        <v>4.9</v>
+      </c>
+      <c r="I294" s="8">
+        <v>4.1</v>
+      </c>
+      <c r="J294" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="K294" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L294" s="9">
+        <v>12.7</v>
+      </c>
       <c r="M294" s="3"/>
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -482,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K294" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K296" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -15980,18 +15980,43 @@
       <c r="Z294" s="3"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
-      <c r="A295" s="3"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="3"/>
-      <c r="L295" s="2"/>
+      <c r="A295" s="10">
+        <v>44622.0</v>
+      </c>
+      <c r="B295" s="10">
+        <v>44623.0</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" s="8">
+        <v>37.99</v>
+      </c>
+      <c r="F295" s="8">
+        <v>25.89</v>
+      </c>
+      <c r="G295" s="8">
+        <v>6.59</v>
+      </c>
+      <c r="H295" s="8">
+        <v>5.97</v>
+      </c>
+      <c r="I295" s="8">
+        <v>7.66</v>
+      </c>
+      <c r="J295" s="8">
+        <v>13.08</v>
+      </c>
+      <c r="K295" s="2">
+        <f t="shared" si="1"/>
+        <v>2.39</v>
+      </c>
+      <c r="L295" s="9">
+        <v>0.43</v>
+      </c>
       <c r="M295" s="3"/>
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
@@ -16008,18 +16033,43 @@
       <c r="Z295" s="3"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
-      <c r="A296" s="3"/>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-      <c r="J296" s="3"/>
-      <c r="K296" s="3"/>
-      <c r="L296" s="2"/>
+      <c r="A296" s="10">
+        <v>44624.0</v>
+      </c>
+      <c r="B296" s="10">
+        <v>44624.0</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="F296" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="G296" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="H296" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="I296" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="J296" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K296" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L296" s="9">
+        <v>19.6</v>
+      </c>
       <c r="M296" s="3"/>
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -482,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K296" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K297" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16086,18 +16086,43 @@
       <c r="Z296" s="3"/>
     </row>
     <row r="297" ht="12.75" customHeight="1">
-      <c r="A297" s="3"/>
-      <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
-      <c r="I297" s="3"/>
-      <c r="J297" s="3"/>
-      <c r="K297" s="3"/>
-      <c r="L297" s="2"/>
+      <c r="A297" s="10">
+        <v>44624.0</v>
+      </c>
+      <c r="B297" s="10">
+        <v>44624.0</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F297" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G297" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H297" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I297" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="J297" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="K297" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L297" s="9">
+        <v>10.0</v>
+      </c>
       <c r="M297" s="3"/>
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -482,7 +482,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K297" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K300" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16139,18 +16139,43 @@
       <c r="Z297" s="3"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
-      <c r="A298" s="3"/>
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
-      <c r="I298" s="3"/>
-      <c r="J298" s="3"/>
-      <c r="K298" s="3"/>
-      <c r="L298" s="2"/>
+      <c r="A298" s="10">
+        <v>44620.0</v>
+      </c>
+      <c r="B298" s="10">
+        <v>44630.0</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F298" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="G298" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H298" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I298" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J298" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K298" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L298" s="9">
+        <v>25.0</v>
+      </c>
       <c r="M298" s="3"/>
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
@@ -16167,18 +16192,43 @@
       <c r="Z298" s="3"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
-      <c r="A299" s="3"/>
-      <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
-      <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
-      <c r="L299" s="2"/>
+      <c r="A299" s="10">
+        <v>44628.0</v>
+      </c>
+      <c r="B299" s="10">
+        <v>44630.0</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F299" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="G299" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H299" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I299" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="J299" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K299" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L299" s="9">
+        <v>10.0</v>
+      </c>
       <c r="M299" s="3"/>
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
@@ -16195,18 +16245,43 @@
       <c r="Z299" s="3"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
-      <c r="A300" s="3"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
-      <c r="I300" s="3"/>
-      <c r="J300" s="3"/>
-      <c r="K300" s="3"/>
-      <c r="L300" s="2"/>
+      <c r="A300" s="10">
+        <v>44630.0</v>
+      </c>
+      <c r="B300" s="10">
+        <v>44631.0</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="8">
+        <v>39.6</v>
+      </c>
+      <c r="F300" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="G300" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H300" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I300" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J300" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="K300" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L300" s="9">
+        <v>0.8</v>
+      </c>
       <c r="M300" s="3"/>
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -112,11 +112,12 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -125,6 +126,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -153,7 +159,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -482,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K300" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K304" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16298,18 +16304,43 @@
       <c r="Z300" s="3"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="A301" s="3"/>
-      <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
-      <c r="J301" s="3"/>
-      <c r="K301" s="3"/>
-      <c r="L301" s="2"/>
+      <c r="A301" s="10">
+        <v>44631.0</v>
+      </c>
+      <c r="B301" s="10">
+        <v>44634.0</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" s="8">
+        <v>31.4</v>
+      </c>
+      <c r="F301" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="G301" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="H301" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I301" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="J301" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="K301" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L301" s="9">
+        <v>9.8</v>
+      </c>
       <c r="M301" s="3"/>
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
@@ -16326,18 +16357,43 @@
       <c r="Z301" s="3"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
-      <c r="A302" s="3"/>
-      <c r="B302" s="3"/>
-      <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
-      <c r="J302" s="3"/>
-      <c r="K302" s="3"/>
-      <c r="L302" s="2"/>
+      <c r="A302" s="10">
+        <v>44638.0</v>
+      </c>
+      <c r="B302" s="10">
+        <v>44638.0</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="F302" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="G302" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H302" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I302" s="8">
+        <v>4.1</v>
+      </c>
+      <c r="J302" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="K302" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L302" s="9">
+        <v>17.0</v>
+      </c>
       <c r="M302" s="3"/>
       <c r="N302" s="3"/>
       <c r="O302" s="3"/>
@@ -16354,18 +16410,43 @@
       <c r="Z302" s="3"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
-      <c r="A303" s="3"/>
-      <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
-      <c r="J303" s="3"/>
-      <c r="K303" s="3"/>
-      <c r="L303" s="2"/>
+      <c r="A303" s="10">
+        <v>44638.0</v>
+      </c>
+      <c r="B303" s="10">
+        <v>44639.0</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" s="8">
+        <v>34.6</v>
+      </c>
+      <c r="F303" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="G303" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="H303" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I303" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="J303" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="K303" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L303" s="9">
+        <v>12.7</v>
+      </c>
       <c r="M303" s="3"/>
       <c r="N303" s="3"/>
       <c r="O303" s="3"/>
@@ -16382,18 +16463,43 @@
       <c r="Z303" s="3"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
-      <c r="A304" s="3"/>
-      <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="3"/>
-      <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
-      <c r="J304" s="3"/>
-      <c r="K304" s="3"/>
-      <c r="L304" s="2"/>
+      <c r="A304" s="10">
+        <v>44631.0</v>
+      </c>
+      <c r="B304" s="10">
+        <v>44636.0</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F304" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G304" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H304" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I304" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J304" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K304" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L304" s="9">
+        <v>16.0</v>
+      </c>
       <c r="M304" s="3"/>
       <c r="N304" s="3"/>
       <c r="O304" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K304" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K305" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16516,18 +16516,43 @@
       <c r="Z304" s="3"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
-      <c r="A305" s="3"/>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
-      <c r="J305" s="3"/>
-      <c r="K305" s="3"/>
-      <c r="L305" s="2"/>
+      <c r="A305" s="10">
+        <v>44638.0</v>
+      </c>
+      <c r="B305" s="10">
+        <v>44641.0</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F305" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G305" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H305" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I305" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="J305" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K305" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L305" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M305" s="3"/>
       <c r="N305" s="3"/>
       <c r="O305" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K305" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K307" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16569,18 +16569,43 @@
       <c r="Z305" s="3"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
-      <c r="A306" s="3"/>
-      <c r="B306" s="3"/>
-      <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
-      <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
-      <c r="I306" s="3"/>
-      <c r="J306" s="3"/>
-      <c r="K306" s="3"/>
-      <c r="L306" s="2"/>
+      <c r="A306" s="10">
+        <v>44638.0</v>
+      </c>
+      <c r="B306" s="10">
+        <v>44641.0</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="F306" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="G306" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H306" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I306" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J306" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="K306" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L306" s="9">
+        <v>19.0</v>
+      </c>
       <c r="M306" s="3"/>
       <c r="N306" s="3"/>
       <c r="O306" s="3"/>
@@ -16597,18 +16622,43 @@
       <c r="Z306" s="3"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="A307" s="3"/>
-      <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
-      <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
-      <c r="I307" s="3"/>
-      <c r="J307" s="3"/>
-      <c r="K307" s="3"/>
-      <c r="L307" s="2"/>
+      <c r="A307" s="10">
+        <v>44645.0</v>
+      </c>
+      <c r="B307" s="10">
+        <v>44648.0</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="F307" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="G307" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H307" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I307" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J307" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="K307" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2</v>
+      </c>
+      <c r="L307" s="9">
+        <v>10.7</v>
+      </c>
       <c r="M307" s="3"/>
       <c r="N307" s="3"/>
       <c r="O307" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K307" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K309" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16675,18 +16675,43 @@
       <c r="Z307" s="3"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="A308" s="3"/>
-      <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
-      <c r="I308" s="3"/>
-      <c r="J308" s="3"/>
-      <c r="K308" s="3"/>
-      <c r="L308" s="2"/>
+      <c r="A308" s="10">
+        <v>44645.0</v>
+      </c>
+      <c r="B308" s="10">
+        <v>44648.0</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F308" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G308" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H308" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I308" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J308" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K308" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L308" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M308" s="3"/>
       <c r="N308" s="3"/>
       <c r="O308" s="3"/>
@@ -16703,18 +16728,43 @@
       <c r="Z308" s="3"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
-      <c r="A309" s="3"/>
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
-      <c r="I309" s="3"/>
-      <c r="J309" s="3"/>
-      <c r="K309" s="3"/>
-      <c r="L309" s="2"/>
+      <c r="A309" s="10">
+        <v>44650.0</v>
+      </c>
+      <c r="B309" s="10">
+        <v>44651.0</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="8">
+        <v>34.2</v>
+      </c>
+      <c r="F309" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="G309" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H309" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I309" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="J309" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L309" s="9">
+        <v>11.9</v>
+      </c>
       <c r="M309" s="3"/>
       <c r="N309" s="3"/>
       <c r="O309" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K309" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K312" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16781,18 +16781,43 @@
       <c r="Z309" s="3"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
-      <c r="J310" s="3"/>
-      <c r="K310" s="3"/>
-      <c r="L310" s="2"/>
+      <c r="A310" s="10">
+        <v>44650.0</v>
+      </c>
+      <c r="B310" s="10">
+        <v>44651.0</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" s="8">
+        <v>39.2</v>
+      </c>
+      <c r="F310" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="G310" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="H310" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I310" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="J310" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="K310" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L310" s="9">
+        <v>0.9</v>
+      </c>
       <c r="M310" s="3"/>
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
@@ -16809,18 +16834,43 @@
       <c r="Z310" s="3"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
-      <c r="A311" s="3"/>
-      <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
-      <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
-      <c r="J311" s="3"/>
-      <c r="K311" s="3"/>
-      <c r="L311" s="2"/>
+      <c r="A311" s="10">
+        <v>44652.0</v>
+      </c>
+      <c r="B311" s="10">
+        <v>44653.0</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" s="8">
+        <v>33.7</v>
+      </c>
+      <c r="F311" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="G311" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H311" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I311" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="J311" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K311" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L311" s="9">
+        <v>16.2</v>
+      </c>
       <c r="M311" s="3"/>
       <c r="N311" s="3"/>
       <c r="O311" s="3"/>
@@ -16837,18 +16887,43 @@
       <c r="Z311" s="3"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
-      <c r="A312" s="3"/>
-      <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
-      <c r="J312" s="3"/>
-      <c r="K312" s="3"/>
-      <c r="L312" s="2"/>
+      <c r="A312" s="10">
+        <v>44652.0</v>
+      </c>
+      <c r="B312" s="10">
+        <v>44653.0</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="F312" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="G312" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="H312" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I312" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="J312" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K312" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L312" s="9">
+        <v>14.6</v>
+      </c>
       <c r="M312" s="3"/>
       <c r="N312" s="3"/>
       <c r="O312" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K312" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K314" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -16940,18 +16940,43 @@
       <c r="Z312" s="3"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
-      <c r="I313" s="3"/>
-      <c r="J313" s="3"/>
-      <c r="K313" s="3"/>
-      <c r="L313" s="2"/>
+      <c r="A313" s="10">
+        <v>44652.0</v>
+      </c>
+      <c r="B313" s="10">
+        <v>44655.0</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F313" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G313" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H313" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I313" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J313" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K313" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L313" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M313" s="3"/>
       <c r="N313" s="3"/>
       <c r="O313" s="3"/>
@@ -16968,18 +16993,43 @@
       <c r="Z313" s="3"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
-      <c r="A314" s="3"/>
-      <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
-      <c r="I314" s="3"/>
-      <c r="J314" s="3"/>
-      <c r="K314" s="3"/>
-      <c r="L314" s="2"/>
+      <c r="A314" s="10">
+        <v>44648.0</v>
+      </c>
+      <c r="B314" s="10">
+        <v>44627.0</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E314" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F314" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="G314" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H314" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I314" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J314" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K314" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L314" s="9">
+        <v>28.0</v>
+      </c>
       <c r="M314" s="3"/>
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -16997,7 +16997,7 @@
         <v>44648.0</v>
       </c>
       <c r="B314" s="10">
-        <v>44627.0</v>
+        <v>44658.0</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>22</v>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K314" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K317" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17046,18 +17046,43 @@
       <c r="Z314" s="3"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
-      <c r="A315" s="3"/>
-      <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
-      <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
-      <c r="K315" s="3"/>
-      <c r="L315" s="2"/>
+      <c r="A315" s="10">
+        <v>44658.0</v>
+      </c>
+      <c r="B315" s="10">
+        <v>44662.0</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" s="8">
+        <v>40.68</v>
+      </c>
+      <c r="F315" s="8">
+        <v>22.61</v>
+      </c>
+      <c r="G315" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="H315" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="I315" s="8">
+        <v>6.94</v>
+      </c>
+      <c r="J315" s="8">
+        <v>16.95</v>
+      </c>
+      <c r="K315" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L315" s="9">
+        <v>4.47</v>
+      </c>
       <c r="M315" s="3"/>
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
@@ -17074,18 +17099,43 @@
       <c r="Z315" s="3"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
-      <c r="I316" s="3"/>
-      <c r="J316" s="3"/>
-      <c r="K316" s="3"/>
-      <c r="L316" s="2"/>
+      <c r="A316" s="10">
+        <v>44659.0</v>
+      </c>
+      <c r="B316" s="10">
+        <v>44662.0</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E316" s="8">
+        <v>32.7</v>
+      </c>
+      <c r="F316" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="G316" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="H316" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I316" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="J316" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="K316" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="L316" s="9">
+        <v>12.9</v>
+      </c>
       <c r="M316" s="3"/>
       <c r="N316" s="3"/>
       <c r="O316" s="3"/>
@@ -17102,18 +17152,43 @@
       <c r="Z316" s="3"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
-      <c r="A317" s="3"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
-      <c r="I317" s="3"/>
-      <c r="J317" s="3"/>
-      <c r="K317" s="3"/>
-      <c r="L317" s="2"/>
+      <c r="A317" s="10">
+        <v>44659.0</v>
+      </c>
+      <c r="B317" s="10">
+        <v>44662.0</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F317" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G317" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H317" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I317" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J317" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="K317" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L317" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M317" s="3"/>
       <c r="N317" s="3"/>
       <c r="O317" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K317" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K319" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17205,18 +17205,43 @@
       <c r="Z317" s="3"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
-      <c r="A318" s="3"/>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
-      <c r="L318" s="2"/>
+      <c r="A318" s="10">
+        <v>44659.0</v>
+      </c>
+      <c r="B318" s="10">
+        <v>44664.0</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E318" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F318" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G318" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H318" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I318" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J318" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K318" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L318" s="9">
+        <v>14.0</v>
+      </c>
       <c r="M318" s="3"/>
       <c r="N318" s="3"/>
       <c r="O318" s="3"/>
@@ -17233,18 +17258,43 @@
       <c r="Z318" s="3"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="I319" s="3"/>
-      <c r="J319" s="3"/>
-      <c r="K319" s="3"/>
-      <c r="L319" s="2"/>
+      <c r="A319" s="10">
+        <v>44663.0</v>
+      </c>
+      <c r="B319" s="10">
+        <v>44665.0</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F319" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="G319" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H319" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I319" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="J319" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="K319" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="L319" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M319" s="3"/>
       <c r="N319" s="3"/>
       <c r="O319" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K319" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K320" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17311,18 +17311,43 @@
       <c r="Z319" s="3"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
-      <c r="A320" s="3"/>
-      <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-      <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
-      <c r="L320" s="2"/>
+      <c r="A320" s="10">
+        <v>44666.0</v>
+      </c>
+      <c r="B320" s="10">
+        <v>44669.0</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F320" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G320" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="H320" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I320" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="J320" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K320" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L320" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M320" s="3"/>
       <c r="N320" s="3"/>
       <c r="O320" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K320" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K328" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17364,18 +17364,43 @@
       <c r="Z320" s="3"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
-      <c r="A321" s="3"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
-      <c r="K321" s="3"/>
-      <c r="L321" s="2"/>
+      <c r="A321" s="10">
+        <v>44673.0</v>
+      </c>
+      <c r="B321" s="10">
+        <v>44674.0</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F321" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="G321" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="H321" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="I321" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="J321" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="K321" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L321" s="9">
+        <v>8.3</v>
+      </c>
       <c r="M321" s="3"/>
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
@@ -17392,18 +17417,43 @@
       <c r="Z321" s="3"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
-      <c r="A322" s="3"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="3"/>
-      <c r="L322" s="2"/>
+      <c r="A322" s="10">
+        <v>44673.0</v>
+      </c>
+      <c r="B322" s="10">
+        <v>44676.0</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="F322" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G322" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="H322" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I322" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="J322" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="K322" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="L322" s="9">
+        <v>11.5</v>
+      </c>
       <c r="M322" s="3"/>
       <c r="N322" s="3"/>
       <c r="O322" s="3"/>
@@ -17420,18 +17470,43 @@
       <c r="Z322" s="3"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
-      <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-      <c r="J323" s="3"/>
-      <c r="K323" s="3"/>
-      <c r="L323" s="2"/>
+      <c r="A323" s="10">
+        <v>44673.0</v>
+      </c>
+      <c r="B323" s="10">
+        <v>44676.0</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F323" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G323" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H323" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I323" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J323" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K323" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L323" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M323" s="3"/>
       <c r="N323" s="3"/>
       <c r="O323" s="3"/>
@@ -17448,18 +17523,43 @@
       <c r="Z323" s="3"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
-      <c r="A324" s="3"/>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
-      <c r="I324" s="3"/>
-      <c r="J324" s="3"/>
-      <c r="K324" s="3"/>
-      <c r="L324" s="2"/>
+      <c r="A324" s="10">
+        <v>44677.0</v>
+      </c>
+      <c r="B324" s="10">
+        <v>44677.0</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="8">
+        <v>34.7</v>
+      </c>
+      <c r="F324" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G324" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="H324" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I324" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="J324" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="K324" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L324" s="9">
+        <v>11.1</v>
+      </c>
       <c r="M324" s="3"/>
       <c r="N324" s="3"/>
       <c r="O324" s="3"/>
@@ -17476,18 +17576,43 @@
       <c r="Z324" s="3"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
-      <c r="A325" s="3"/>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
-      <c r="I325" s="3"/>
-      <c r="J325" s="3"/>
-      <c r="K325" s="3"/>
-      <c r="L325" s="2"/>
+      <c r="A325" s="10">
+        <v>44678.0</v>
+      </c>
+      <c r="B325" s="10">
+        <v>44679.0</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" s="8">
+        <v>35.41</v>
+      </c>
+      <c r="F325" s="8">
+        <v>26.48</v>
+      </c>
+      <c r="G325" s="8">
+        <v>10.12</v>
+      </c>
+      <c r="H325" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I325" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="J325" s="8">
+        <v>14.14</v>
+      </c>
+      <c r="K325" s="2">
+        <f t="shared" si="1"/>
+        <v>2.44</v>
+      </c>
+      <c r="L325" s="9">
+        <v>0.26</v>
+      </c>
       <c r="M325" s="3"/>
       <c r="N325" s="3"/>
       <c r="O325" s="3"/>
@@ -17504,18 +17629,43 @@
       <c r="Z325" s="3"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
-      <c r="A326" s="3"/>
-      <c r="B326" s="3"/>
-      <c r="C326" s="3"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="2"/>
+      <c r="A326" s="10">
+        <v>44679.0</v>
+      </c>
+      <c r="B326" s="10">
+        <v>44680.0</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="8">
+        <v>38.4</v>
+      </c>
+      <c r="F326" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G326" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="H326" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I326" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="J326" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K326" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L326" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M326" s="3"/>
       <c r="N326" s="3"/>
       <c r="O326" s="3"/>
@@ -17532,18 +17682,43 @@
       <c r="Z326" s="3"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3"/>
-      <c r="C327" s="3"/>
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="3"/>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
-      <c r="J327" s="3"/>
-      <c r="K327" s="3"/>
-      <c r="L327" s="2"/>
+      <c r="A327" s="10">
+        <v>44680.0</v>
+      </c>
+      <c r="B327" s="10">
+        <v>44684.0</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F327" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G327" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H327" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I327" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J327" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K327" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L327" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M327" s="3"/>
       <c r="N327" s="3"/>
       <c r="O327" s="3"/>
@@ -17560,18 +17735,43 @@
       <c r="Z327" s="3"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
-      <c r="A328" s="3"/>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
-      <c r="J328" s="3"/>
-      <c r="K328" s="3"/>
-      <c r="L328" s="2"/>
+      <c r="A328" s="10">
+        <v>44685.0</v>
+      </c>
+      <c r="B328" s="10">
+        <v>44685.0</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="F328" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="G328" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H328" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="I328" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J328" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="K328" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L328" s="9">
+        <v>10.1</v>
+      </c>
       <c r="M328" s="3"/>
       <c r="N328" s="3"/>
       <c r="O328" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K328" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K330" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17788,18 +17788,43 @@
       <c r="Z328" s="3"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
-      <c r="A329" s="3"/>
-      <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
-      <c r="J329" s="3"/>
-      <c r="K329" s="3"/>
-      <c r="L329" s="2"/>
+      <c r="A329" s="10">
+        <v>44687.0</v>
+      </c>
+      <c r="B329" s="10">
+        <v>44688.0</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E329" s="8">
+        <v>34.7</v>
+      </c>
+      <c r="F329" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G329" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H329" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I329" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="J329" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="K329" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="L329" s="9">
+        <v>9.6</v>
+      </c>
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
       <c r="O329" s="3"/>
@@ -17816,18 +17841,43 @@
       <c r="Z329" s="3"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
-      <c r="A330" s="3"/>
-      <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
-      <c r="J330" s="3"/>
-      <c r="K330" s="3"/>
-      <c r="L330" s="2"/>
+      <c r="A330" s="10">
+        <v>44686.0</v>
+      </c>
+      <c r="B330" s="10">
+        <v>44690.0</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330" s="8">
+        <v>30.8</v>
+      </c>
+      <c r="F330" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="G330" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H330" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I330" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="J330" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="K330" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L330" s="9">
+        <v>12.5</v>
+      </c>
       <c r="M330" s="3"/>
       <c r="N330" s="3"/>
       <c r="O330" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K330" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K331" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17894,18 +17894,43 @@
       <c r="Z330" s="3"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
-      <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
-      <c r="J331" s="3"/>
-      <c r="K331" s="3"/>
-      <c r="L331" s="2"/>
+      <c r="A331" s="10">
+        <v>44687.0</v>
+      </c>
+      <c r="B331" s="10">
+        <v>44690.0</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F331" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G331" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H331" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I331" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J331" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K331" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L331" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M331" s="3"/>
       <c r="N331" s="3"/>
       <c r="O331" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K331" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K332" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -17947,18 +17947,43 @@
       <c r="Z331" s="3"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
-      <c r="A332" s="3"/>
-      <c r="B332" s="3"/>
-      <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
-      <c r="J332" s="3"/>
-      <c r="K332" s="3"/>
-      <c r="L332" s="2"/>
+      <c r="A332" s="10">
+        <v>44683.0</v>
+      </c>
+      <c r="B332" s="10">
+        <v>44693.0</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E332" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F332" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="G332" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="H332" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I332" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="J332" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="K332" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L332" s="9">
+        <v>23.0</v>
+      </c>
       <c r="M332" s="3"/>
       <c r="N332" s="3"/>
       <c r="O332" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K340" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K341" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -18424,18 +18424,43 @@
       <c r="Z340" s="3"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
-      <c r="A341" s="3"/>
-      <c r="B341" s="3"/>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-      <c r="J341" s="3"/>
-      <c r="K341" s="3"/>
-      <c r="L341" s="2"/>
+      <c r="A341" s="10">
+        <v>44707.0</v>
+      </c>
+      <c r="B341" s="10">
+        <v>44708.0</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="8">
+        <v>39.5</v>
+      </c>
+      <c r="F341" s="8">
+        <v>28.4</v>
+      </c>
+      <c r="G341" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="H341" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I341" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="J341" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="K341" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="L341" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M341" s="3"/>
       <c r="N341" s="3"/>
       <c r="O341" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K341" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K344" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -18477,18 +18477,43 @@
       <c r="Z341" s="3"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
-      <c r="A342" s="3"/>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
-      <c r="I342" s="3"/>
-      <c r="J342" s="3"/>
-      <c r="K342" s="3"/>
-      <c r="L342" s="2"/>
+      <c r="A342" s="10">
+        <v>44704.0</v>
+      </c>
+      <c r="B342" s="10">
+        <v>44711.0</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F342" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G342" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H342" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I342" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J342" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="K342" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L342" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M342" s="3"/>
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
@@ -18505,18 +18530,43 @@
       <c r="Z342" s="3"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
-      <c r="A343" s="3"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
-      <c r="J343" s="3"/>
-      <c r="K343" s="3"/>
-      <c r="L343" s="2"/>
+      <c r="A343" s="10">
+        <v>44708.0</v>
+      </c>
+      <c r="B343" s="10">
+        <v>44711.0</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="8">
+        <v>31.3</v>
+      </c>
+      <c r="F343" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G343" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H343" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="I343" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J343" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="K343" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="L343" s="9">
+        <v>11.2</v>
+      </c>
       <c r="M343" s="3"/>
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
@@ -18533,18 +18583,43 @@
       <c r="Z343" s="3"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
-      <c r="A344" s="3"/>
-      <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3"/>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
-      <c r="J344" s="3"/>
-      <c r="K344" s="3"/>
-      <c r="L344" s="2"/>
+      <c r="A344" s="10">
+        <v>44711.0</v>
+      </c>
+      <c r="B344" s="10">
+        <v>44713.0</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="F344" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="G344" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H344" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I344" s="8">
+        <v>4.1</v>
+      </c>
+      <c r="J344" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="K344" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L344" s="9">
+        <v>11.9</v>
+      </c>
       <c r="M344" s="3"/>
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K344" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K345" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -18636,18 +18636,43 @@
       <c r="Z344" s="3"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
-      <c r="A345" s="3"/>
-      <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
-      <c r="J345" s="3"/>
-      <c r="K345" s="3"/>
-      <c r="L345" s="2"/>
+      <c r="A345" s="10">
+        <v>44715.0</v>
+      </c>
+      <c r="B345" s="10">
+        <v>44716.0</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="F345" s="8">
+        <v>24.9</v>
+      </c>
+      <c r="G345" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H345" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I345" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J345" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K345" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L345" s="9">
+        <v>7.3</v>
+      </c>
       <c r="M345" s="3"/>
       <c r="N345" s="3"/>
       <c r="O345" s="3"/>
@@ -18664,18 +18689,42 @@
       <c r="Z345" s="3"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
-      <c r="F346" s="3"/>
-      <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
-      <c r="J346" s="3"/>
-      <c r="K346" s="3"/>
-      <c r="L346" s="2"/>
+      <c r="A346" s="10">
+        <v>44718.0</v>
+      </c>
+      <c r="B346" s="10">
+        <v>44719.0</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" s="8">
+        <v>37.1</v>
+      </c>
+      <c r="F346" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G346" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="H346" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I346" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="J346" s="8">
+        <v>10.2</v>
+      </c>
+      <c r="K346" s="9">
+        <v>9.7</v>
+      </c>
+      <c r="L346" s="9">
+        <v>9.7</v>
+      </c>
       <c r="M346" s="3"/>
       <c r="N346" s="3"/>
       <c r="O346" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K345" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K351" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -18719,8 +18719,9 @@
       <c r="J346" s="8">
         <v>10.2</v>
       </c>
-      <c r="K346" s="9">
-        <v>9.7</v>
+      <c r="K346" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L346" s="9">
         <v>9.7</v>
@@ -18741,18 +18742,43 @@
       <c r="Z346" s="3"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="A347" s="3"/>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="3"/>
-      <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
-      <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
-      <c r="K347" s="3"/>
-      <c r="L347" s="2"/>
+      <c r="A347" s="10">
+        <v>44715.0</v>
+      </c>
+      <c r="B347" s="10">
+        <v>44718.0</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F347" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G347" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H347" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I347" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J347" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="K347" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L347" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M347" s="3"/>
       <c r="N347" s="3"/>
       <c r="O347" s="3"/>
@@ -18769,18 +18795,43 @@
       <c r="Z347" s="3"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
-      <c r="A348" s="3"/>
-      <c r="B348" s="3"/>
-      <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
-      <c r="J348" s="3"/>
-      <c r="K348" s="3"/>
-      <c r="L348" s="2"/>
+      <c r="A348" s="10">
+        <v>44715.0</v>
+      </c>
+      <c r="B348" s="10">
+        <v>44720.0</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="F348" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="G348" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H348" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I348" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J348" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K348" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L348" s="9">
+        <v>20.0</v>
+      </c>
       <c r="M348" s="3"/>
       <c r="N348" s="3"/>
       <c r="O348" s="3"/>
@@ -18797,18 +18848,43 @@
       <c r="Z348" s="3"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
-      <c r="A349" s="3"/>
-      <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
-      <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
-      <c r="K349" s="3"/>
-      <c r="L349" s="2"/>
+      <c r="A349" s="10">
+        <v>44711.0</v>
+      </c>
+      <c r="B349" s="10">
+        <v>44721.0</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E349" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F349" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="G349" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H349" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I349" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J349" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K349" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L349" s="9">
+        <v>20.0</v>
+      </c>
       <c r="M349" s="3"/>
       <c r="N349" s="3"/>
       <c r="O349" s="3"/>
@@ -18825,18 +18901,43 @@
       <c r="Z349" s="3"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
-      <c r="A350" s="3"/>
-      <c r="B350" s="3"/>
-      <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
-      <c r="J350" s="3"/>
-      <c r="K350" s="3"/>
-      <c r="L350" s="2"/>
+      <c r="A350" s="10">
+        <v>44719.0</v>
+      </c>
+      <c r="B350" s="10">
+        <v>44721.0</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="F350" s="8">
+        <v>22.3</v>
+      </c>
+      <c r="G350" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="H350" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I350" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="J350" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K350" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L350" s="9">
+        <v>16.8</v>
+      </c>
       <c r="M350" s="3"/>
       <c r="N350" s="3"/>
       <c r="O350" s="3"/>
@@ -18853,18 +18954,43 @@
       <c r="Z350" s="3"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
-      <c r="A351" s="3"/>
-      <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
-      <c r="F351" s="3"/>
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
-      <c r="I351" s="3"/>
-      <c r="J351" s="3"/>
-      <c r="K351" s="3"/>
-      <c r="L351" s="2"/>
+      <c r="A351" s="10">
+        <v>44721.0</v>
+      </c>
+      <c r="B351" s="10">
+        <v>44722.0</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="F351" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="G351" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="H351" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I351" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="J351" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K351" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="L351" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M351" s="3"/>
       <c r="N351" s="3"/>
       <c r="O351" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K351" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K352" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19007,18 +19007,43 @@
       <c r="Z351" s="3"/>
     </row>
     <row r="352" ht="12.75" customHeight="1">
-      <c r="A352" s="3"/>
-      <c r="B352" s="3"/>
-      <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
-      <c r="J352" s="3"/>
-      <c r="K352" s="3"/>
-      <c r="L352" s="2"/>
+      <c r="A352" s="10">
+        <v>44722.0</v>
+      </c>
+      <c r="B352" s="10">
+        <v>44725.0</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="8">
+        <v>32.8</v>
+      </c>
+      <c r="F352" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="G352" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="H352" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="I352" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="J352" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="K352" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="L352" s="9">
+        <v>13.8</v>
+      </c>
       <c r="M352" s="3"/>
       <c r="N352" s="3"/>
       <c r="O352" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K352" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K355" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19060,18 +19060,43 @@
       <c r="Z352" s="3"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
-      <c r="A353" s="3"/>
-      <c r="B353" s="3"/>
-      <c r="C353" s="3"/>
-      <c r="D353" s="3"/>
-      <c r="E353" s="3"/>
-      <c r="F353" s="3"/>
-      <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
-      <c r="I353" s="3"/>
-      <c r="J353" s="3"/>
-      <c r="K353" s="3"/>
-      <c r="L353" s="2"/>
+      <c r="A353" s="10">
+        <v>44729.0</v>
+      </c>
+      <c r="B353" s="10">
+        <v>44730.0</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="F353" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="G353" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H353" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="I353" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="J353" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="K353" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L353" s="9">
+        <v>11.9</v>
+      </c>
       <c r="M353" s="3"/>
       <c r="N353" s="3"/>
       <c r="O353" s="3"/>
@@ -19088,18 +19113,43 @@
       <c r="Z353" s="3"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
-      <c r="A354" s="3"/>
-      <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
-      <c r="J354" s="3"/>
-      <c r="K354" s="3"/>
-      <c r="L354" s="2"/>
+      <c r="A354" s="10">
+        <v>44720.0</v>
+      </c>
+      <c r="B354" s="10">
+        <v>44725.0</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="8">
+        <v>37.01</v>
+      </c>
+      <c r="F354" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="G354" s="8">
+        <v>7.94</v>
+      </c>
+      <c r="H354" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="I354" s="8">
+        <v>7.73</v>
+      </c>
+      <c r="J354" s="8">
+        <v>15.52</v>
+      </c>
+      <c r="K354" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L354" s="9">
+        <v>1.35</v>
+      </c>
       <c r="M354" s="3"/>
       <c r="N354" s="3"/>
       <c r="O354" s="3"/>
@@ -19116,18 +19166,43 @@
       <c r="Z354" s="3"/>
     </row>
     <row r="355" ht="12.75" customHeight="1">
-      <c r="A355" s="3"/>
-      <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-      <c r="J355" s="3"/>
-      <c r="K355" s="3"/>
-      <c r="L355" s="2"/>
+      <c r="A355" s="10">
+        <v>44722.0</v>
+      </c>
+      <c r="B355" s="10">
+        <v>44725.0</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F355" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G355" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H355" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I355" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J355" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K355" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L355" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M355" s="3"/>
       <c r="N355" s="3"/>
       <c r="O355" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K355" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K358" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19219,18 +19219,43 @@
       <c r="Z355" s="3"/>
     </row>
     <row r="356" ht="12.75" customHeight="1">
-      <c r="A356" s="3"/>
-      <c r="B356" s="3"/>
-      <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
-      <c r="J356" s="3"/>
-      <c r="K356" s="3"/>
-      <c r="L356" s="2"/>
+      <c r="A356" s="10">
+        <v>44729.0</v>
+      </c>
+      <c r="B356" s="10">
+        <v>44731.0</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E356" s="8">
+        <v>34.2</v>
+      </c>
+      <c r="F356" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G356" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H356" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I356" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="J356" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K356" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L356" s="9">
+        <v>13.6</v>
+      </c>
       <c r="M356" s="3"/>
       <c r="N356" s="3"/>
       <c r="O356" s="3"/>
@@ -19247,18 +19272,43 @@
       <c r="Z356" s="3"/>
     </row>
     <row r="357" ht="12.75" customHeight="1">
-      <c r="A357" s="3"/>
-      <c r="B357" s="3"/>
-      <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
-      <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
-      <c r="J357" s="3"/>
-      <c r="K357" s="3"/>
-      <c r="L357" s="2"/>
+      <c r="A357" s="10">
+        <v>44733.0</v>
+      </c>
+      <c r="B357" s="10">
+        <v>44734.0</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357" s="8">
+        <v>35.28</v>
+      </c>
+      <c r="F357" s="8">
+        <v>23.88</v>
+      </c>
+      <c r="G357" s="8">
+        <v>10.68</v>
+      </c>
+      <c r="H357" s="8">
+        <v>6.63</v>
+      </c>
+      <c r="I357" s="8">
+        <v>5.97</v>
+      </c>
+      <c r="J357" s="8">
+        <v>13.68</v>
+      </c>
+      <c r="K357" s="2">
+        <f t="shared" si="1"/>
+        <v>2.27</v>
+      </c>
+      <c r="L357" s="9">
+        <v>1.61</v>
+      </c>
       <c r="M357" s="3"/>
       <c r="N357" s="3"/>
       <c r="O357" s="3"/>
@@ -19275,18 +19325,43 @@
       <c r="Z357" s="3"/>
     </row>
     <row r="358" ht="12.75" customHeight="1">
-      <c r="A358" s="3"/>
-      <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
-      <c r="J358" s="3"/>
-      <c r="K358" s="3"/>
-      <c r="L358" s="2"/>
+      <c r="A358" s="10">
+        <v>44734.0</v>
+      </c>
+      <c r="B358" s="10">
+        <v>44735.0</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="F358" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G358" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H358" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I358" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J358" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K358" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L358" s="9">
+        <v>16.0</v>
+      </c>
       <c r="M358" s="3"/>
       <c r="N358" s="3"/>
       <c r="O358" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K358" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K359" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19378,18 +19378,43 @@
       <c r="Z358" s="3"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
-      <c r="A359" s="3"/>
-      <c r="B359" s="3"/>
-      <c r="C359" s="3"/>
-      <c r="D359" s="3"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
-      <c r="J359" s="3"/>
-      <c r="K359" s="3"/>
-      <c r="L359" s="2"/>
+      <c r="A359" s="10">
+        <v>44735.0</v>
+      </c>
+      <c r="B359" s="10">
+        <v>44736.0</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F359" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="G359" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="H359" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I359" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="J359" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="K359" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L359" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M359" s="3"/>
       <c r="N359" s="3"/>
       <c r="O359" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K359" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K361" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19431,18 +19431,43 @@
       <c r="Z359" s="3"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
-      <c r="A360" s="3"/>
-      <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
-      <c r="J360" s="3"/>
-      <c r="K360" s="3"/>
-      <c r="L360" s="2"/>
+      <c r="A360" s="10">
+        <v>44736.0</v>
+      </c>
+      <c r="B360" s="10">
+        <v>44739.0</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E360" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="F360" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="G360" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="H360" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="I360" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="J360" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="K360" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="L360" s="9">
+        <v>10.9</v>
+      </c>
       <c r="M360" s="3"/>
       <c r="N360" s="3"/>
       <c r="O360" s="3"/>
@@ -19459,18 +19484,43 @@
       <c r="Z360" s="3"/>
     </row>
     <row r="361" ht="12.75" customHeight="1">
-      <c r="A361" s="3"/>
-      <c r="B361" s="3"/>
-      <c r="C361" s="3"/>
-      <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
-      <c r="J361" s="3"/>
-      <c r="K361" s="3"/>
-      <c r="L361" s="2"/>
+      <c r="A361" s="10">
+        <v>44736.0</v>
+      </c>
+      <c r="B361" s="10">
+        <v>44739.0</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F361" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G361" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H361" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I361" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J361" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K361" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L361" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M361" s="3"/>
       <c r="N361" s="3"/>
       <c r="O361" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K361" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K362" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19537,18 +19537,43 @@
       <c r="Z361" s="3"/>
     </row>
     <row r="362" ht="12.75" customHeight="1">
-      <c r="A362" s="3"/>
-      <c r="B362" s="3"/>
-      <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-      <c r="J362" s="3"/>
-      <c r="K362" s="3"/>
-      <c r="L362" s="2"/>
+      <c r="A362" s="10">
+        <v>44743.0</v>
+      </c>
+      <c r="B362" s="10">
+        <v>44744.0</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362" s="8">
+        <v>33.1</v>
+      </c>
+      <c r="F362" s="8">
+        <v>24.7</v>
+      </c>
+      <c r="G362" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H362" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="I362" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="J362" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="K362" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L362" s="9">
+        <v>11.2</v>
+      </c>
       <c r="M362" s="3"/>
       <c r="N362" s="3"/>
       <c r="O362" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K362" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K364" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19590,18 +19590,43 @@
       <c r="Z362" s="3"/>
     </row>
     <row r="363" ht="12.75" customHeight="1">
-      <c r="A363" s="3"/>
-      <c r="B363" s="3"/>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
-      <c r="K363" s="3"/>
-      <c r="L363" s="2"/>
+      <c r="A363" s="10">
+        <v>44743.0</v>
+      </c>
+      <c r="B363" s="10">
+        <v>44746.0</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F363" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G363" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H363" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I363" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J363" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K363" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L363" s="9">
+        <v>5.0</v>
+      </c>
       <c r="M363" s="3"/>
       <c r="N363" s="3"/>
       <c r="O363" s="3"/>
@@ -19618,18 +19643,43 @@
       <c r="Z363" s="3"/>
     </row>
     <row r="364" ht="12.75" customHeight="1">
-      <c r="A364" s="3"/>
-      <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3"/>
-      <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
-      <c r="J364" s="3"/>
-      <c r="K364" s="3"/>
-      <c r="L364" s="2"/>
+      <c r="A364" s="10">
+        <v>44747.0</v>
+      </c>
+      <c r="B364" s="10">
+        <v>44747.0</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E364" s="8">
+        <v>33.7</v>
+      </c>
+      <c r="F364" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="G364" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="H364" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="I364" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J364" s="8">
+        <v>9.8</v>
+      </c>
+      <c r="K364" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L364" s="9">
+        <v>11.6</v>
+      </c>
       <c r="M364" s="3"/>
       <c r="N364" s="3"/>
       <c r="O364" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K364" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K365" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19696,18 +19696,43 @@
       <c r="Z364" s="3"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
-      <c r="A365" s="3"/>
-      <c r="B365" s="3"/>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
-      <c r="K365" s="3"/>
-      <c r="L365" s="2"/>
+      <c r="A365" s="10">
+        <v>44739.0</v>
+      </c>
+      <c r="B365" s="10">
+        <v>44749.0</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E365" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="F365" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="G365" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H365" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I365" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J365" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K365" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L365" s="9">
+        <v>22.0</v>
+      </c>
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
       <c r="O365" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K365" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K367" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19749,18 +19749,43 @@
       <c r="Z365" s="3"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
-      <c r="A366" s="3"/>
-      <c r="B366" s="3"/>
-      <c r="C366" s="3"/>
-      <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-      <c r="J366" s="3"/>
-      <c r="K366" s="3"/>
-      <c r="L366" s="2"/>
+      <c r="A366" s="10">
+        <v>44750.0</v>
+      </c>
+      <c r="B366" s="10">
+        <v>44753.0</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="F366" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="G366" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H366" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I366" s="8">
+        <v>4.9</v>
+      </c>
+      <c r="J366" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="K366" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="L366" s="9">
+        <v>11.2</v>
+      </c>
       <c r="M366" s="3"/>
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
@@ -19777,18 +19802,43 @@
       <c r="Z366" s="3"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
-      <c r="A367" s="3"/>
-      <c r="B367" s="3"/>
-      <c r="C367" s="3"/>
-      <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-      <c r="J367" s="3"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="2"/>
+      <c r="A367" s="10">
+        <v>44750.0</v>
+      </c>
+      <c r="B367" s="10">
+        <v>44753.0</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E367" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F367" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G367" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H367" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I367" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J367" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K367" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L367" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M367" s="3"/>
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K367" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K371" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -19855,18 +19855,43 @@
       <c r="Z367" s="3"/>
     </row>
     <row r="368" ht="12.75" customHeight="1">
-      <c r="A368" s="3"/>
-      <c r="B368" s="3"/>
-      <c r="C368" s="3"/>
-      <c r="D368" s="3"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="3"/>
-      <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
-      <c r="K368" s="3"/>
-      <c r="L368" s="2"/>
+      <c r="A368" s="10">
+        <v>44757.0</v>
+      </c>
+      <c r="B368" s="10">
+        <v>44758.0</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D368" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E368" s="8">
+        <v>37.1</v>
+      </c>
+      <c r="F368" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="G368" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H368" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I368" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J368" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K368" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="L368" s="9">
+        <v>0.2</v>
+      </c>
       <c r="M368" s="3"/>
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
@@ -19883,18 +19908,43 @@
       <c r="Z368" s="3"/>
     </row>
     <row r="369" ht="12.75" customHeight="1">
-      <c r="A369" s="3"/>
-      <c r="B369" s="3"/>
-      <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3"/>
-      <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
-      <c r="I369" s="3"/>
-      <c r="J369" s="3"/>
-      <c r="K369" s="3"/>
-      <c r="L369" s="2"/>
+      <c r="A369" s="10">
+        <v>44757.0</v>
+      </c>
+      <c r="B369" s="10">
+        <v>44760.0</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F369" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G369" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H369" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I369" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J369" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K369" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L369" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M369" s="3"/>
       <c r="N369" s="3"/>
       <c r="O369" s="3"/>
@@ -19911,18 +19961,43 @@
       <c r="Z369" s="3"/>
     </row>
     <row r="370" ht="12.75" customHeight="1">
-      <c r="A370" s="3"/>
-      <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
-      <c r="D370" s="3"/>
-      <c r="E370" s="3"/>
-      <c r="F370" s="3"/>
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
-      <c r="J370" s="3"/>
-      <c r="K370" s="3"/>
-      <c r="L370" s="2"/>
+      <c r="A370" s="10">
+        <v>44761.0</v>
+      </c>
+      <c r="B370" s="10">
+        <v>44761.0</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" s="8">
+        <v>33.8</v>
+      </c>
+      <c r="F370" s="8">
+        <v>27.33</v>
+      </c>
+      <c r="G370" s="8">
+        <v>12.69</v>
+      </c>
+      <c r="H370" s="8">
+        <v>5.13</v>
+      </c>
+      <c r="I370" s="8">
+        <v>8.66</v>
+      </c>
+      <c r="J370" s="8">
+        <v>11.01</v>
+      </c>
+      <c r="K370" s="2">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="L370" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M370" s="3"/>
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
@@ -19939,18 +20014,43 @@
       <c r="Z370" s="3"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
-      <c r="A371" s="3"/>
-      <c r="B371" s="3"/>
-      <c r="C371" s="3"/>
-      <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
-      <c r="F371" s="3"/>
-      <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
-      <c r="J371" s="3"/>
-      <c r="K371" s="3"/>
-      <c r="L371" s="2"/>
+      <c r="A371" s="10">
+        <v>44757.0</v>
+      </c>
+      <c r="B371" s="10">
+        <v>44762.0</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E371" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="F371" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G371" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H371" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I371" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J371" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K371" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L371" s="9">
+        <v>16.0</v>
+      </c>
       <c r="M371" s="3"/>
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K371" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K372" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -20067,18 +20067,43 @@
       <c r="Z371" s="3"/>
     </row>
     <row r="372" ht="12.75" customHeight="1">
-      <c r="A372" s="3"/>
-      <c r="B372" s="3"/>
-      <c r="C372" s="3"/>
-      <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="3"/>
-      <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
-      <c r="I372" s="3"/>
-      <c r="J372" s="3"/>
-      <c r="K372" s="3"/>
-      <c r="L372" s="2"/>
+      <c r="A372" s="10">
+        <v>44764.0</v>
+      </c>
+      <c r="B372" s="10">
+        <v>44765.0</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E372" s="8">
+        <v>34.2</v>
+      </c>
+      <c r="F372" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="G372" s="8">
+        <v>9.8</v>
+      </c>
+      <c r="H372" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I372" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J372" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K372" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L372" s="9">
+        <v>10.4</v>
+      </c>
       <c r="M372" s="3"/>
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K372" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K373" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -20120,18 +20120,43 @@
       <c r="Z372" s="3"/>
     </row>
     <row r="373" ht="12.75" customHeight="1">
-      <c r="A373" s="3"/>
-      <c r="B373" s="3"/>
-      <c r="C373" s="3"/>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
-      <c r="K373" s="3"/>
-      <c r="L373" s="2"/>
+      <c r="A373" s="10">
+        <v>44764.0</v>
+      </c>
+      <c r="B373" s="10">
+        <v>44767.0</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E373" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F373" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G373" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H373" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I373" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J373" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K373" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L373" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M373" s="3"/>
       <c r="N373" s="3"/>
       <c r="O373" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K373" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K376" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -20173,18 +20173,43 @@
       <c r="Z373" s="3"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
-      <c r="A374" s="3"/>
-      <c r="B374" s="3"/>
-      <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="2"/>
+      <c r="A374" s="10">
+        <v>44768.0</v>
+      </c>
+      <c r="B374" s="10">
+        <v>44768.0</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E374" s="8">
+        <v>34.9</v>
+      </c>
+      <c r="F374" s="8">
+        <v>26.5</v>
+      </c>
+      <c r="G374" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H374" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="I374" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J374" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="K374" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L374" s="9">
+        <v>6.8</v>
+      </c>
       <c r="M374" s="3"/>
       <c r="N374" s="3"/>
       <c r="O374" s="3"/>
@@ -20201,18 +20226,43 @@
       <c r="Z374" s="3"/>
     </row>
     <row r="375" ht="12.75" customHeight="1">
-      <c r="A375" s="3"/>
-      <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
-      <c r="K375" s="3"/>
-      <c r="L375" s="2"/>
+      <c r="A375" s="10">
+        <v>44770.0</v>
+      </c>
+      <c r="B375" s="10">
+        <v>44771.0</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E375" s="8">
+        <v>36.6</v>
+      </c>
+      <c r="F375" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="G375" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="H375" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="I375" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="J375" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="K375" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L375" s="9">
+        <v>0.4</v>
+      </c>
       <c r="M375" s="3"/>
       <c r="N375" s="3"/>
       <c r="O375" s="3"/>
@@ -20229,18 +20279,43 @@
       <c r="Z375" s="3"/>
     </row>
     <row r="376" ht="12.75" customHeight="1">
-      <c r="A376" s="3"/>
-      <c r="B376" s="3"/>
-      <c r="C376" s="3"/>
-      <c r="D376" s="3"/>
-      <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-      <c r="J376" s="3"/>
-      <c r="K376" s="3"/>
-      <c r="L376" s="2"/>
+      <c r="A376" s="10">
+        <v>44771.0</v>
+      </c>
+      <c r="B376" s="10">
+        <v>44773.0</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E376" s="8">
+        <v>33.2</v>
+      </c>
+      <c r="F376" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="G376" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H376" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I376" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="J376" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="K376" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L376" s="9">
+        <v>8.6</v>
+      </c>
       <c r="M376" s="3"/>
       <c r="N376" s="3"/>
       <c r="O376" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K376" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K385" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -20332,18 +20332,43 @@
       <c r="Z376" s="3"/>
     </row>
     <row r="377" ht="12.75" customHeight="1">
-      <c r="A377" s="3"/>
-      <c r="B377" s="3"/>
-      <c r="C377" s="3"/>
-      <c r="D377" s="3"/>
-      <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
-      <c r="J377" s="3"/>
-      <c r="K377" s="3"/>
-      <c r="L377" s="2"/>
+      <c r="A377" s="10">
+        <v>44770.0</v>
+      </c>
+      <c r="B377" s="10">
+        <v>44774.0</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="8">
+        <v>38.2</v>
+      </c>
+      <c r="F377" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="G377" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="H377" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I377" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="J377" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="K377" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L377" s="9">
+        <v>7.1</v>
+      </c>
       <c r="M377" s="3"/>
       <c r="N377" s="3"/>
       <c r="O377" s="3"/>
@@ -20360,18 +20385,43 @@
       <c r="Z377" s="3"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
-      <c r="A378" s="3"/>
-      <c r="B378" s="3"/>
-      <c r="C378" s="3"/>
-      <c r="D378" s="3"/>
-      <c r="E378" s="3"/>
-      <c r="F378" s="3"/>
-      <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
-      <c r="J378" s="3"/>
-      <c r="K378" s="3"/>
-      <c r="L378" s="2"/>
+      <c r="A378" s="10">
+        <v>44771.0</v>
+      </c>
+      <c r="B378" s="10">
+        <v>44774.0</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F378" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G378" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H378" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I378" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J378" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K378" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L378" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M378" s="3"/>
       <c r="N378" s="3"/>
       <c r="O378" s="3"/>
@@ -20388,18 +20438,43 @@
       <c r="Z378" s="3"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
-      <c r="A379" s="3"/>
-      <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
-      <c r="D379" s="3"/>
-      <c r="E379" s="3"/>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-      <c r="J379" s="3"/>
-      <c r="K379" s="3"/>
-      <c r="L379" s="2"/>
+      <c r="A379" s="10">
+        <v>44778.0</v>
+      </c>
+      <c r="B379" s="10">
+        <v>44781.0</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E379" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F379" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="G379" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H379" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I379" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J379" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K379" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L379" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M379" s="3"/>
       <c r="N379" s="3"/>
       <c r="O379" s="3"/>
@@ -20416,18 +20491,43 @@
       <c r="Z379" s="3"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
-      <c r="A380" s="3"/>
-      <c r="B380" s="3"/>
-      <c r="C380" s="3"/>
-      <c r="D380" s="3"/>
-      <c r="E380" s="3"/>
-      <c r="F380" s="3"/>
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-      <c r="J380" s="3"/>
-      <c r="K380" s="3"/>
-      <c r="L380" s="2"/>
+      <c r="A380" s="10">
+        <v>44778.0</v>
+      </c>
+      <c r="B380" s="10">
+        <v>44781.0</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E380" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F380" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G380" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H380" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I380" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J380" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K380" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L380" s="9">
+        <v>16.0</v>
+      </c>
       <c r="M380" s="3"/>
       <c r="N380" s="3"/>
       <c r="O380" s="3"/>
@@ -20444,18 +20544,43 @@
       <c r="Z380" s="3"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
-      <c r="A381" s="3"/>
-      <c r="B381" s="3"/>
-      <c r="C381" s="3"/>
-      <c r="D381" s="3"/>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-      <c r="J381" s="3"/>
-      <c r="K381" s="3"/>
-      <c r="L381" s="2"/>
+      <c r="A381" s="10">
+        <v>44784.0</v>
+      </c>
+      <c r="B381" s="10">
+        <v>44785.0</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" s="8">
+        <v>36.8</v>
+      </c>
+      <c r="F381" s="8">
+        <v>26.8</v>
+      </c>
+      <c r="G381" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H381" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="I381" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="J381" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K381" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="L381" s="9">
+        <v>0.2</v>
+      </c>
       <c r="M381" s="3"/>
       <c r="N381" s="3"/>
       <c r="O381" s="3"/>
@@ -20472,18 +20597,43 @@
       <c r="Z381" s="3"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
-      <c r="A382" s="3"/>
-      <c r="B382" s="3"/>
-      <c r="C382" s="3"/>
-      <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="3"/>
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
-      <c r="J382" s="3"/>
-      <c r="K382" s="3"/>
-      <c r="L382" s="2"/>
+      <c r="A382" s="10">
+        <v>44785.0</v>
+      </c>
+      <c r="B382" s="10">
+        <v>44788.0</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="8">
+        <v>34.7</v>
+      </c>
+      <c r="F382" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="G382" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="H382" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I382" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="J382" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="K382" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
+      <c r="L382" s="9">
+        <v>11.4</v>
+      </c>
       <c r="M382" s="3"/>
       <c r="N382" s="3"/>
       <c r="O382" s="3"/>
@@ -20500,18 +20650,43 @@
       <c r="Z382" s="3"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
-      <c r="A383" s="3"/>
-      <c r="B383" s="3"/>
-      <c r="C383" s="3"/>
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
-      <c r="F383" s="3"/>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
-      <c r="J383" s="3"/>
-      <c r="K383" s="3"/>
-      <c r="L383" s="2"/>
+      <c r="A383" s="10">
+        <v>44785.0</v>
+      </c>
+      <c r="B383" s="10">
+        <v>44788.0</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F383" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G383" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H383" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I383" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J383" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K383" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L383" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M383" s="3"/>
       <c r="N383" s="3"/>
       <c r="O383" s="3"/>
@@ -20528,18 +20703,43 @@
       <c r="Z383" s="3"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
-      <c r="A384" s="3"/>
-      <c r="B384" s="3"/>
-      <c r="C384" s="3"/>
-      <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
-      <c r="F384" s="3"/>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
-      <c r="K384" s="3"/>
-      <c r="L384" s="2"/>
+      <c r="A384" s="10">
+        <v>44785.0</v>
+      </c>
+      <c r="B384" s="10">
+        <v>44790.0</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E384" s="8">
+        <v>33.7</v>
+      </c>
+      <c r="F384" s="8">
+        <v>29.09</v>
+      </c>
+      <c r="G384" s="8">
+        <v>7.63</v>
+      </c>
+      <c r="H384" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="I384" s="8">
+        <v>6.06</v>
+      </c>
+      <c r="J384" s="8">
+        <v>16.63</v>
+      </c>
+      <c r="K384" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L384" s="9">
+        <v>3.67</v>
+      </c>
       <c r="M384" s="3"/>
       <c r="N384" s="3"/>
       <c r="O384" s="3"/>
@@ -20556,18 +20756,43 @@
       <c r="Z384" s="3"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
-      <c r="A385" s="3"/>
-      <c r="B385" s="3"/>
-      <c r="C385" s="3"/>
-      <c r="D385" s="3"/>
-      <c r="E385" s="3"/>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
-      <c r="J385" s="3"/>
-      <c r="K385" s="3"/>
-      <c r="L385" s="2"/>
+      <c r="A385" s="10">
+        <v>44790.0</v>
+      </c>
+      <c r="B385" s="10">
+        <v>44791.0</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="F385" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G385" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H385" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I385" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J385" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="K385" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L385" s="9">
+        <v>13.0</v>
+      </c>
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
       <c r="O385" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K385" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K393" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -20809,18 +20809,43 @@
       <c r="Z385" s="3"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
-      <c r="A386" s="3"/>
-      <c r="B386" s="3"/>
-      <c r="C386" s="3"/>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-      <c r="J386" s="3"/>
-      <c r="K386" s="3"/>
-      <c r="L386" s="2"/>
+      <c r="A386" s="10">
+        <v>44792.0</v>
+      </c>
+      <c r="B386" s="10">
+        <v>44795.0</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E386" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F386" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G386" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H386" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I386" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J386" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K386" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L386" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M386" s="3"/>
       <c r="N386" s="3"/>
       <c r="O386" s="3"/>
@@ -20837,18 +20862,43 @@
       <c r="Z386" s="3"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
-      <c r="A387" s="3"/>
-      <c r="B387" s="3"/>
-      <c r="C387" s="3"/>
-      <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-      <c r="J387" s="3"/>
-      <c r="K387" s="3"/>
-      <c r="L387" s="2"/>
+      <c r="A387" s="10">
+        <v>44796.0</v>
+      </c>
+      <c r="B387" s="10">
+        <v>44797.0</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E387" s="8">
+        <v>34.45</v>
+      </c>
+      <c r="F387" s="8">
+        <v>29.69</v>
+      </c>
+      <c r="G387" s="8">
+        <v>9.36</v>
+      </c>
+      <c r="H387" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I387" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="J387" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="K387" s="2">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="L387" s="9">
+        <v>0.45</v>
+      </c>
       <c r="M387" s="3"/>
       <c r="N387" s="3"/>
       <c r="O387" s="3"/>
@@ -20865,18 +20915,43 @@
       <c r="Z387" s="3"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
-      <c r="A388" s="3"/>
-      <c r="B388" s="3"/>
-      <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
-      <c r="E388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-      <c r="J388" s="3"/>
-      <c r="K388" s="3"/>
-      <c r="L388" s="2"/>
+      <c r="A388" s="10">
+        <v>44787.0</v>
+      </c>
+      <c r="B388" s="10">
+        <v>44798.0</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E388" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="F388" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="G388" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H388" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I388" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J388" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K388" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L388" s="9">
+        <v>23.0</v>
+      </c>
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
@@ -20893,18 +20968,43 @@
       <c r="Z388" s="3"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
-      <c r="A389" s="3"/>
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
-      <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-      <c r="J389" s="3"/>
-      <c r="K389" s="3"/>
-      <c r="L389" s="2"/>
+      <c r="A389" s="10">
+        <v>44798.0</v>
+      </c>
+      <c r="B389" s="10">
+        <v>44799.0</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E389" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F389" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="G389" s="8">
+        <v>10.6</v>
+      </c>
+      <c r="H389" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I389" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="J389" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="K389" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L389" s="9">
+        <v>0.2</v>
+      </c>
       <c r="M389" s="3"/>
       <c r="N389" s="3"/>
       <c r="O389" s="3"/>
@@ -20921,18 +21021,43 @@
       <c r="Z389" s="3"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
-      <c r="A390" s="3"/>
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
-      <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
-      <c r="J390" s="3"/>
-      <c r="K390" s="3"/>
-      <c r="L390" s="2"/>
+      <c r="A390" s="10">
+        <v>44799.0</v>
+      </c>
+      <c r="B390" s="10">
+        <v>44800.0</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="8">
+        <v>30.9</v>
+      </c>
+      <c r="F390" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="G390" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="H390" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I390" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J390" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="K390" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L390" s="9">
+        <v>12.9</v>
+      </c>
       <c r="M390" s="3"/>
       <c r="N390" s="3"/>
       <c r="O390" s="3"/>
@@ -20949,18 +21074,43 @@
       <c r="Z390" s="3"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
-      <c r="A391" s="3"/>
-      <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
-      <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
-      <c r="F391" s="3"/>
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-      <c r="J391" s="3"/>
-      <c r="K391" s="3"/>
-      <c r="L391" s="2"/>
+      <c r="A391" s="10">
+        <v>44800.0</v>
+      </c>
+      <c r="B391" s="10">
+        <v>44801.0</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E391" s="8">
+        <v>31.6</v>
+      </c>
+      <c r="F391" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="G391" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H391" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I391" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="J391" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="K391" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L391" s="9">
+        <v>9.1</v>
+      </c>
       <c r="M391" s="3"/>
       <c r="N391" s="3"/>
       <c r="O391" s="3"/>
@@ -20977,18 +21127,43 @@
       <c r="Z391" s="3"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
-      <c r="A392" s="3"/>
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="3"/>
-      <c r="E392" s="3"/>
-      <c r="F392" s="3"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-      <c r="J392" s="3"/>
-      <c r="K392" s="3"/>
-      <c r="L392" s="2"/>
+      <c r="A392" s="10">
+        <v>44799.0</v>
+      </c>
+      <c r="B392" s="10">
+        <v>44802.0</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="8">
+        <v>35.2</v>
+      </c>
+      <c r="F392" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="G392" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H392" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="I392" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="J392" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="K392" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="L392" s="9">
+        <v>10.7</v>
+      </c>
       <c r="M392" s="3"/>
       <c r="N392" s="3"/>
       <c r="O392" s="3"/>
@@ -21005,18 +21180,43 @@
       <c r="Z392" s="3"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
-      <c r="A393" s="3"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-      <c r="J393" s="3"/>
-      <c r="K393" s="3"/>
-      <c r="L393" s="2"/>
+      <c r="A393" s="10">
+        <v>44799.0</v>
+      </c>
+      <c r="B393" s="10">
+        <v>44802.0</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F393" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G393" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H393" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I393" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J393" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K393" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L393" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M393" s="3"/>
       <c r="N393" s="3"/>
       <c r="O393" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K393" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K395" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -21233,18 +21233,43 @@
       <c r="Z393" s="3"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
-      <c r="A394" s="3"/>
-      <c r="B394" s="3"/>
-      <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
-      <c r="K394" s="3"/>
-      <c r="L394" s="2"/>
+      <c r="A394" s="10">
+        <v>44805.0</v>
+      </c>
+      <c r="B394" s="10">
+        <v>44805.0</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E394" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F394" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G394" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H394" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I394" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J394" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="K394" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L394" s="9">
+        <v>10.7</v>
+      </c>
       <c r="M394" s="3"/>
       <c r="N394" s="3"/>
       <c r="O394" s="3"/>
@@ -21261,18 +21286,43 @@
       <c r="Z394" s="3"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
-      <c r="A395" s="3"/>
-      <c r="B395" s="3"/>
-      <c r="C395" s="3"/>
-      <c r="D395" s="3"/>
-      <c r="E395" s="3"/>
-      <c r="F395" s="3"/>
-      <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
-      <c r="J395" s="3"/>
-      <c r="K395" s="3"/>
-      <c r="L395" s="2"/>
+      <c r="A395" s="10">
+        <v>44806.0</v>
+      </c>
+      <c r="B395" s="10">
+        <v>44807.0</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="8">
+        <v>33.2</v>
+      </c>
+      <c r="F395" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="G395" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="H395" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I395" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="J395" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="K395" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L395" s="9">
+        <v>8.5</v>
+      </c>
       <c r="M395" s="3"/>
       <c r="N395" s="3"/>
       <c r="O395" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K395" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K396" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -21339,18 +21339,43 @@
       <c r="Z395" s="3"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
-      <c r="A396" s="3"/>
-      <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
-      <c r="D396" s="3"/>
-      <c r="E396" s="3"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
-      <c r="J396" s="3"/>
-      <c r="K396" s="3"/>
-      <c r="L396" s="2"/>
+      <c r="A396" s="10">
+        <v>44810.0</v>
+      </c>
+      <c r="B396" s="10">
+        <v>44812.0</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="F396" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G396" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H396" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I396" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J396" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K396" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L396" s="9">
+        <v>8.0</v>
+      </c>
       <c r="M396" s="3"/>
       <c r="N396" s="3"/>
       <c r="O396" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K396" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K398" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -21392,18 +21392,43 @@
       <c r="Z396" s="3"/>
     </row>
     <row r="397" ht="12.75" customHeight="1">
-      <c r="A397" s="3"/>
-      <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
-      <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
-      <c r="J397" s="3"/>
-      <c r="K397" s="3"/>
-      <c r="L397" s="2"/>
+      <c r="A397" s="10">
+        <v>44812.0</v>
+      </c>
+      <c r="B397" s="10">
+        <v>44813.0</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F397" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="G397" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="H397" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I397" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="J397" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="K397" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L397" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M397" s="3"/>
       <c r="N397" s="3"/>
       <c r="O397" s="3"/>
@@ -21420,18 +21445,43 @@
       <c r="Z397" s="3"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
-      <c r="A398" s="3"/>
-      <c r="B398" s="3"/>
-      <c r="C398" s="3"/>
-      <c r="D398" s="3"/>
-      <c r="E398" s="3"/>
-      <c r="F398" s="3"/>
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
-      <c r="J398" s="3"/>
-      <c r="K398" s="3"/>
-      <c r="L398" s="2"/>
+      <c r="A398" s="10">
+        <v>44813.0</v>
+      </c>
+      <c r="B398" s="10">
+        <v>44815.0</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E398" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="F398" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="G398" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="H398" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I398" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="J398" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="K398" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L398" s="9">
+        <v>10.0</v>
+      </c>
       <c r="M398" s="3"/>
       <c r="N398" s="3"/>
       <c r="O398" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K398" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K400" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -21498,18 +21498,43 @@
       <c r="Z398" s="3"/>
     </row>
     <row r="399" ht="12.75" customHeight="1">
-      <c r="A399" s="3"/>
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
-      <c r="D399" s="3"/>
-      <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
-      <c r="J399" s="3"/>
-      <c r="K399" s="3"/>
-      <c r="L399" s="2"/>
+      <c r="A399" s="10">
+        <v>44806.0</v>
+      </c>
+      <c r="B399" s="10">
+        <v>44809.0</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F399" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G399" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H399" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I399" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J399" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K399" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L399" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M399" s="3"/>
       <c r="N399" s="3"/>
       <c r="O399" s="3"/>
@@ -21526,18 +21551,43 @@
       <c r="Z399" s="3"/>
     </row>
     <row r="400" ht="12.75" customHeight="1">
-      <c r="A400" s="3"/>
-      <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
-      <c r="D400" s="3"/>
-      <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
-      <c r="J400" s="3"/>
-      <c r="K400" s="3"/>
-      <c r="L400" s="2"/>
+      <c r="A400" s="10">
+        <v>44806.0</v>
+      </c>
+      <c r="B400" s="10">
+        <v>44811.0</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E400" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="F400" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G400" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H400" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I400" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J400" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K400" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L400" s="9">
+        <v>16.0</v>
+      </c>
       <c r="M400" s="3"/>
       <c r="N400" s="3"/>
       <c r="O400" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K400" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K402" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -21604,18 +21604,43 @@
       <c r="Z400" s="3"/>
     </row>
     <row r="401" ht="12.75" customHeight="1">
-      <c r="A401" s="3"/>
-      <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
-      <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
-      <c r="J401" s="3"/>
-      <c r="K401" s="3"/>
-      <c r="L401" s="2"/>
+      <c r="A401" s="10">
+        <v>44813.0</v>
+      </c>
+      <c r="B401" s="10">
+        <v>44816.0</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E401" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F401" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G401" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H401" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I401" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J401" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K401" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L401" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
       <c r="O401" s="3"/>
@@ -21632,18 +21657,43 @@
       <c r="Z401" s="3"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
-      <c r="A402" s="3"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
-      <c r="D402" s="3"/>
-      <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
-      <c r="I402" s="3"/>
-      <c r="J402" s="3"/>
-      <c r="K402" s="3"/>
-      <c r="L402" s="2"/>
+      <c r="A402" s="10">
+        <v>44809.0</v>
+      </c>
+      <c r="B402" s="10">
+        <v>44819.0</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E402" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F402" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="G402" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H402" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I402" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J402" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K402" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L402" s="9">
+        <v>21.0</v>
+      </c>
       <c r="M402" s="3"/>
       <c r="N402" s="3"/>
       <c r="O402" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K402" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K409" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -21710,18 +21710,43 @@
       <c r="Z402" s="3"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
-      <c r="A403" s="3"/>
-      <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
-      <c r="D403" s="3"/>
-      <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
-      <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
-      <c r="I403" s="3"/>
-      <c r="J403" s="3"/>
-      <c r="K403" s="3"/>
-      <c r="L403" s="2"/>
+      <c r="A403" s="10">
+        <v>44813.0</v>
+      </c>
+      <c r="B403" s="10">
+        <v>44816.0</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" s="8">
+        <v>36.7</v>
+      </c>
+      <c r="F403" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="G403" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="H403" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I403" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="J403" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="K403" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2</v>
+      </c>
+      <c r="L403" s="9">
+        <v>9.9</v>
+      </c>
       <c r="M403" s="3"/>
       <c r="N403" s="3"/>
       <c r="O403" s="3"/>
@@ -21738,18 +21763,43 @@
       <c r="Z403" s="3"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
-      <c r="A404" s="3"/>
-      <c r="B404" s="3"/>
-      <c r="C404" s="3"/>
-      <c r="D404" s="3"/>
-      <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
-      <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
-      <c r="I404" s="3"/>
-      <c r="J404" s="3"/>
-      <c r="K404" s="3"/>
-      <c r="L404" s="2"/>
+      <c r="A404" s="10">
+        <v>44817.0</v>
+      </c>
+      <c r="B404" s="10">
+        <v>44817.0</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E404" s="8">
+        <v>31.6</v>
+      </c>
+      <c r="F404" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="G404" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H404" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I404" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J404" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="K404" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L404" s="9">
+        <v>7.9</v>
+      </c>
       <c r="M404" s="3"/>
       <c r="N404" s="3"/>
       <c r="O404" s="3"/>
@@ -21766,18 +21816,43 @@
       <c r="Z404" s="3"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
-      <c r="A405" s="3"/>
-      <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
-      <c r="D405" s="3"/>
-      <c r="E405" s="3"/>
-      <c r="F405" s="3"/>
-      <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
-      <c r="I405" s="3"/>
-      <c r="J405" s="3"/>
-      <c r="K405" s="3"/>
-      <c r="L405" s="2"/>
+      <c r="A405" s="10">
+        <v>44820.0</v>
+      </c>
+      <c r="B405" s="10">
+        <v>44823.0</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E405" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F405" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G405" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H405" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I405" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J405" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K405" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L405" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M405" s="3"/>
       <c r="N405" s="3"/>
       <c r="O405" s="3"/>
@@ -21794,18 +21869,43 @@
       <c r="Z405" s="3"/>
     </row>
     <row r="406" ht="12.75" customHeight="1">
-      <c r="A406" s="3"/>
-      <c r="B406" s="3"/>
-      <c r="C406" s="3"/>
-      <c r="D406" s="3"/>
-      <c r="E406" s="3"/>
-      <c r="F406" s="3"/>
-      <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
-      <c r="I406" s="3"/>
-      <c r="J406" s="3"/>
-      <c r="K406" s="3"/>
-      <c r="L406" s="2"/>
+      <c r="A406" s="10">
+        <v>44825.0</v>
+      </c>
+      <c r="B406" s="10">
+        <v>44826.0</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E406" s="8">
+        <v>34.8</v>
+      </c>
+      <c r="F406" s="8">
+        <v>29.3</v>
+      </c>
+      <c r="G406" s="8">
+        <v>9.22</v>
+      </c>
+      <c r="H406" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="I406" s="8">
+        <v>6.31</v>
+      </c>
+      <c r="J406" s="8">
+        <v>12.63</v>
+      </c>
+      <c r="K406" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="L406" s="9">
+        <v>0.39</v>
+      </c>
       <c r="M406" s="3"/>
       <c r="N406" s="3"/>
       <c r="O406" s="3"/>
@@ -21822,18 +21922,43 @@
       <c r="Z406" s="3"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
-      <c r="A407" s="3"/>
-      <c r="B407" s="3"/>
-      <c r="C407" s="3"/>
-      <c r="D407" s="3"/>
-      <c r="E407" s="3"/>
-      <c r="F407" s="3"/>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
-      <c r="J407" s="3"/>
-      <c r="K407" s="3"/>
-      <c r="L407" s="2"/>
+      <c r="A407" s="10">
+        <v>44826.0</v>
+      </c>
+      <c r="B407" s="10">
+        <v>44827.0</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D407" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E407" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="F407" s="8">
+        <v>26.8</v>
+      </c>
+      <c r="G407" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H407" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="I407" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="J407" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="K407" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="L407" s="9">
+        <v>0.2</v>
+      </c>
       <c r="M407" s="3"/>
       <c r="N407" s="3"/>
       <c r="O407" s="3"/>
@@ -21850,18 +21975,43 @@
       <c r="Z407" s="3"/>
     </row>
     <row r="408" ht="12.75" customHeight="1">
-      <c r="A408" s="3"/>
-      <c r="B408" s="3"/>
-      <c r="C408" s="3"/>
-      <c r="D408" s="3"/>
-      <c r="E408" s="3"/>
-      <c r="F408" s="3"/>
-      <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
-      <c r="I408" s="3"/>
-      <c r="J408" s="3"/>
-      <c r="K408" s="3"/>
-      <c r="L408" s="2"/>
+      <c r="A408" s="10">
+        <v>44827.0</v>
+      </c>
+      <c r="B408" s="10">
+        <v>44827.0</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D408" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E408" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="F408" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="G408" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H408" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I408" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J408" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="K408" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L408" s="9">
+        <v>7.4</v>
+      </c>
       <c r="M408" s="3"/>
       <c r="N408" s="3"/>
       <c r="O408" s="3"/>
@@ -21878,18 +22028,43 @@
       <c r="Z408" s="3"/>
     </row>
     <row r="409" ht="12.75" customHeight="1">
-      <c r="A409" s="3"/>
-      <c r="B409" s="3"/>
-      <c r="C409" s="3"/>
-      <c r="D409" s="3"/>
-      <c r="E409" s="3"/>
-      <c r="F409" s="3"/>
-      <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
-      <c r="I409" s="3"/>
-      <c r="J409" s="3"/>
-      <c r="K409" s="3"/>
-      <c r="L409" s="2"/>
+      <c r="A409" s="10">
+        <v>44827.0</v>
+      </c>
+      <c r="B409" s="10">
+        <v>44828.0</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E409" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="F409" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="G409" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H409" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I409" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J409" s="8">
+        <v>10.6</v>
+      </c>
+      <c r="K409" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L409" s="9">
+        <v>8.5</v>
+      </c>
       <c r="M409" s="3"/>
       <c r="N409" s="3"/>
       <c r="O409" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -21979,7 +21979,7 @@
         <v>44827.0</v>
       </c>
       <c r="B408" s="10">
-        <v>44827.0</v>
+        <v>44829.0</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>20</v>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K409" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K410" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22081,18 +22081,43 @@
       <c r="Z409" s="3"/>
     </row>
     <row r="410" ht="12.75" customHeight="1">
-      <c r="A410" s="3"/>
-      <c r="B410" s="3"/>
-      <c r="C410" s="3"/>
-      <c r="D410" s="3"/>
-      <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
-      <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
-      <c r="I410" s="3"/>
-      <c r="J410" s="3"/>
-      <c r="K410" s="3"/>
-      <c r="L410" s="2"/>
+      <c r="A410" s="10">
+        <v>44827.0</v>
+      </c>
+      <c r="B410" s="10">
+        <v>44830.0</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E410" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F410" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G410" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H410" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I410" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J410" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K410" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L410" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M410" s="3"/>
       <c r="N410" s="3"/>
       <c r="O410" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K410" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K413" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22134,18 +22134,43 @@
       <c r="Z410" s="3"/>
     </row>
     <row r="411" ht="12.75" customHeight="1">
-      <c r="A411" s="3"/>
-      <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
-      <c r="D411" s="3"/>
-      <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
-      <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
-      <c r="J411" s="3"/>
-      <c r="K411" s="3"/>
-      <c r="L411" s="2"/>
+      <c r="A411" s="10">
+        <v>44834.0</v>
+      </c>
+      <c r="B411" s="10">
+        <v>44837.0</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E411" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F411" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G411" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H411" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I411" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J411" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K411" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L411" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M411" s="3"/>
       <c r="N411" s="3"/>
       <c r="O411" s="3"/>
@@ -22162,18 +22187,43 @@
       <c r="Z411" s="3"/>
     </row>
     <row r="412" ht="12.75" customHeight="1">
-      <c r="A412" s="3"/>
-      <c r="B412" s="3"/>
-      <c r="C412" s="3"/>
-      <c r="D412" s="3"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
-      <c r="I412" s="3"/>
-      <c r="J412" s="3"/>
-      <c r="K412" s="3"/>
-      <c r="L412" s="2"/>
+      <c r="A412" s="10">
+        <v>44838.0</v>
+      </c>
+      <c r="B412" s="10">
+        <v>44839.0</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E412" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="F412" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="G412" s="8">
+        <v>8.7</v>
+      </c>
+      <c r="H412" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I412" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="J412" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="K412" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L412" s="9">
+        <v>6.5</v>
+      </c>
       <c r="M412" s="3"/>
       <c r="N412" s="3"/>
       <c r="O412" s="3"/>
@@ -22190,18 +22240,43 @@
       <c r="Z412" s="3"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="A413" s="3"/>
-      <c r="B413" s="3"/>
-      <c r="C413" s="3"/>
-      <c r="D413" s="3"/>
-      <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
-      <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
-      <c r="I413" s="3"/>
-      <c r="J413" s="3"/>
-      <c r="K413" s="3"/>
-      <c r="L413" s="2"/>
+      <c r="A413" s="10">
+        <v>44841.0</v>
+      </c>
+      <c r="B413" s="10">
+        <v>44843.0</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E413" s="8">
+        <v>33.8</v>
+      </c>
+      <c r="F413" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="G413" s="8">
+        <v>8.8</v>
+      </c>
+      <c r="H413" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I413" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J413" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="K413" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L413" s="9">
+        <v>7.0</v>
+      </c>
       <c r="M413" s="3"/>
       <c r="N413" s="3"/>
       <c r="O413" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K413" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K416" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22293,18 +22293,43 @@
       <c r="Z413" s="3"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
-      <c r="A414" s="3"/>
-      <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
-      <c r="D414" s="3"/>
-      <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
-      <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
-      <c r="I414" s="3"/>
-      <c r="J414" s="3"/>
-      <c r="K414" s="3"/>
-      <c r="L414" s="2"/>
+      <c r="A414" s="10">
+        <v>44841.0</v>
+      </c>
+      <c r="B414" s="7">
+        <v>44844.0</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E414" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F414" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G414" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H414" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I414" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J414" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K414" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L414" s="9">
+        <v>3.0</v>
+      </c>
       <c r="M414" s="3"/>
       <c r="N414" s="3"/>
       <c r="O414" s="3"/>
@@ -22321,18 +22346,43 @@
       <c r="Z414" s="3"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
-      <c r="A415" s="3"/>
-      <c r="B415" s="3"/>
-      <c r="C415" s="3"/>
-      <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
-      <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
-      <c r="I415" s="3"/>
-      <c r="J415" s="3"/>
-      <c r="K415" s="3"/>
-      <c r="L415" s="2"/>
+      <c r="A415" s="10">
+        <v>44837.0</v>
+      </c>
+      <c r="B415" s="7">
+        <v>44847.0</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D415" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E415" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F415" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="G415" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H415" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I415" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J415" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K415" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L415" s="9">
+        <v>24.0</v>
+      </c>
       <c r="M415" s="3"/>
       <c r="N415" s="3"/>
       <c r="O415" s="3"/>
@@ -22349,18 +22399,43 @@
       <c r="Z415" s="3"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
-      <c r="A416" s="3"/>
-      <c r="B416" s="3"/>
-      <c r="C416" s="3"/>
-      <c r="D416" s="3"/>
-      <c r="E416" s="3"/>
-      <c r="F416" s="3"/>
-      <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
-      <c r="I416" s="3"/>
-      <c r="J416" s="3"/>
-      <c r="K416" s="3"/>
-      <c r="L416" s="2"/>
+      <c r="A416" s="7">
+        <v>44847.0</v>
+      </c>
+      <c r="B416" s="7">
+        <v>44848.0</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D416" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="8">
+        <v>37.1</v>
+      </c>
+      <c r="F416" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="G416" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="H416" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="I416" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="J416" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="K416" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="L416" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M416" s="3"/>
       <c r="N416" s="3"/>
       <c r="O416" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K416" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K418" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22452,18 +22452,43 @@
       <c r="Z416" s="3"/>
     </row>
     <row r="417" ht="12.75" customHeight="1">
-      <c r="A417" s="3"/>
-      <c r="B417" s="3"/>
-      <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
-      <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
-      <c r="G417" s="3"/>
-      <c r="H417" s="3"/>
-      <c r="I417" s="3"/>
-      <c r="J417" s="3"/>
-      <c r="K417" s="3"/>
-      <c r="L417" s="2"/>
+      <c r="A417" s="7">
+        <v>44845.0</v>
+      </c>
+      <c r="B417" s="7">
+        <v>44847.0</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D417" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="8">
+        <v>32.7</v>
+      </c>
+      <c r="F417" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="G417" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H417" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I417" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J417" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="K417" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L417" s="9">
+        <v>9.0</v>
+      </c>
       <c r="M417" s="3"/>
       <c r="N417" s="3"/>
       <c r="O417" s="3"/>
@@ -22480,18 +22505,43 @@
       <c r="Z417" s="3"/>
     </row>
     <row r="418" ht="12.75" customHeight="1">
-      <c r="A418" s="3"/>
-      <c r="B418" s="3"/>
-      <c r="C418" s="3"/>
-      <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
-      <c r="I418" s="3"/>
-      <c r="J418" s="3"/>
-      <c r="K418" s="3"/>
-      <c r="L418" s="2"/>
+      <c r="A418" s="7">
+        <v>44852.0</v>
+      </c>
+      <c r="B418" s="7">
+        <v>44853.0</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D418" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E418" s="8">
+        <v>35.56</v>
+      </c>
+      <c r="F418" s="8">
+        <v>30.69</v>
+      </c>
+      <c r="G418" s="8">
+        <v>9.01</v>
+      </c>
+      <c r="H418" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="I418" s="8">
+        <v>5.95</v>
+      </c>
+      <c r="J418" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="K418" s="2">
+        <f t="shared" si="1"/>
+        <v>1.73</v>
+      </c>
+      <c r="L418" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M418" s="3"/>
       <c r="N418" s="3"/>
       <c r="O418" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K418" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K422" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22558,18 +22558,43 @@
       <c r="Z418" s="3"/>
     </row>
     <row r="419" ht="12.75" customHeight="1">
-      <c r="A419" s="3"/>
-      <c r="B419" s="3"/>
-      <c r="C419" s="3"/>
-      <c r="D419" s="3"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
-      <c r="J419" s="3"/>
-      <c r="K419" s="3"/>
-      <c r="L419" s="2"/>
+      <c r="A419" s="7">
+        <v>44850.0</v>
+      </c>
+      <c r="B419" s="7">
+        <v>44853.0</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E419" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F419" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G419" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H419" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I419" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J419" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K419" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L419" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M419" s="3"/>
       <c r="N419" s="3"/>
       <c r="O419" s="3"/>
@@ -22586,18 +22611,43 @@
       <c r="Z419" s="3"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
-      <c r="A420" s="3"/>
-      <c r="B420" s="3"/>
-      <c r="C420" s="3"/>
-      <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-      <c r="J420" s="3"/>
-      <c r="K420" s="3"/>
-      <c r="L420" s="2"/>
+      <c r="A420" s="7">
+        <v>44851.0</v>
+      </c>
+      <c r="B420" s="7">
+        <v>44854.0</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D420" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E420" s="8">
+        <v>34.47</v>
+      </c>
+      <c r="F420" s="8">
+        <v>26.99</v>
+      </c>
+      <c r="G420" s="8">
+        <v>7.03</v>
+      </c>
+      <c r="H420" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="I420" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="J420" s="8">
+        <v>18.75</v>
+      </c>
+      <c r="K420" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L420" s="9">
+        <v>1.95</v>
+      </c>
       <c r="M420" s="3"/>
       <c r="N420" s="3"/>
       <c r="O420" s="3"/>
@@ -22614,18 +22664,43 @@
       <c r="Z420" s="3"/>
     </row>
     <row r="421" ht="12.75" customHeight="1">
-      <c r="A421" s="3"/>
-      <c r="B421" s="3"/>
-      <c r="C421" s="3"/>
-      <c r="D421" s="3"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
-      <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
-      <c r="J421" s="3"/>
-      <c r="K421" s="3"/>
-      <c r="L421" s="2"/>
+      <c r="A421" s="7">
+        <v>44855.0</v>
+      </c>
+      <c r="B421" s="7">
+        <v>44856.0</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D421" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E421" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="F421" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="G421" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="H421" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I421" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="J421" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="K421" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L421" s="9">
+        <v>10.0</v>
+      </c>
       <c r="M421" s="3"/>
       <c r="N421" s="3"/>
       <c r="O421" s="3"/>
@@ -22642,18 +22717,43 @@
       <c r="Z421" s="3"/>
     </row>
     <row r="422" ht="12.75" customHeight="1">
-      <c r="A422" s="3"/>
-      <c r="B422" s="3"/>
-      <c r="C422" s="3"/>
-      <c r="D422" s="3"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
-      <c r="J422" s="3"/>
-      <c r="K422" s="3"/>
-      <c r="L422" s="2"/>
+      <c r="A422" s="7">
+        <v>44855.0</v>
+      </c>
+      <c r="B422" s="7">
+        <v>44857.0</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E422" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="F422" s="8">
+        <v>24.7</v>
+      </c>
+      <c r="G422" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="H422" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I422" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="J422" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="K422" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L422" s="9">
+        <v>11.8</v>
+      </c>
       <c r="M422" s="3"/>
       <c r="N422" s="3"/>
       <c r="O422" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K422" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K424" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22770,18 +22770,43 @@
       <c r="Z422" s="3"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
-      <c r="A423" s="3"/>
-      <c r="B423" s="3"/>
-      <c r="C423" s="3"/>
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
-      <c r="J423" s="3"/>
-      <c r="K423" s="3"/>
-      <c r="L423" s="2"/>
+      <c r="A423" s="7">
+        <v>44848.0</v>
+      </c>
+      <c r="B423" s="7">
+        <v>44851.0</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" s="8">
+        <v>30.6</v>
+      </c>
+      <c r="F423" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G423" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H423" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="I423" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J423" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K423" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="L423" s="9">
+        <v>9.4</v>
+      </c>
       <c r="M423" s="3"/>
       <c r="N423" s="3"/>
       <c r="O423" s="3"/>
@@ -22798,18 +22823,43 @@
       <c r="Z423" s="3"/>
     </row>
     <row r="424" ht="12.75" customHeight="1">
-      <c r="A424" s="3"/>
-      <c r="B424" s="3"/>
-      <c r="C424" s="3"/>
-      <c r="D424" s="3"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
-      <c r="J424" s="3"/>
-      <c r="K424" s="3"/>
-      <c r="L424" s="2"/>
+      <c r="A424" s="7">
+        <v>44848.0</v>
+      </c>
+      <c r="B424" s="7">
+        <v>44853.0</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E424" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="F424" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="G424" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H424" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I424" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J424" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K424" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L424" s="9">
+        <v>14.0</v>
+      </c>
       <c r="M424" s="3"/>
       <c r="N424" s="3"/>
       <c r="O424" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K424" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K427" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -22876,18 +22876,43 @@
       <c r="Z424" s="3"/>
     </row>
     <row r="425" ht="12.75" customHeight="1">
-      <c r="A425" s="3"/>
-      <c r="B425" s="3"/>
-      <c r="C425" s="3"/>
-      <c r="D425" s="3"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
-      <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
-      <c r="J425" s="3"/>
-      <c r="K425" s="3"/>
-      <c r="L425" s="2"/>
+      <c r="A425" s="7">
+        <v>44855.0</v>
+      </c>
+      <c r="B425" s="7">
+        <v>44858.0</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E425" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F425" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G425" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H425" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I425" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J425" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K425" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L425" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M425" s="3"/>
       <c r="N425" s="3"/>
       <c r="O425" s="3"/>
@@ -22904,18 +22929,43 @@
       <c r="Z425" s="3"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="A426" s="3"/>
-      <c r="B426" s="3"/>
-      <c r="C426" s="3"/>
-      <c r="D426" s="3"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
-      <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
-      <c r="J426" s="3"/>
-      <c r="K426" s="3"/>
-      <c r="L426" s="2"/>
+      <c r="A426" s="7">
+        <v>44858.0</v>
+      </c>
+      <c r="B426" s="7">
+        <v>44860.0</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D426" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E426" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F426" s="8">
+        <v>29.6</v>
+      </c>
+      <c r="G426" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H426" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I426" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="J426" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="K426" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L426" s="9">
+        <v>0.9</v>
+      </c>
       <c r="M426" s="3"/>
       <c r="N426" s="3"/>
       <c r="O426" s="3"/>
@@ -22932,18 +22982,43 @@
       <c r="Z426" s="3"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
-      <c r="A427" s="3"/>
-      <c r="B427" s="3"/>
-      <c r="C427" s="3"/>
-      <c r="D427" s="3"/>
-      <c r="E427" s="3"/>
-      <c r="F427" s="3"/>
-      <c r="G427" s="3"/>
-      <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
-      <c r="J427" s="3"/>
-      <c r="K427" s="3"/>
-      <c r="L427" s="2"/>
+      <c r="A427" s="7">
+        <v>44861.0</v>
+      </c>
+      <c r="B427" s="7">
+        <v>44862.0</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D427" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E427" s="8">
+        <v>36.4</v>
+      </c>
+      <c r="F427" s="8">
+        <v>28.3</v>
+      </c>
+      <c r="G427" s="8">
+        <v>9.8</v>
+      </c>
+      <c r="H427" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="I427" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="J427" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="K427" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L427" s="9">
+        <v>0.4</v>
+      </c>
       <c r="M427" s="3"/>
       <c r="N427" s="3"/>
       <c r="O427" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K427" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K429" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -23035,18 +23035,43 @@
       <c r="Z427" s="3"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
-      <c r="A428" s="3"/>
-      <c r="B428" s="3"/>
-      <c r="C428" s="3"/>
-      <c r="D428" s="3"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
-      <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
-      <c r="J428" s="3"/>
-      <c r="K428" s="3"/>
-      <c r="L428" s="2"/>
+      <c r="A428" s="7">
+        <v>44862.0</v>
+      </c>
+      <c r="B428" s="7">
+        <v>44865.0</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E428" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="F428" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G428" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H428" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I428" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="J428" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K428" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L428" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M428" s="3"/>
       <c r="N428" s="3"/>
       <c r="O428" s="3"/>
@@ -23063,18 +23088,43 @@
       <c r="Z428" s="3"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
-      <c r="A429" s="3"/>
-      <c r="B429" s="3"/>
-      <c r="C429" s="3"/>
-      <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
-      <c r="J429" s="3"/>
-      <c r="K429" s="3"/>
-      <c r="L429" s="2"/>
+      <c r="A429" s="10">
+        <v>44869.0</v>
+      </c>
+      <c r="B429" s="10">
+        <v>44870.0</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D429" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E429" s="8">
+        <v>33.7</v>
+      </c>
+      <c r="F429" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="G429" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="H429" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I429" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J429" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="K429" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L429" s="9">
+        <v>7.0</v>
+      </c>
       <c r="M429" s="3"/>
       <c r="N429" s="3"/>
       <c r="O429" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K429" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K439" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -23141,18 +23141,43 @@
       <c r="Z429" s="3"/>
     </row>
     <row r="430" ht="12.75" customHeight="1">
-      <c r="A430" s="3"/>
-      <c r="B430" s="3"/>
-      <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
-      <c r="J430" s="3"/>
-      <c r="K430" s="3"/>
-      <c r="L430" s="2"/>
+      <c r="A430" s="10">
+        <v>44869.0</v>
+      </c>
+      <c r="B430" s="10">
+        <v>44870.0</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D430" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E430" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="F430" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G430" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="H430" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I430" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="J430" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="K430" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="L430" s="9">
+        <v>8.0</v>
+      </c>
       <c r="M430" s="3"/>
       <c r="N430" s="3"/>
       <c r="O430" s="3"/>
@@ -23169,18 +23194,43 @@
       <c r="Z430" s="3"/>
     </row>
     <row r="431" ht="12.75" customHeight="1">
-      <c r="A431" s="3"/>
-      <c r="B431" s="3"/>
-      <c r="C431" s="3"/>
-      <c r="D431" s="3"/>
-      <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
-      <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
-      <c r="J431" s="3"/>
-      <c r="K431" s="3"/>
-      <c r="L431" s="2"/>
+      <c r="A431" s="10">
+        <v>44869.0</v>
+      </c>
+      <c r="B431" s="10">
+        <v>44872.0</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E431" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="F431" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G431" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H431" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I431" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J431" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K431" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L431" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M431" s="3"/>
       <c r="N431" s="3"/>
       <c r="O431" s="3"/>
@@ -23197,18 +23247,43 @@
       <c r="Z431" s="3"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="A432" s="3"/>
-      <c r="B432" s="3"/>
-      <c r="C432" s="3"/>
-      <c r="D432" s="3"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
-      <c r="J432" s="3"/>
-      <c r="K432" s="3"/>
-      <c r="L432" s="2"/>
+      <c r="A432" s="10">
+        <v>44869.0</v>
+      </c>
+      <c r="B432" s="10">
+        <v>44874.0</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D432" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E432" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="F432" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G432" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H432" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I432" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J432" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K432" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L432" s="9">
+        <v>15.0</v>
+      </c>
       <c r="M432" s="3"/>
       <c r="N432" s="3"/>
       <c r="O432" s="3"/>
@@ -23225,18 +23300,43 @@
       <c r="Z432" s="3"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
-      <c r="A433" s="3"/>
-      <c r="B433" s="3"/>
-      <c r="C433" s="3"/>
-      <c r="D433" s="3"/>
-      <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-      <c r="J433" s="3"/>
-      <c r="K433" s="3"/>
-      <c r="L433" s="2"/>
+      <c r="A433" s="10">
+        <v>44872.0</v>
+      </c>
+      <c r="B433" s="10">
+        <v>44874.0</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D433" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E433" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F433" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G433" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H433" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I433" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J433" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="K433" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L433" s="9">
+        <v>9.0</v>
+      </c>
       <c r="M433" s="3"/>
       <c r="N433" s="3"/>
       <c r="O433" s="3"/>
@@ -23253,18 +23353,43 @@
       <c r="Z433" s="3"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
-      <c r="A434" s="3"/>
-      <c r="B434" s="3"/>
-      <c r="C434" s="3"/>
-      <c r="D434" s="3"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-      <c r="J434" s="3"/>
-      <c r="K434" s="3"/>
-      <c r="L434" s="2"/>
+      <c r="A434" s="10">
+        <v>44874.0</v>
+      </c>
+      <c r="B434" s="7">
+        <v>44875.0</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D434" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E434" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="F434" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="G434" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H434" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I434" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="J434" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="K434" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="L434" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M434" s="3"/>
       <c r="N434" s="3"/>
       <c r="O434" s="3"/>
@@ -23281,18 +23406,43 @@
       <c r="Z434" s="3"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
-      <c r="A435" s="3"/>
-      <c r="B435" s="3"/>
-      <c r="C435" s="3"/>
-      <c r="D435" s="3"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3"/>
-      <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
-      <c r="J435" s="3"/>
-      <c r="K435" s="3"/>
-      <c r="L435" s="2"/>
+      <c r="A435" s="7">
+        <v>44875.0</v>
+      </c>
+      <c r="B435" s="7">
+        <v>44877.0</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E435" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="F435" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="G435" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="H435" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I435" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="J435" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="K435" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L435" s="9">
+        <v>7.0</v>
+      </c>
       <c r="M435" s="3"/>
       <c r="N435" s="3"/>
       <c r="O435" s="3"/>
@@ -23309,18 +23459,43 @@
       <c r="Z435" s="3"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
-      <c r="A436" s="3"/>
-      <c r="B436" s="3"/>
-      <c r="C436" s="3"/>
-      <c r="D436" s="3"/>
-      <c r="E436" s="3"/>
-      <c r="F436" s="3"/>
-      <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
-      <c r="J436" s="3"/>
-      <c r="K436" s="3"/>
-      <c r="L436" s="2"/>
+      <c r="A436" s="7">
+        <v>44876.0</v>
+      </c>
+      <c r="B436" s="7">
+        <v>44879.0</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E436" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F436" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G436" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H436" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="I436" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J436" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K436" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L436" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M436" s="3"/>
       <c r="N436" s="3"/>
       <c r="O436" s="3"/>
@@ -23337,18 +23512,43 @@
       <c r="Z436" s="3"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="A437" s="3"/>
-      <c r="B437" s="3"/>
-      <c r="C437" s="3"/>
-      <c r="D437" s="3"/>
-      <c r="E437" s="3"/>
-      <c r="F437" s="3"/>
-      <c r="G437" s="3"/>
-      <c r="H437" s="3"/>
-      <c r="I437" s="3"/>
-      <c r="J437" s="3"/>
-      <c r="K437" s="3"/>
-      <c r="L437" s="2"/>
+      <c r="A437" s="7">
+        <v>44876.0</v>
+      </c>
+      <c r="B437" s="7">
+        <v>44879.0</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D437" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E437" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="F437" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="G437" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H437" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="I437" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="J437" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="K437" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="L437" s="9">
+        <v>9.6</v>
+      </c>
       <c r="M437" s="3"/>
       <c r="N437" s="3"/>
       <c r="O437" s="3"/>
@@ -23365,18 +23565,43 @@
       <c r="Z437" s="3"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
-      <c r="A438" s="3"/>
-      <c r="B438" s="3"/>
-      <c r="C438" s="3"/>
-      <c r="D438" s="3"/>
-      <c r="E438" s="3"/>
-      <c r="F438" s="3"/>
-      <c r="G438" s="3"/>
-      <c r="H438" s="3"/>
-      <c r="I438" s="3"/>
-      <c r="J438" s="3"/>
-      <c r="K438" s="3"/>
-      <c r="L438" s="2"/>
+      <c r="A438" s="7">
+        <v>44879.0</v>
+      </c>
+      <c r="B438" s="7">
+        <v>44880.0</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438" s="8">
+        <v>33.8</v>
+      </c>
+      <c r="F438" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="G438" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="H438" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I438" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="J438" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="K438" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L438" s="9">
+        <v>8.0</v>
+      </c>
       <c r="M438" s="3"/>
       <c r="N438" s="3"/>
       <c r="O438" s="3"/>
@@ -23393,18 +23618,43 @@
       <c r="Z438" s="3"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
-      <c r="A439" s="3"/>
-      <c r="B439" s="3"/>
-      <c r="C439" s="3"/>
-      <c r="D439" s="3"/>
-      <c r="E439" s="3"/>
-      <c r="F439" s="3"/>
-      <c r="G439" s="3"/>
-      <c r="H439" s="3"/>
-      <c r="I439" s="3"/>
-      <c r="J439" s="3"/>
-      <c r="K439" s="3"/>
-      <c r="L439" s="2"/>
+      <c r="A439" s="10">
+        <v>44872.0</v>
+      </c>
+      <c r="B439" s="7">
+        <v>44879.0</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D439" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E439" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F439" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="G439" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H439" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I439" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J439" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K439" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L439" s="9">
+        <v>19.0</v>
+      </c>
       <c r="M439" s="3"/>
       <c r="N439" s="3"/>
       <c r="O439" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K439" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K444" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -23671,18 +23671,43 @@
       <c r="Z439" s="3"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
-      <c r="A440" s="3"/>
-      <c r="B440" s="3"/>
-      <c r="C440" s="3"/>
-      <c r="D440" s="3"/>
-      <c r="E440" s="3"/>
-      <c r="F440" s="3"/>
-      <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
-      <c r="J440" s="3"/>
-      <c r="K440" s="3"/>
-      <c r="L440" s="2"/>
+      <c r="A440" s="7">
+        <v>44883.0</v>
+      </c>
+      <c r="B440" s="7">
+        <v>44885.0</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E440" s="8">
+        <v>33.2</v>
+      </c>
+      <c r="F440" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="G440" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H440" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I440" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="J440" s="8">
+        <v>12.3</v>
+      </c>
+      <c r="K440" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="L440" s="9">
+        <v>9.1</v>
+      </c>
       <c r="M440" s="3"/>
       <c r="N440" s="3"/>
       <c r="O440" s="3"/>
@@ -23699,18 +23724,43 @@
       <c r="Z440" s="3"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
-      <c r="A441" s="3"/>
-      <c r="B441" s="3"/>
-      <c r="C441" s="3"/>
-      <c r="D441" s="3"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
-      <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
-      <c r="I441" s="3"/>
-      <c r="J441" s="3"/>
-      <c r="K441" s="3"/>
-      <c r="L441" s="2"/>
+      <c r="A441" s="7">
+        <v>44883.0</v>
+      </c>
+      <c r="B441" s="7">
+        <v>44885.0</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F441" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G441" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H441" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I441" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J441" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K441" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L441" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M441" s="3"/>
       <c r="N441" s="3"/>
       <c r="O441" s="3"/>
@@ -23727,18 +23777,43 @@
       <c r="Z441" s="3"/>
     </row>
     <row r="442" ht="12.75" customHeight="1">
-      <c r="A442" s="3"/>
-      <c r="B442" s="3"/>
-      <c r="C442" s="3"/>
-      <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
-      <c r="G442" s="3"/>
-      <c r="H442" s="3"/>
-      <c r="I442" s="3"/>
-      <c r="J442" s="3"/>
-      <c r="K442" s="3"/>
-      <c r="L442" s="2"/>
+      <c r="A442" s="7">
+        <v>44885.0</v>
+      </c>
+      <c r="B442" s="7">
+        <v>44886.0</v>
+      </c>
+      <c r="C442" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="F442" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G442" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H442" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I442" s="8">
+        <v>4.9</v>
+      </c>
+      <c r="J442" s="8">
+        <v>10.2</v>
+      </c>
+      <c r="K442" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L442" s="9">
+        <v>8.0</v>
+      </c>
       <c r="M442" s="3"/>
       <c r="N442" s="3"/>
       <c r="O442" s="3"/>
@@ -23755,18 +23830,43 @@
       <c r="Z442" s="3"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
-      <c r="A443" s="3"/>
-      <c r="B443" s="3"/>
-      <c r="C443" s="3"/>
-      <c r="D443" s="3"/>
-      <c r="E443" s="3"/>
-      <c r="F443" s="3"/>
-      <c r="G443" s="3"/>
-      <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
-      <c r="J443" s="3"/>
-      <c r="K443" s="3"/>
-      <c r="L443" s="2"/>
+      <c r="A443" s="7">
+        <v>44889.0</v>
+      </c>
+      <c r="B443" s="7">
+        <v>44890.0</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D443" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443" s="8">
+        <v>35.7</v>
+      </c>
+      <c r="F443" s="8">
+        <v>28.4</v>
+      </c>
+      <c r="G443" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H443" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="I443" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="J443" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="K443" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L443" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M443" s="3"/>
       <c r="N443" s="3"/>
       <c r="O443" s="3"/>
@@ -23783,18 +23883,43 @@
       <c r="Z443" s="3"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
-      <c r="A444" s="3"/>
-      <c r="B444" s="3"/>
-      <c r="C444" s="3"/>
-      <c r="D444" s="3"/>
-      <c r="E444" s="3"/>
-      <c r="F444" s="3"/>
-      <c r="G444" s="3"/>
-      <c r="H444" s="3"/>
-      <c r="I444" s="3"/>
-      <c r="J444" s="3"/>
-      <c r="K444" s="3"/>
-      <c r="L444" s="2"/>
+      <c r="A444" s="7">
+        <v>44890.0</v>
+      </c>
+      <c r="B444" s="7">
+        <v>44892.0</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D444" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E444" s="8">
+        <v>32.51</v>
+      </c>
+      <c r="F444" s="8">
+        <v>30.45</v>
+      </c>
+      <c r="G444" s="8">
+        <v>10.84</v>
+      </c>
+      <c r="H444" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="I444" s="8">
+        <v>8.65</v>
+      </c>
+      <c r="J444" s="8">
+        <v>11.56</v>
+      </c>
+      <c r="K444" s="2">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="L444" s="9">
+        <v>0.45</v>
+      </c>
       <c r="M444" s="3"/>
       <c r="N444" s="3"/>
       <c r="O444" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K444" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K445" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -23728,7 +23728,7 @@
         <v>44883.0</v>
       </c>
       <c r="B441" s="7">
-        <v>44885.0</v>
+        <v>44886.0</v>
       </c>
       <c r="C441" s="8" t="s">
         <v>12</v>
@@ -23936,18 +23936,43 @@
       <c r="Z444" s="3"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
-      <c r="A445" s="3"/>
-      <c r="B445" s="3"/>
-      <c r="C445" s="3"/>
-      <c r="D445" s="3"/>
-      <c r="E445" s="3"/>
-      <c r="F445" s="3"/>
-      <c r="G445" s="3"/>
-      <c r="H445" s="3"/>
-      <c r="I445" s="3"/>
-      <c r="J445" s="3"/>
-      <c r="K445" s="3"/>
-      <c r="L445" s="2"/>
+      <c r="A445" s="7">
+        <v>44890.0</v>
+      </c>
+      <c r="B445" s="7">
+        <v>44893.0</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E445" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F445" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G445" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H445" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I445" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J445" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K445" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L445" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M445" s="3"/>
       <c r="N445" s="3"/>
       <c r="O445" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K445" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K447" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -23989,18 +23989,43 @@
       <c r="Z445" s="3"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
-      <c r="A446" s="3"/>
-      <c r="B446" s="3"/>
-      <c r="C446" s="3"/>
-      <c r="D446" s="3"/>
-      <c r="E446" s="3"/>
-      <c r="F446" s="3"/>
-      <c r="G446" s="3"/>
-      <c r="H446" s="3"/>
-      <c r="I446" s="3"/>
-      <c r="J446" s="3"/>
-      <c r="K446" s="3"/>
-      <c r="L446" s="2"/>
+      <c r="A446" s="10">
+        <v>44897.0</v>
+      </c>
+      <c r="B446" s="10">
+        <v>44898.0</v>
+      </c>
+      <c r="C446" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D446" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E446" s="8">
+        <v>34.2</v>
+      </c>
+      <c r="F446" s="8">
+        <v>28.3</v>
+      </c>
+      <c r="G446" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="H446" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I446" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="J446" s="8">
+        <v>8.8</v>
+      </c>
+      <c r="K446" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L446" s="9">
+        <v>8.6</v>
+      </c>
       <c r="M446" s="3"/>
       <c r="N446" s="3"/>
       <c r="O446" s="3"/>
@@ -24017,18 +24042,43 @@
       <c r="Z446" s="3"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
-      <c r="A447" s="3"/>
-      <c r="B447" s="3"/>
-      <c r="C447" s="3"/>
-      <c r="D447" s="3"/>
-      <c r="E447" s="3"/>
-      <c r="F447" s="3"/>
-      <c r="G447" s="3"/>
-      <c r="H447" s="3"/>
-      <c r="I447" s="3"/>
-      <c r="J447" s="3"/>
-      <c r="K447" s="3"/>
-      <c r="L447" s="2"/>
+      <c r="A447" s="10">
+        <v>44897.0</v>
+      </c>
+      <c r="B447" s="10">
+        <v>44899.0</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D447" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E447" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="F447" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="G447" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="H447" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I447" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J447" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K447" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="L447" s="9">
+        <v>7.4</v>
+      </c>
       <c r="M447" s="3"/>
       <c r="N447" s="3"/>
       <c r="O447" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K447" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K451" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -24095,18 +24095,43 @@
       <c r="Z447" s="3"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
-      <c r="A448" s="3"/>
-      <c r="B448" s="3"/>
-      <c r="C448" s="3"/>
-      <c r="D448" s="3"/>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
-      <c r="J448" s="3"/>
-      <c r="K448" s="3"/>
-      <c r="L448" s="2"/>
+      <c r="A448" s="10">
+        <v>44897.0</v>
+      </c>
+      <c r="B448" s="10">
+        <v>44900.0</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E448" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F448" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G448" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H448" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I448" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J448" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K448" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L448" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M448" s="3"/>
       <c r="N448" s="3"/>
       <c r="O448" s="3"/>
@@ -24123,18 +24148,43 @@
       <c r="Z448" s="3"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="A449" s="3"/>
-      <c r="B449" s="3"/>
-      <c r="C449" s="3"/>
-      <c r="D449" s="3"/>
-      <c r="E449" s="3"/>
-      <c r="F449" s="3"/>
-      <c r="G449" s="3"/>
-      <c r="H449" s="3"/>
-      <c r="I449" s="3"/>
-      <c r="J449" s="3"/>
-      <c r="K449" s="3"/>
-      <c r="L449" s="2"/>
+      <c r="A449" s="10">
+        <v>44897.0</v>
+      </c>
+      <c r="B449" s="10">
+        <v>44902.0</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E449" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="F449" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="G449" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="H449" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I449" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J449" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K449" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L449" s="9">
+        <v>11.0</v>
+      </c>
       <c r="M449" s="3"/>
       <c r="N449" s="3"/>
       <c r="O449" s="3"/>
@@ -24151,18 +24201,43 @@
       <c r="Z449" s="3"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
-      <c r="A450" s="3"/>
-      <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
-      <c r="D450" s="3"/>
-      <c r="E450" s="3"/>
-      <c r="F450" s="3"/>
-      <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
-      <c r="I450" s="3"/>
-      <c r="J450" s="3"/>
-      <c r="K450" s="3"/>
-      <c r="L450" s="2"/>
+      <c r="A450" s="10">
+        <v>44902.0</v>
+      </c>
+      <c r="B450" s="10">
+        <v>44903.0</v>
+      </c>
+      <c r="C450" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E450" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="F450" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="G450" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H450" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I450" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="J450" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="K450" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L450" s="9">
+        <v>10.4</v>
+      </c>
       <c r="M450" s="3"/>
       <c r="N450" s="3"/>
       <c r="O450" s="3"/>
@@ -24179,18 +24254,43 @@
       <c r="Z450" s="3"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="A451" s="3"/>
-      <c r="B451" s="3"/>
-      <c r="C451" s="3"/>
-      <c r="D451" s="3"/>
-      <c r="E451" s="3"/>
-      <c r="F451" s="3"/>
-      <c r="G451" s="3"/>
-      <c r="H451" s="3"/>
-      <c r="I451" s="3"/>
-      <c r="J451" s="3"/>
-      <c r="K451" s="3"/>
-      <c r="L451" s="2"/>
+      <c r="A451" s="7">
+        <v>44893.0</v>
+      </c>
+      <c r="B451" s="7">
+        <v>44906.0</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D451" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E451" s="8">
+        <v>30.6</v>
+      </c>
+      <c r="F451" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="G451" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="H451" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I451" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="J451" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="K451" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L451" s="9">
+        <v>21.0</v>
+      </c>
       <c r="M451" s="3"/>
       <c r="N451" s="3"/>
       <c r="O451" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K451" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K456" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -24307,18 +24307,43 @@
       <c r="Z451" s="3"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="A452" s="3"/>
-      <c r="B452" s="3"/>
-      <c r="C452" s="3"/>
-      <c r="D452" s="3"/>
-      <c r="E452" s="3"/>
-      <c r="F452" s="3"/>
-      <c r="G452" s="3"/>
-      <c r="H452" s="3"/>
-      <c r="I452" s="3"/>
-      <c r="J452" s="3"/>
-      <c r="K452" s="3"/>
-      <c r="L452" s="2"/>
+      <c r="A452" s="10">
+        <v>44904.0</v>
+      </c>
+      <c r="B452" s="7">
+        <v>44907.0</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D452" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E452" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F452" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G452" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H452" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I452" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J452" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K452" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L452" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M452" s="3"/>
       <c r="N452" s="3"/>
       <c r="O452" s="3"/>
@@ -24335,18 +24360,43 @@
       <c r="Z452" s="3"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
-      <c r="A453" s="3"/>
-      <c r="B453" s="3"/>
-      <c r="C453" s="3"/>
-      <c r="D453" s="3"/>
-      <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
-      <c r="G453" s="3"/>
-      <c r="H453" s="3"/>
-      <c r="I453" s="3"/>
-      <c r="J453" s="3"/>
-      <c r="K453" s="3"/>
-      <c r="L453" s="2"/>
+      <c r="A453" s="10">
+        <v>44904.0</v>
+      </c>
+      <c r="B453" s="7">
+        <v>44907.0</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E453" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F453" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="G453" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H453" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I453" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J453" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K453" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L453" s="9">
+        <v>6.0</v>
+      </c>
       <c r="M453" s="3"/>
       <c r="N453" s="3"/>
       <c r="O453" s="3"/>
@@ -24363,18 +24413,43 @@
       <c r="Z453" s="3"/>
     </row>
     <row r="454" ht="12.75" customHeight="1">
-      <c r="A454" s="3"/>
-      <c r="B454" s="3"/>
-      <c r="C454" s="3"/>
-      <c r="D454" s="3"/>
-      <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
-      <c r="G454" s="3"/>
-      <c r="H454" s="3"/>
-      <c r="I454" s="3"/>
-      <c r="J454" s="3"/>
-      <c r="K454" s="3"/>
-      <c r="L454" s="2"/>
+      <c r="A454" s="7">
+        <v>44910.0</v>
+      </c>
+      <c r="B454" s="7">
+        <v>44911.0</v>
+      </c>
+      <c r="C454" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D454" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E454" s="8">
+        <v>35.3</v>
+      </c>
+      <c r="F454" s="8">
+        <v>29.4</v>
+      </c>
+      <c r="G454" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H454" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I454" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="J454" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="K454" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L454" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M454" s="3"/>
       <c r="N454" s="3"/>
       <c r="O454" s="3"/>
@@ -24391,18 +24466,43 @@
       <c r="Z454" s="3"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
-      <c r="A455" s="3"/>
-      <c r="B455" s="3"/>
-      <c r="C455" s="3"/>
-      <c r="D455" s="3"/>
-      <c r="E455" s="3"/>
-      <c r="F455" s="3"/>
-      <c r="G455" s="3"/>
-      <c r="H455" s="3"/>
-      <c r="I455" s="3"/>
-      <c r="J455" s="3"/>
-      <c r="K455" s="3"/>
-      <c r="L455" s="2"/>
+      <c r="A455" s="7">
+        <v>44911.0</v>
+      </c>
+      <c r="B455" s="7">
+        <v>44911.0</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E455" s="8">
+        <v>31.8</v>
+      </c>
+      <c r="F455" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="G455" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H455" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I455" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J455" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K455" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="L455" s="9">
+        <v>10.1</v>
+      </c>
       <c r="M455" s="3"/>
       <c r="N455" s="3"/>
       <c r="O455" s="3"/>
@@ -24419,18 +24519,43 @@
       <c r="Z455" s="3"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
-      <c r="A456" s="3"/>
-      <c r="B456" s="3"/>
-      <c r="C456" s="3"/>
-      <c r="D456" s="3"/>
-      <c r="E456" s="3"/>
-      <c r="F456" s="3"/>
-      <c r="G456" s="3"/>
-      <c r="H456" s="3"/>
-      <c r="I456" s="3"/>
-      <c r="J456" s="3"/>
-      <c r="K456" s="3"/>
-      <c r="L456" s="2"/>
+      <c r="A456" s="7">
+        <v>44912.0</v>
+      </c>
+      <c r="B456" s="7">
+        <v>44913.0</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D456" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E456" s="8">
+        <v>31.16</v>
+      </c>
+      <c r="F456" s="8">
+        <v>29.95</v>
+      </c>
+      <c r="G456" s="8">
+        <v>12.08</v>
+      </c>
+      <c r="H456" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="I456" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="J456" s="8">
+        <v>12.09</v>
+      </c>
+      <c r="K456" s="2">
+        <f t="shared" si="1"/>
+        <v>1.15</v>
+      </c>
+      <c r="L456" s="9">
+        <v>0.46</v>
+      </c>
       <c r="M456" s="3"/>
       <c r="N456" s="3"/>
       <c r="O456" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K456" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K461" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -24572,18 +24572,43 @@
       <c r="Z456" s="3"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
-      <c r="A457" s="3"/>
-      <c r="B457" s="3"/>
-      <c r="C457" s="3"/>
-      <c r="D457" s="3"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
-      <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
-      <c r="J457" s="3"/>
-      <c r="K457" s="3"/>
-      <c r="L457" s="2"/>
+      <c r="A457" s="7">
+        <v>44911.0</v>
+      </c>
+      <c r="B457" s="7">
+        <v>44914.0</v>
+      </c>
+      <c r="C457" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E457" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F457" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G457" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H457" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I457" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J457" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K457" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L457" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M457" s="3"/>
       <c r="N457" s="3"/>
       <c r="O457" s="3"/>
@@ -24600,18 +24625,43 @@
       <c r="Z457" s="3"/>
     </row>
     <row r="458" ht="12.75" customHeight="1">
-      <c r="A458" s="3"/>
-      <c r="B458" s="3"/>
-      <c r="C458" s="3"/>
-      <c r="D458" s="3"/>
-      <c r="E458" s="3"/>
-      <c r="F458" s="3"/>
-      <c r="G458" s="3"/>
-      <c r="H458" s="3"/>
-      <c r="I458" s="3"/>
-      <c r="J458" s="3"/>
-      <c r="K458" s="3"/>
-      <c r="L458" s="2"/>
+      <c r="A458" s="7">
+        <v>44914.0</v>
+      </c>
+      <c r="B458" s="7">
+        <v>44915.0</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D458" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E458" s="8">
+        <v>29.6</v>
+      </c>
+      <c r="F458" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="G458" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="H458" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I458" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="J458" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="K458" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L458" s="9">
+        <v>17.0</v>
+      </c>
       <c r="M458" s="3"/>
       <c r="N458" s="3"/>
       <c r="O458" s="3"/>
@@ -24628,18 +24678,43 @@
       <c r="Z458" s="3"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
-      <c r="A459" s="3"/>
-      <c r="B459" s="3"/>
-      <c r="C459" s="3"/>
-      <c r="D459" s="3"/>
-      <c r="E459" s="3"/>
-      <c r="F459" s="3"/>
-      <c r="G459" s="3"/>
-      <c r="H459" s="3"/>
-      <c r="I459" s="3"/>
-      <c r="J459" s="3"/>
-      <c r="K459" s="3"/>
-      <c r="L459" s="2"/>
+      <c r="A459" s="7">
+        <v>44914.0</v>
+      </c>
+      <c r="B459" s="7">
+        <v>44916.0</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D459" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E459" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F459" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G459" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H459" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I459" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J459" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K459" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L459" s="9">
+        <v>9.0</v>
+      </c>
       <c r="M459" s="3"/>
       <c r="N459" s="3"/>
       <c r="O459" s="3"/>
@@ -24656,18 +24731,43 @@
       <c r="Z459" s="3"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="A460" s="3"/>
-      <c r="B460" s="3"/>
-      <c r="C460" s="3"/>
-      <c r="D460" s="3"/>
-      <c r="E460" s="3"/>
-      <c r="F460" s="3"/>
-      <c r="G460" s="3"/>
-      <c r="H460" s="3"/>
-      <c r="I460" s="3"/>
-      <c r="J460" s="3"/>
-      <c r="K460" s="3"/>
-      <c r="L460" s="2"/>
+      <c r="A460" s="7">
+        <v>44918.0</v>
+      </c>
+      <c r="B460" s="7">
+        <v>44922.0</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D460" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E460" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F460" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G460" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H460" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I460" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J460" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K460" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L460" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M460" s="3"/>
       <c r="N460" s="3"/>
       <c r="O460" s="3"/>
@@ -24684,18 +24784,43 @@
       <c r="Z460" s="3"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="A461" s="3"/>
-      <c r="B461" s="3"/>
-      <c r="C461" s="3"/>
-      <c r="D461" s="3"/>
-      <c r="E461" s="3"/>
-      <c r="F461" s="3"/>
-      <c r="G461" s="3"/>
-      <c r="H461" s="3"/>
-      <c r="I461" s="3"/>
-      <c r="J461" s="3"/>
-      <c r="K461" s="3"/>
-      <c r="L461" s="2"/>
+      <c r="A461" s="7">
+        <v>44924.0</v>
+      </c>
+      <c r="B461" s="7">
+        <v>44925.0</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D461" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E461" s="8">
+        <v>36.3</v>
+      </c>
+      <c r="F461" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="G461" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="H461" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I461" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="J461" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K461" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L461" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M461" s="3"/>
       <c r="N461" s="3"/>
       <c r="O461" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K461" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K464" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -24837,18 +24837,43 @@
       <c r="Z461" s="3"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
-      <c r="A462" s="3"/>
-      <c r="B462" s="3"/>
-      <c r="C462" s="3"/>
-      <c r="D462" s="3"/>
-      <c r="E462" s="3"/>
-      <c r="F462" s="3"/>
-      <c r="G462" s="3"/>
-      <c r="H462" s="3"/>
-      <c r="I462" s="3"/>
-      <c r="J462" s="3"/>
-      <c r="K462" s="3"/>
-      <c r="L462" s="2"/>
+      <c r="A462" s="7">
+        <v>44925.0</v>
+      </c>
+      <c r="B462" s="10">
+        <v>44928.0</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D462" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E462" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F462" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G462" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H462" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I462" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J462" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K462" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L462" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M462" s="3"/>
       <c r="N462" s="3"/>
       <c r="O462" s="3"/>
@@ -24865,18 +24890,43 @@
       <c r="Z462" s="3"/>
     </row>
     <row r="463" ht="12.75" customHeight="1">
-      <c r="A463" s="3"/>
-      <c r="B463" s="3"/>
-      <c r="C463" s="3"/>
-      <c r="D463" s="3"/>
-      <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
-      <c r="G463" s="3"/>
-      <c r="H463" s="3"/>
-      <c r="I463" s="3"/>
-      <c r="J463" s="3"/>
-      <c r="K463" s="3"/>
-      <c r="L463" s="2"/>
+      <c r="A463" s="10">
+        <v>44566.0</v>
+      </c>
+      <c r="B463" s="10">
+        <v>44567.0</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E463" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F463" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="G463" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H463" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I463" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="J463" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="K463" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L463" s="9">
+        <v>14.5</v>
+      </c>
       <c r="M463" s="3"/>
       <c r="N463" s="3"/>
       <c r="O463" s="3"/>
@@ -24893,18 +24943,43 @@
       <c r="Z463" s="3"/>
     </row>
     <row r="464" ht="12.75" customHeight="1">
-      <c r="A464" s="3"/>
-      <c r="B464" s="3"/>
-      <c r="C464" s="3"/>
-      <c r="D464" s="3"/>
-      <c r="E464" s="3"/>
-      <c r="F464" s="3"/>
-      <c r="G464" s="3"/>
-      <c r="H464" s="3"/>
-      <c r="I464" s="3"/>
-      <c r="J464" s="3"/>
-      <c r="K464" s="3"/>
-      <c r="L464" s="2"/>
+      <c r="A464" s="10">
+        <v>44567.0</v>
+      </c>
+      <c r="B464" s="10">
+        <v>44569.0</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D464" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E464" s="8">
+        <v>32.2</v>
+      </c>
+      <c r="F464" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G464" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H464" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I464" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="J464" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="K464" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="L464" s="9">
+        <v>8.6</v>
+      </c>
       <c r="M464" s="3"/>
       <c r="N464" s="3"/>
       <c r="O464" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K464" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K469" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -24891,10 +24891,10 @@
     </row>
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="10">
-        <v>44566.0</v>
+        <v>44931.0</v>
       </c>
       <c r="B463" s="10">
-        <v>44567.0</v>
+        <v>44932.0</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>14</v>
@@ -24944,10 +24944,10 @@
     </row>
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="10">
-        <v>44567.0</v>
+        <v>44932.0</v>
       </c>
       <c r="B464" s="10">
-        <v>44569.0</v>
+        <v>44933.0</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>20</v>
@@ -24996,18 +24996,43 @@
       <c r="Z464" s="3"/>
     </row>
     <row r="465" ht="12.75" customHeight="1">
-      <c r="A465" s="3"/>
-      <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
-      <c r="D465" s="3"/>
-      <c r="E465" s="3"/>
-      <c r="F465" s="3"/>
-      <c r="G465" s="3"/>
-      <c r="H465" s="3"/>
-      <c r="I465" s="3"/>
-      <c r="J465" s="3"/>
-      <c r="K465" s="3"/>
-      <c r="L465" s="2"/>
+      <c r="A465" s="10">
+        <v>44932.0</v>
+      </c>
+      <c r="B465" s="10">
+        <v>44935.0</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E465" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F465" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G465" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H465" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I465" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J465" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K465" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L465" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M465" s="3"/>
       <c r="N465" s="3"/>
       <c r="O465" s="3"/>
@@ -25024,18 +25049,43 @@
       <c r="Z465" s="3"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
-      <c r="A466" s="3"/>
-      <c r="B466" s="3"/>
-      <c r="C466" s="3"/>
-      <c r="D466" s="3"/>
-      <c r="E466" s="3"/>
-      <c r="F466" s="3"/>
-      <c r="G466" s="3"/>
-      <c r="H466" s="3"/>
-      <c r="I466" s="3"/>
-      <c r="J466" s="3"/>
-      <c r="K466" s="3"/>
-      <c r="L466" s="2"/>
+      <c r="A466" s="10">
+        <v>44938.0</v>
+      </c>
+      <c r="B466" s="10">
+        <v>44939.0</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D466" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E466" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="F466" s="8">
+        <v>29.4</v>
+      </c>
+      <c r="G466" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="H466" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I466" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="J466" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="K466" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L466" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M466" s="3"/>
       <c r="N466" s="3"/>
       <c r="O466" s="3"/>
@@ -25052,18 +25102,43 @@
       <c r="Z466" s="3"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
-      <c r="A467" s="3"/>
-      <c r="B467" s="3"/>
-      <c r="C467" s="3"/>
-      <c r="D467" s="3"/>
-      <c r="E467" s="3"/>
-      <c r="F467" s="3"/>
-      <c r="G467" s="3"/>
-      <c r="H467" s="3"/>
-      <c r="I467" s="3"/>
-      <c r="J467" s="3"/>
-      <c r="K467" s="3"/>
-      <c r="L467" s="2"/>
+      <c r="A467" s="10">
+        <v>44936.0</v>
+      </c>
+      <c r="B467" s="10">
+        <v>44941.0</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D467" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E467" s="8">
+        <v>34.25</v>
+      </c>
+      <c r="F467" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="G467" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="H467" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="I467" s="8">
+        <v>8.45</v>
+      </c>
+      <c r="J467" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="K467" s="2">
+        <f t="shared" si="1"/>
+        <v>1.24</v>
+      </c>
+      <c r="L467" s="9">
+        <v>0.0</v>
+      </c>
       <c r="M467" s="3"/>
       <c r="N467" s="3"/>
       <c r="O467" s="3"/>
@@ -25080,18 +25155,43 @@
       <c r="Z467" s="3"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
-      <c r="A468" s="3"/>
-      <c r="B468" s="3"/>
-      <c r="C468" s="3"/>
-      <c r="D468" s="3"/>
-      <c r="E468" s="3"/>
-      <c r="F468" s="3"/>
-      <c r="G468" s="3"/>
-      <c r="H468" s="3"/>
-      <c r="I468" s="3"/>
-      <c r="J468" s="3"/>
-      <c r="K468" s="3"/>
-      <c r="L468" s="2"/>
+      <c r="A468" s="10">
+        <v>44940.0</v>
+      </c>
+      <c r="B468" s="10">
+        <v>44941.0</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E468" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="F468" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="G468" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H468" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I468" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J468" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="K468" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L468" s="9">
+        <v>8.4</v>
+      </c>
       <c r="M468" s="3"/>
       <c r="N468" s="3"/>
       <c r="O468" s="3"/>
@@ -25108,18 +25208,43 @@
       <c r="Z468" s="3"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
-      <c r="A469" s="3"/>
-      <c r="B469" s="3"/>
-      <c r="C469" s="3"/>
-      <c r="D469" s="3"/>
-      <c r="E469" s="3"/>
-      <c r="F469" s="3"/>
-      <c r="G469" s="3"/>
-      <c r="H469" s="3"/>
-      <c r="I469" s="3"/>
-      <c r="J469" s="3"/>
-      <c r="K469" s="3"/>
-      <c r="L469" s="2"/>
+      <c r="A469" s="10">
+        <v>44939.0</v>
+      </c>
+      <c r="B469" s="10">
+        <v>44942.0</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D469" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E469" s="8">
+        <v>34.6</v>
+      </c>
+      <c r="F469" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="G469" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H469" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I469" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="J469" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="K469" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="L469" s="9">
+        <v>4.7</v>
+      </c>
       <c r="M469" s="3"/>
       <c r="N469" s="3"/>
       <c r="O469" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K469" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K472" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25261,18 +25261,43 @@
       <c r="Z469" s="3"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
-      <c r="A470" s="3"/>
-      <c r="B470" s="3"/>
-      <c r="C470" s="3"/>
-      <c r="D470" s="3"/>
-      <c r="E470" s="3"/>
-      <c r="F470" s="3"/>
-      <c r="G470" s="3"/>
-      <c r="H470" s="3"/>
-      <c r="I470" s="3"/>
-      <c r="J470" s="3"/>
-      <c r="K470" s="3"/>
-      <c r="L470" s="2"/>
+      <c r="A470" s="10">
+        <v>44939.0</v>
+      </c>
+      <c r="B470" s="10">
+        <v>44942.0</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E470" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F470" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G470" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H470" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I470" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J470" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K470" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L470" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M470" s="3"/>
       <c r="N470" s="3"/>
       <c r="O470" s="3"/>
@@ -25289,18 +25314,43 @@
       <c r="Z470" s="3"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
-      <c r="A471" s="3"/>
-      <c r="B471" s="3"/>
-      <c r="C471" s="3"/>
-      <c r="D471" s="3"/>
-      <c r="E471" s="3"/>
-      <c r="F471" s="3"/>
-      <c r="G471" s="3"/>
-      <c r="H471" s="3"/>
-      <c r="I471" s="3"/>
-      <c r="J471" s="3"/>
-      <c r="K471" s="3"/>
-      <c r="L471" s="2"/>
+      <c r="A471" s="10">
+        <v>44935.0</v>
+      </c>
+      <c r="B471" s="10">
+        <v>44948.0</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D471" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E471" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F471" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="G471" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H471" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I471" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J471" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K471" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L471" s="9">
+        <v>22.0</v>
+      </c>
       <c r="M471" s="3"/>
       <c r="N471" s="3"/>
       <c r="O471" s="3"/>
@@ -25317,18 +25367,43 @@
       <c r="Z471" s="3"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
-      <c r="A472" s="3"/>
-      <c r="B472" s="3"/>
-      <c r="C472" s="3"/>
-      <c r="D472" s="3"/>
-      <c r="E472" s="3"/>
-      <c r="F472" s="3"/>
-      <c r="G472" s="3"/>
-      <c r="H472" s="3"/>
-      <c r="I472" s="3"/>
-      <c r="J472" s="3"/>
-      <c r="K472" s="3"/>
-      <c r="L472" s="2"/>
+      <c r="A472" s="10">
+        <v>44946.0</v>
+      </c>
+      <c r="B472" s="10">
+        <v>44948.0</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E472" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="F472" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="G472" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H472" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I472" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="J472" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K472" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="L472" s="9">
+        <v>7.5</v>
+      </c>
       <c r="M472" s="3"/>
       <c r="N472" s="3"/>
       <c r="O472" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K472" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K473" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25420,18 +25420,43 @@
       <c r="Z472" s="3"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
-      <c r="A473" s="3"/>
-      <c r="B473" s="3"/>
-      <c r="C473" s="3"/>
-      <c r="D473" s="3"/>
-      <c r="E473" s="3"/>
-      <c r="F473" s="3"/>
-      <c r="G473" s="3"/>
-      <c r="H473" s="3"/>
-      <c r="I473" s="3"/>
-      <c r="J473" s="3"/>
-      <c r="K473" s="3"/>
-      <c r="L473" s="2"/>
+      <c r="A473" s="10">
+        <v>44948.0</v>
+      </c>
+      <c r="B473" s="10">
+        <v>44949.0</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D473" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E473" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F473" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="G473" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H473" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I473" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="J473" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="K473" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L473" s="9">
+        <v>9.1</v>
+      </c>
       <c r="M473" s="3"/>
       <c r="N473" s="3"/>
       <c r="O473" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K473" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K474" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25473,18 +25473,43 @@
       <c r="Z473" s="3"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
-      <c r="A474" s="3"/>
-      <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
-      <c r="D474" s="3"/>
-      <c r="E474" s="3"/>
-      <c r="F474" s="3"/>
-      <c r="G474" s="3"/>
-      <c r="H474" s="3"/>
-      <c r="I474" s="3"/>
-      <c r="J474" s="3"/>
-      <c r="K474" s="3"/>
-      <c r="L474" s="2"/>
+      <c r="A474" s="10">
+        <v>44944.0</v>
+      </c>
+      <c r="B474" s="10">
+        <v>44949.0</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D474" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E474" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="F474" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="G474" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H474" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I474" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J474" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K474" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L474" s="9">
+        <v>13.0</v>
+      </c>
       <c r="M474" s="3"/>
       <c r="N474" s="3"/>
       <c r="O474" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K474" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K475" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25526,18 +25526,43 @@
       <c r="Z474" s="3"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
-      <c r="A475" s="3"/>
-      <c r="B475" s="3"/>
-      <c r="C475" s="3"/>
-      <c r="D475" s="3"/>
-      <c r="E475" s="3"/>
-      <c r="F475" s="3"/>
-      <c r="G475" s="3"/>
-      <c r="H475" s="3"/>
-      <c r="I475" s="3"/>
-      <c r="J475" s="3"/>
-      <c r="K475" s="3"/>
-      <c r="L475" s="2"/>
+      <c r="A475" s="10">
+        <v>44952.0</v>
+      </c>
+      <c r="B475" s="10">
+        <v>44953.0</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D475" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E475" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F475" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="G475" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H475" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I475" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="J475" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="K475" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="L475" s="9">
+        <v>0.6</v>
+      </c>
       <c r="M475" s="3"/>
       <c r="N475" s="3"/>
       <c r="O475" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K475" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K476" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25579,18 +25579,43 @@
       <c r="Z475" s="3"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
-      <c r="A476" s="3"/>
-      <c r="B476" s="3"/>
-      <c r="C476" s="3"/>
-      <c r="D476" s="3"/>
-      <c r="E476" s="3"/>
-      <c r="F476" s="3"/>
-      <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
-      <c r="I476" s="3"/>
-      <c r="J476" s="3"/>
-      <c r="K476" s="3"/>
-      <c r="L476" s="2"/>
+      <c r="A476" s="10">
+        <v>44954.0</v>
+      </c>
+      <c r="B476" s="10">
+        <v>44955.0</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D476" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E476" s="8">
+        <v>34.76</v>
+      </c>
+      <c r="F476" s="8">
+        <v>29.02</v>
+      </c>
+      <c r="G476" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="H476" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="I476" s="8">
+        <v>6.84</v>
+      </c>
+      <c r="J476" s="8">
+        <v>11.31</v>
+      </c>
+      <c r="K476" s="2">
+        <f t="shared" si="1"/>
+        <v>2.19</v>
+      </c>
+      <c r="L476" s="9">
+        <v>0.58</v>
+      </c>
       <c r="M476" s="3"/>
       <c r="N476" s="3"/>
       <c r="O476" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K476" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K479" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25632,18 +25632,43 @@
       <c r="Z476" s="3"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
-      <c r="A477" s="3"/>
-      <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
-      <c r="D477" s="3"/>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="3"/>
-      <c r="H477" s="3"/>
-      <c r="I477" s="3"/>
-      <c r="J477" s="3"/>
-      <c r="K477" s="3"/>
-      <c r="L477" s="2"/>
+      <c r="A477" s="10">
+        <v>44953.0</v>
+      </c>
+      <c r="B477" s="10">
+        <v>44956.0</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D477" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E477" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="F477" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G477" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="H477" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I477" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J477" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K477" s="2">
+        <f t="shared" si="1"/>
+        <v>1.84</v>
+      </c>
+      <c r="L477" s="9">
+        <v>3.0</v>
+      </c>
       <c r="M477" s="3"/>
       <c r="N477" s="3"/>
       <c r="O477" s="3"/>
@@ -25660,18 +25685,43 @@
       <c r="Z477" s="3"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
-      <c r="A478" s="3"/>
-      <c r="B478" s="3"/>
-      <c r="C478" s="3"/>
-      <c r="D478" s="3"/>
-      <c r="E478" s="3"/>
-      <c r="F478" s="3"/>
-      <c r="G478" s="3"/>
-      <c r="H478" s="3"/>
-      <c r="I478" s="3"/>
-      <c r="J478" s="3"/>
-      <c r="K478" s="3"/>
-      <c r="L478" s="2"/>
+      <c r="A478" s="10">
+        <v>44960.0</v>
+      </c>
+      <c r="B478" s="10">
+        <v>44961.0</v>
+      </c>
+      <c r="C478" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D478" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E478" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="F478" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="G478" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H478" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="I478" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="J478" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="K478" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L478" s="9">
+        <v>10.9</v>
+      </c>
       <c r="M478" s="3"/>
       <c r="N478" s="3"/>
       <c r="O478" s="3"/>
@@ -25688,18 +25738,43 @@
       <c r="Z478" s="3"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
-      <c r="A479" s="3"/>
-      <c r="B479" s="3"/>
-      <c r="C479" s="3"/>
-      <c r="D479" s="3"/>
-      <c r="E479" s="3"/>
-      <c r="F479" s="3"/>
-      <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
-      <c r="I479" s="3"/>
-      <c r="J479" s="3"/>
-      <c r="K479" s="3"/>
-      <c r="L479" s="2"/>
+      <c r="A479" s="10">
+        <v>44960.0</v>
+      </c>
+      <c r="B479" s="10">
+        <v>44962.0</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D479" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E479" s="8">
+        <v>34.6</v>
+      </c>
+      <c r="F479" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G479" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="H479" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="I479" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="J479" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="K479" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="L479" s="9">
+        <v>8.0</v>
+      </c>
       <c r="M479" s="3"/>
       <c r="N479" s="3"/>
       <c r="O479" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K479" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K483" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -25791,18 +25791,43 @@
       <c r="Z479" s="3"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
-      <c r="A480" s="3"/>
-      <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-      <c r="D480" s="3"/>
-      <c r="E480" s="3"/>
-      <c r="F480" s="3"/>
-      <c r="G480" s="3"/>
-      <c r="H480" s="3"/>
-      <c r="I480" s="3"/>
-      <c r="J480" s="3"/>
-      <c r="K480" s="3"/>
-      <c r="L480" s="2"/>
+      <c r="A480" s="10">
+        <v>44960.0</v>
+      </c>
+      <c r="B480" s="10">
+        <v>44963.0</v>
+      </c>
+      <c r="C480" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D480" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E480" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F480" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G480" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H480" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="I480" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J480" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K480" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L480" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M480" s="3"/>
       <c r="N480" s="3"/>
       <c r="O480" s="3"/>
@@ -25819,18 +25844,43 @@
       <c r="Z480" s="3"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
-      <c r="A481" s="3"/>
-      <c r="B481" s="3"/>
-      <c r="C481" s="3"/>
-      <c r="D481" s="3"/>
-      <c r="E481" s="3"/>
-      <c r="F481" s="3"/>
-      <c r="G481" s="3"/>
-      <c r="H481" s="3"/>
-      <c r="I481" s="3"/>
-      <c r="J481" s="3"/>
-      <c r="K481" s="3"/>
-      <c r="L481" s="2"/>
+      <c r="A481" s="10">
+        <v>44960.0</v>
+      </c>
+      <c r="B481" s="10">
+        <v>44963.0</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E481" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="F481" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="G481" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="H481" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I481" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J481" s="8">
+        <v>9.8</v>
+      </c>
+      <c r="K481" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="L481" s="9">
+        <v>5.1</v>
+      </c>
       <c r="M481" s="3"/>
       <c r="N481" s="3"/>
       <c r="O481" s="3"/>
@@ -25847,18 +25897,43 @@
       <c r="Z481" s="3"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
-      <c r="A482" s="3"/>
-      <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
-      <c r="D482" s="3"/>
-      <c r="E482" s="3"/>
-      <c r="F482" s="3"/>
-      <c r="G482" s="3"/>
-      <c r="H482" s="3"/>
-      <c r="I482" s="3"/>
-      <c r="J482" s="3"/>
-      <c r="K482" s="3"/>
-      <c r="L482" s="2"/>
+      <c r="A482" s="10">
+        <v>44964.0</v>
+      </c>
+      <c r="B482" s="10">
+        <v>44965.0</v>
+      </c>
+      <c r="C482" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D482" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E482" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="F482" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G482" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H482" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I482" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J482" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K482" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L482" s="9">
+        <v>12.0</v>
+      </c>
       <c r="M482" s="3"/>
       <c r="N482" s="3"/>
       <c r="O482" s="3"/>
@@ -25875,18 +25950,43 @@
       <c r="Z482" s="3"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
-      <c r="A483" s="3"/>
-      <c r="B483" s="3"/>
-      <c r="C483" s="3"/>
-      <c r="D483" s="3"/>
-      <c r="E483" s="3"/>
-      <c r="F483" s="3"/>
-      <c r="G483" s="3"/>
-      <c r="H483" s="3"/>
-      <c r="I483" s="3"/>
-      <c r="J483" s="3"/>
-      <c r="K483" s="3"/>
-      <c r="L483" s="2"/>
+      <c r="A483" s="10">
+        <v>44966.0</v>
+      </c>
+      <c r="B483" s="10">
+        <v>44967.0</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D483" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" s="8">
+        <v>37.7</v>
+      </c>
+      <c r="F483" s="8">
+        <v>28.9</v>
+      </c>
+      <c r="G483" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H483" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I483" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="J483" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="K483" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L483" s="9">
+        <v>0.2</v>
+      </c>
       <c r="M483" s="3"/>
       <c r="N483" s="3"/>
       <c r="O483" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K483" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K487" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -26003,18 +26003,43 @@
       <c r="Z483" s="3"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
-      <c r="A484" s="3"/>
-      <c r="B484" s="3"/>
-      <c r="C484" s="3"/>
-      <c r="D484" s="3"/>
-      <c r="E484" s="3"/>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
-      <c r="H484" s="3"/>
-      <c r="I484" s="3"/>
-      <c r="J484" s="3"/>
-      <c r="K484" s="3"/>
-      <c r="L484" s="2"/>
+      <c r="A484" s="10">
+        <v>44967.0</v>
+      </c>
+      <c r="B484" s="10">
+        <v>44970.0</v>
+      </c>
+      <c r="C484" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D484" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E484" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F484" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G484" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H484" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I484" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J484" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K484" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L484" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M484" s="3"/>
       <c r="N484" s="3"/>
       <c r="O484" s="3"/>
@@ -26031,18 +26056,43 @@
       <c r="Z484" s="3"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
-      <c r="A485" s="3"/>
-      <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
-      <c r="D485" s="3"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
-      <c r="I485" s="3"/>
-      <c r="J485" s="3"/>
-      <c r="K485" s="3"/>
-      <c r="L485" s="2"/>
+      <c r="A485" s="10">
+        <v>44972.0</v>
+      </c>
+      <c r="B485" s="10">
+        <v>44975.0</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D485" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485" s="8">
+        <v>34.8</v>
+      </c>
+      <c r="F485" s="8">
+        <v>30.85</v>
+      </c>
+      <c r="G485" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H485" s="8">
+        <v>5.02</v>
+      </c>
+      <c r="I485" s="8">
+        <v>7.29</v>
+      </c>
+      <c r="J485" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="K485" s="2">
+        <f t="shared" si="1"/>
+        <v>1.07</v>
+      </c>
+      <c r="L485" s="9">
+        <v>2.74</v>
+      </c>
       <c r="M485" s="3"/>
       <c r="N485" s="3"/>
       <c r="O485" s="3"/>
@@ -26059,18 +26109,43 @@
       <c r="Z485" s="3"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
-      <c r="A486" s="3"/>
-      <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
-      <c r="D486" s="3"/>
-      <c r="E486" s="3"/>
-      <c r="F486" s="3"/>
-      <c r="G486" s="3"/>
-      <c r="H486" s="3"/>
-      <c r="I486" s="3"/>
-      <c r="J486" s="3"/>
-      <c r="K486" s="3"/>
-      <c r="L486" s="2"/>
+      <c r="A486" s="10">
+        <v>44963.0</v>
+      </c>
+      <c r="B486" s="10">
+        <v>44976.0</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D486" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E486" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F486" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="G486" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H486" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I486" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J486" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K486" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L486" s="9">
+        <v>16.0</v>
+      </c>
       <c r="M486" s="3"/>
       <c r="N486" s="3"/>
       <c r="O486" s="3"/>
@@ -26087,18 +26162,43 @@
       <c r="Z486" s="3"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
-      <c r="A487" s="3"/>
-      <c r="B487" s="3"/>
-      <c r="C487" s="3"/>
-      <c r="D487" s="3"/>
-      <c r="E487" s="3"/>
-      <c r="F487" s="3"/>
-      <c r="G487" s="3"/>
-      <c r="H487" s="3"/>
-      <c r="I487" s="3"/>
-      <c r="J487" s="3"/>
-      <c r="K487" s="3"/>
-      <c r="L487" s="2"/>
+      <c r="A487" s="10">
+        <v>44974.0</v>
+      </c>
+      <c r="B487" s="10">
+        <v>44976.0</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D487" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E487" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="F487" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="G487" s="8">
+        <v>8.7</v>
+      </c>
+      <c r="H487" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I487" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="J487" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="K487" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="L487" s="9">
+        <v>8.7</v>
+      </c>
       <c r="M487" s="3"/>
       <c r="N487" s="3"/>
       <c r="O487" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K487" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K491" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -26215,18 +26215,43 @@
       <c r="Z487" s="3"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
-      <c r="A488" s="3"/>
-      <c r="B488" s="3"/>
-      <c r="C488" s="3"/>
-      <c r="D488" s="3"/>
-      <c r="E488" s="3"/>
-      <c r="F488" s="3"/>
-      <c r="G488" s="3"/>
-      <c r="H488" s="3"/>
-      <c r="I488" s="3"/>
-      <c r="J488" s="3"/>
-      <c r="K488" s="3"/>
-      <c r="L488" s="2"/>
+      <c r="A488" s="10">
+        <v>44972.0</v>
+      </c>
+      <c r="B488" s="10">
+        <v>44977.0</v>
+      </c>
+      <c r="C488" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D488" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E488" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="F488" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G488" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H488" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I488" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J488" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K488" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L488" s="9">
+        <v>12.0</v>
+      </c>
       <c r="M488" s="3"/>
       <c r="N488" s="3"/>
       <c r="O488" s="3"/>
@@ -26243,18 +26268,43 @@
       <c r="Z488" s="3"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
-      <c r="A489" s="3"/>
-      <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
-      <c r="D489" s="3"/>
-      <c r="E489" s="3"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
-      <c r="I489" s="3"/>
-      <c r="J489" s="3"/>
-      <c r="K489" s="3"/>
-      <c r="L489" s="2"/>
+      <c r="A489" s="10">
+        <v>44974.0</v>
+      </c>
+      <c r="B489" s="10">
+        <v>44974.0</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D489" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E489" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="F489" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="G489" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="H489" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I489" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="J489" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="K489" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="L489" s="9">
+        <v>7.3</v>
+      </c>
       <c r="M489" s="3"/>
       <c r="N489" s="3"/>
       <c r="O489" s="3"/>
@@ -26271,18 +26321,43 @@
       <c r="Z489" s="3"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
-      <c r="A490" s="3"/>
-      <c r="B490" s="3"/>
-      <c r="C490" s="3"/>
-      <c r="D490" s="3"/>
-      <c r="E490" s="3"/>
-      <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
-      <c r="H490" s="3"/>
-      <c r="I490" s="3"/>
-      <c r="J490" s="3"/>
-      <c r="K490" s="3"/>
-      <c r="L490" s="2"/>
+      <c r="A490" s="10">
+        <v>44974.0</v>
+      </c>
+      <c r="B490" s="10">
+        <v>44978.0</v>
+      </c>
+      <c r="C490" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E490" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="F490" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="G490" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H490" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I490" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J490" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K490" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L490" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M490" s="3"/>
       <c r="N490" s="3"/>
       <c r="O490" s="3"/>
@@ -26299,18 +26374,43 @@
       <c r="Z490" s="3"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
-      <c r="A491" s="3"/>
-      <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
-      <c r="D491" s="3"/>
-      <c r="E491" s="3"/>
-      <c r="F491" s="3"/>
-      <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
-      <c r="I491" s="3"/>
-      <c r="J491" s="3"/>
-      <c r="K491" s="3"/>
-      <c r="L491" s="2"/>
+      <c r="A491" s="10">
+        <v>44980.0</v>
+      </c>
+      <c r="B491" s="10">
+        <v>44981.0</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D491" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="F491" s="8">
+        <v>29.9</v>
+      </c>
+      <c r="G491" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="H491" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I491" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="J491" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K491" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L491" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M491" s="3"/>
       <c r="N491" s="3"/>
       <c r="O491" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K491" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K496" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -26427,18 +26427,43 @@
       <c r="Z491" s="3"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
-      <c r="A492" s="3"/>
-      <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
-      <c r="D492" s="3"/>
-      <c r="E492" s="3"/>
-      <c r="F492" s="3"/>
-      <c r="G492" s="3"/>
-      <c r="H492" s="3"/>
-      <c r="I492" s="3"/>
-      <c r="J492" s="3"/>
-      <c r="K492" s="3"/>
-      <c r="L492" s="2"/>
+      <c r="A492" s="10">
+        <v>44981.0</v>
+      </c>
+      <c r="B492" s="10">
+        <v>44984.0</v>
+      </c>
+      <c r="C492" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D492" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E492" s="8">
+        <v>34.7</v>
+      </c>
+      <c r="F492" s="8">
+        <v>33.91</v>
+      </c>
+      <c r="G492" s="8">
+        <v>6.74</v>
+      </c>
+      <c r="H492" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="I492" s="8">
+        <v>11.13</v>
+      </c>
+      <c r="J492" s="8">
+        <v>7.33</v>
+      </c>
+      <c r="K492" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L492" s="9">
+        <v>2.46</v>
+      </c>
       <c r="M492" s="3"/>
       <c r="N492" s="3"/>
       <c r="O492" s="3"/>
@@ -26455,18 +26480,43 @@
       <c r="Z492" s="3"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
-      <c r="A493" s="3"/>
-      <c r="B493" s="3"/>
-      <c r="C493" s="3"/>
-      <c r="D493" s="3"/>
-      <c r="E493" s="3"/>
-      <c r="F493" s="3"/>
-      <c r="G493" s="3"/>
-      <c r="H493" s="3"/>
-      <c r="I493" s="3"/>
-      <c r="J493" s="3"/>
-      <c r="K493" s="3"/>
-      <c r="L493" s="2"/>
+      <c r="A493" s="10">
+        <v>44981.0</v>
+      </c>
+      <c r="B493" s="10">
+        <v>44981.0</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E493" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F493" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G493" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H493" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="I493" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J493" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K493" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L493" s="9">
+        <v>3.0</v>
+      </c>
       <c r="M493" s="3"/>
       <c r="N493" s="3"/>
       <c r="O493" s="3"/>
@@ -26483,18 +26533,43 @@
       <c r="Z493" s="3"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
-      <c r="A494" s="3"/>
-      <c r="B494" s="3"/>
-      <c r="C494" s="3"/>
-      <c r="D494" s="3"/>
-      <c r="E494" s="3"/>
-      <c r="F494" s="3"/>
-      <c r="G494" s="3"/>
-      <c r="H494" s="3"/>
-      <c r="I494" s="3"/>
-      <c r="J494" s="3"/>
-      <c r="K494" s="3"/>
-      <c r="L494" s="2"/>
+      <c r="A494" s="10">
+        <v>44985.0</v>
+      </c>
+      <c r="B494" s="10">
+        <v>44986.0</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D494" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E494" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="F494" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="G494" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H494" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I494" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="J494" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="K494" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L494" s="9">
+        <v>7.8</v>
+      </c>
       <c r="M494" s="3"/>
       <c r="N494" s="3"/>
       <c r="O494" s="3"/>
@@ -26511,18 +26586,43 @@
       <c r="Z494" s="3"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
-      <c r="A495" s="3"/>
-      <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-      <c r="D495" s="3"/>
-      <c r="E495" s="3"/>
-      <c r="F495" s="3"/>
-      <c r="G495" s="3"/>
-      <c r="H495" s="3"/>
-      <c r="I495" s="3"/>
-      <c r="J495" s="3"/>
-      <c r="K495" s="3"/>
-      <c r="L495" s="2"/>
+      <c r="A495" s="10">
+        <v>44988.0</v>
+      </c>
+      <c r="B495" s="10">
+        <v>44989.0</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D495" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E495" s="8">
+        <v>34.68</v>
+      </c>
+      <c r="F495" s="8">
+        <v>31.69</v>
+      </c>
+      <c r="G495" s="8">
+        <v>7.92</v>
+      </c>
+      <c r="H495" s="8">
+        <v>4.93</v>
+      </c>
+      <c r="I495" s="8">
+        <v>8.52</v>
+      </c>
+      <c r="J495" s="8">
+        <v>9.12</v>
+      </c>
+      <c r="K495" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="L495" s="9">
+        <v>2.69</v>
+      </c>
       <c r="M495" s="3"/>
       <c r="N495" s="3"/>
       <c r="O495" s="3"/>
@@ -26539,18 +26639,43 @@
       <c r="Z495" s="3"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
-      <c r="A496" s="3"/>
-      <c r="B496" s="3"/>
-      <c r="C496" s="3"/>
-      <c r="D496" s="3"/>
-      <c r="E496" s="3"/>
-      <c r="F496" s="3"/>
-      <c r="G496" s="3"/>
-      <c r="H496" s="3"/>
-      <c r="I496" s="3"/>
-      <c r="J496" s="3"/>
-      <c r="K496" s="3"/>
-      <c r="L496" s="2"/>
+      <c r="A496" s="10">
+        <v>44988.0</v>
+      </c>
+      <c r="B496" s="10">
+        <v>44990.0</v>
+      </c>
+      <c r="C496" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D496" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E496" s="8">
+        <v>34.7</v>
+      </c>
+      <c r="F496" s="8">
+        <v>27.9</v>
+      </c>
+      <c r="G496" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="H496" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I496" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="J496" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="K496" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="L496" s="9">
+        <v>7.0</v>
+      </c>
       <c r="M496" s="3"/>
       <c r="N496" s="3"/>
       <c r="O496" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K496" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K499" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -26692,18 +26692,43 @@
       <c r="Z496" s="3"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
-      <c r="A497" s="3"/>
-      <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
-      <c r="D497" s="3"/>
-      <c r="E497" s="3"/>
-      <c r="F497" s="3"/>
-      <c r="G497" s="3"/>
-      <c r="H497" s="3"/>
-      <c r="I497" s="3"/>
-      <c r="J497" s="3"/>
-      <c r="K497" s="3"/>
-      <c r="L497" s="2"/>
+      <c r="A497" s="10">
+        <v>44988.0</v>
+      </c>
+      <c r="B497" s="10">
+        <v>44991.0</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D497" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E497" s="8">
+        <v>32.8</v>
+      </c>
+      <c r="F497" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="G497" s="8">
+        <v>8.8</v>
+      </c>
+      <c r="H497" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I497" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="J497" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="K497" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="L497" s="9">
+        <v>8.6</v>
+      </c>
       <c r="M497" s="3"/>
       <c r="N497" s="3"/>
       <c r="O497" s="3"/>
@@ -26720,18 +26745,43 @@
       <c r="Z497" s="3"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
-      <c r="A498" s="3"/>
-      <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
-      <c r="D498" s="3"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
-      <c r="G498" s="3"/>
-      <c r="H498" s="3"/>
-      <c r="I498" s="3"/>
-      <c r="J498" s="3"/>
-      <c r="K498" s="3"/>
-      <c r="L498" s="2"/>
+      <c r="A498" s="10">
+        <v>44988.0</v>
+      </c>
+      <c r="B498" s="10">
+        <v>44991.0</v>
+      </c>
+      <c r="C498" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E498" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F498" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G498" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="H498" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I498" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J498" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K498" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L498" s="9">
+        <v>1.0</v>
+      </c>
       <c r="M498" s="3"/>
       <c r="N498" s="3"/>
       <c r="O498" s="3"/>
@@ -26748,18 +26798,43 @@
       <c r="Z498" s="3"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
-      <c r="A499" s="3"/>
-      <c r="B499" s="3"/>
-      <c r="C499" s="3"/>
-      <c r="D499" s="3"/>
-      <c r="E499" s="3"/>
-      <c r="F499" s="3"/>
-      <c r="G499" s="3"/>
-      <c r="H499" s="3"/>
-      <c r="I499" s="3"/>
-      <c r="J499" s="3"/>
-      <c r="K499" s="3"/>
-      <c r="L499" s="2"/>
+      <c r="A499" s="10">
+        <v>44993.0</v>
+      </c>
+      <c r="B499" s="10">
+        <v>44994.0</v>
+      </c>
+      <c r="C499" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D499" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E499" s="8">
+        <v>36.9</v>
+      </c>
+      <c r="F499" s="8">
+        <v>28.6</v>
+      </c>
+      <c r="G499" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H499" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="I499" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J499" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="K499" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2</v>
+      </c>
+      <c r="L499" s="9">
+        <v>0.3</v>
+      </c>
       <c r="M499" s="3"/>
       <c r="N499" s="3"/>
       <c r="O499" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K499" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K502" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -26851,18 +26851,43 @@
       <c r="Z499" s="3"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
-      <c r="A500" s="3"/>
-      <c r="B500" s="3"/>
-      <c r="C500" s="3"/>
-      <c r="D500" s="3"/>
-      <c r="E500" s="3"/>
-      <c r="F500" s="3"/>
-      <c r="G500" s="3"/>
-      <c r="H500" s="3"/>
-      <c r="I500" s="3"/>
-      <c r="J500" s="3"/>
-      <c r="K500" s="3"/>
-      <c r="L500" s="2"/>
+      <c r="A500" s="10">
+        <v>45001.0</v>
+      </c>
+      <c r="B500" s="10">
+        <v>45001.0</v>
+      </c>
+      <c r="C500" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D500" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E500" s="8">
+        <v>33.81</v>
+      </c>
+      <c r="F500" s="8">
+        <v>28.36</v>
+      </c>
+      <c r="G500" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="H500" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="I500" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="J500" s="8">
+        <v>11.27</v>
+      </c>
+      <c r="K500" s="2">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+      <c r="L500" s="9">
+        <v>1.81</v>
+      </c>
       <c r="M500" s="3"/>
       <c r="N500" s="3"/>
       <c r="O500" s="3"/>
@@ -26879,18 +26904,43 @@
       <c r="Z500" s="3"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
-      <c r="A501" s="3"/>
-      <c r="B501" s="3"/>
-      <c r="C501" s="3"/>
-      <c r="D501" s="3"/>
-      <c r="E501" s="3"/>
-      <c r="F501" s="3"/>
-      <c r="G501" s="3"/>
-      <c r="H501" s="3"/>
-      <c r="I501" s="3"/>
-      <c r="J501" s="3"/>
-      <c r="K501" s="3"/>
-      <c r="L501" s="2"/>
+      <c r="A501" s="10">
+        <v>44998.0</v>
+      </c>
+      <c r="B501" s="10">
+        <v>45001.0</v>
+      </c>
+      <c r="C501" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D501" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E501" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F501" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G501" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H501" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I501" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J501" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K501" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L501" s="9">
+        <v>5.0</v>
+      </c>
       <c r="M501" s="3"/>
       <c r="N501" s="3"/>
       <c r="O501" s="3"/>
@@ -26907,18 +26957,43 @@
       <c r="Z501" s="3"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
-      <c r="A502" s="3"/>
-      <c r="B502" s="3"/>
-      <c r="C502" s="3"/>
-      <c r="D502" s="3"/>
-      <c r="E502" s="3"/>
-      <c r="F502" s="3"/>
-      <c r="G502" s="3"/>
-      <c r="H502" s="3"/>
-      <c r="I502" s="3"/>
-      <c r="J502" s="3"/>
-      <c r="K502" s="3"/>
-      <c r="L502" s="2"/>
+      <c r="A502" s="10">
+        <v>44999.0</v>
+      </c>
+      <c r="B502" s="10">
+        <v>45001.0</v>
+      </c>
+      <c r="C502" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D502" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E502" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="F502" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="G502" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H502" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I502" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J502" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K502" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L502" s="9">
+        <v>13.0</v>
+      </c>
       <c r="M502" s="3"/>
       <c r="N502" s="3"/>
       <c r="O502" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K502" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K505" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27010,18 +27010,43 @@
       <c r="Z502" s="3"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
-      <c r="A503" s="3"/>
-      <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
-      <c r="D503" s="3"/>
-      <c r="E503" s="3"/>
-      <c r="F503" s="3"/>
-      <c r="G503" s="3"/>
-      <c r="H503" s="3"/>
-      <c r="I503" s="3"/>
-      <c r="J503" s="3"/>
-      <c r="K503" s="3"/>
-      <c r="L503" s="2"/>
+      <c r="A503" s="10">
+        <v>44995.0</v>
+      </c>
+      <c r="B503" s="10">
+        <v>44998.0</v>
+      </c>
+      <c r="C503" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D503" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E503" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F503" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="G503" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H503" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I503" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J503" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K503" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L503" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M503" s="3"/>
       <c r="N503" s="3"/>
       <c r="O503" s="3"/>
@@ -27038,18 +27063,43 @@
       <c r="Z503" s="3"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
-      <c r="A504" s="3"/>
-      <c r="B504" s="3"/>
-      <c r="C504" s="3"/>
-      <c r="D504" s="3"/>
-      <c r="E504" s="3"/>
-      <c r="F504" s="3"/>
-      <c r="G504" s="3"/>
-      <c r="H504" s="3"/>
-      <c r="I504" s="3"/>
-      <c r="J504" s="3"/>
-      <c r="K504" s="3"/>
-      <c r="L504" s="2"/>
+      <c r="A504" s="10">
+        <v>44998.0</v>
+      </c>
+      <c r="B504" s="10">
+        <v>44999.0</v>
+      </c>
+      <c r="C504" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D504" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E504" s="8">
+        <v>34.2</v>
+      </c>
+      <c r="F504" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="G504" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H504" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="I504" s="8">
+        <v>8.7</v>
+      </c>
+      <c r="J504" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="K504" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L504" s="9">
+        <v>7.3</v>
+      </c>
       <c r="M504" s="3"/>
       <c r="N504" s="3"/>
       <c r="O504" s="3"/>
@@ -27066,18 +27116,43 @@
       <c r="Z504" s="3"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
-      <c r="A505" s="3"/>
-      <c r="B505" s="3"/>
-      <c r="C505" s="3"/>
-      <c r="D505" s="3"/>
-      <c r="E505" s="3"/>
-      <c r="F505" s="3"/>
-      <c r="G505" s="3"/>
-      <c r="H505" s="3"/>
-      <c r="I505" s="3"/>
-      <c r="J505" s="3"/>
-      <c r="K505" s="3"/>
-      <c r="L505" s="2"/>
+      <c r="A505" s="10">
+        <v>44991.0</v>
+      </c>
+      <c r="B505" s="10">
+        <v>45001.0</v>
+      </c>
+      <c r="C505" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D505" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E505" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="F505" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="G505" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H505" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I505" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J505" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="K505" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L505" s="9">
+        <v>22.0</v>
+      </c>
       <c r="M505" s="3"/>
       <c r="N505" s="3"/>
       <c r="O505" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K505" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K508" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27169,18 +27169,43 @@
       <c r="Z505" s="3"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
-      <c r="A506" s="3"/>
-      <c r="B506" s="3"/>
-      <c r="C506" s="3"/>
-      <c r="D506" s="3"/>
-      <c r="E506" s="3"/>
-      <c r="F506" s="3"/>
-      <c r="G506" s="3"/>
-      <c r="H506" s="3"/>
-      <c r="I506" s="3"/>
-      <c r="J506" s="3"/>
-      <c r="K506" s="3"/>
-      <c r="L506" s="2"/>
+      <c r="A506" s="10">
+        <v>45002.0</v>
+      </c>
+      <c r="B506" s="10">
+        <v>45003.0</v>
+      </c>
+      <c r="C506" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D506" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E506" s="8">
+        <v>34.3</v>
+      </c>
+      <c r="F506" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="G506" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H506" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I506" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J506" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="K506" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L506" s="9">
+        <v>7.7</v>
+      </c>
       <c r="M506" s="3"/>
       <c r="N506" s="3"/>
       <c r="O506" s="3"/>
@@ -27197,18 +27222,43 @@
       <c r="Z506" s="3"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
-      <c r="A507" s="3"/>
-      <c r="B507" s="3"/>
-      <c r="C507" s="3"/>
-      <c r="D507" s="3"/>
-      <c r="E507" s="3"/>
-      <c r="F507" s="3"/>
-      <c r="G507" s="3"/>
-      <c r="H507" s="3"/>
-      <c r="I507" s="3"/>
-      <c r="J507" s="3"/>
-      <c r="K507" s="3"/>
-      <c r="L507" s="2"/>
+      <c r="A507" s="10">
+        <v>45002.0</v>
+      </c>
+      <c r="B507" s="10">
+        <v>45004.0</v>
+      </c>
+      <c r="C507" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D507" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E507" s="8">
+        <v>33.8</v>
+      </c>
+      <c r="F507" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="G507" s="8">
+        <v>9.2</v>
+      </c>
+      <c r="H507" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I507" s="8">
+        <v>9.3</v>
+      </c>
+      <c r="J507" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="K507" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="L507" s="9">
+        <v>7.6</v>
+      </c>
       <c r="M507" s="3"/>
       <c r="N507" s="3"/>
       <c r="O507" s="3"/>
@@ -27225,18 +27275,43 @@
       <c r="Z507" s="3"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
-      <c r="A508" s="3"/>
-      <c r="B508" s="3"/>
-      <c r="C508" s="3"/>
-      <c r="D508" s="3"/>
-      <c r="E508" s="3"/>
-      <c r="F508" s="3"/>
-      <c r="G508" s="3"/>
-      <c r="H508" s="3"/>
-      <c r="I508" s="3"/>
-      <c r="J508" s="3"/>
-      <c r="K508" s="3"/>
-      <c r="L508" s="2"/>
+      <c r="A508" s="10">
+        <v>45005.0</v>
+      </c>
+      <c r="B508" s="10">
+        <v>45008.0</v>
+      </c>
+      <c r="C508" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D508" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E508" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="F508" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="G508" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H508" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I508" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="J508" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="K508" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L508" s="9">
+        <v>5.0</v>
+      </c>
       <c r="M508" s="3"/>
       <c r="N508" s="3"/>
       <c r="O508" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K508" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K510" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27328,18 +27328,43 @@
       <c r="Z508" s="3"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
-      <c r="A509" s="3"/>
-      <c r="B509" s="3"/>
-      <c r="C509" s="3"/>
-      <c r="D509" s="3"/>
-      <c r="E509" s="3"/>
-      <c r="F509" s="3"/>
-      <c r="G509" s="3"/>
-      <c r="H509" s="3"/>
-      <c r="I509" s="3"/>
-      <c r="J509" s="3"/>
-      <c r="K509" s="3"/>
-      <c r="L509" s="2"/>
+      <c r="A509" s="10">
+        <v>45008.0</v>
+      </c>
+      <c r="B509" s="10">
+        <v>45009.0</v>
+      </c>
+      <c r="C509" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D509" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E509" s="8">
+        <v>36.4</v>
+      </c>
+      <c r="F509" s="8">
+        <v>27.9</v>
+      </c>
+      <c r="G509" s="8">
+        <v>8.3</v>
+      </c>
+      <c r="H509" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="I509" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="J509" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="K509" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="L509" s="9">
+        <v>0.4</v>
+      </c>
       <c r="M509" s="3"/>
       <c r="N509" s="3"/>
       <c r="O509" s="3"/>
@@ -27356,18 +27381,43 @@
       <c r="Z509" s="3"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
-      <c r="A510" s="3"/>
-      <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-      <c r="D510" s="3"/>
-      <c r="E510" s="3"/>
-      <c r="F510" s="3"/>
-      <c r="G510" s="3"/>
-      <c r="H510" s="3"/>
-      <c r="I510" s="3"/>
-      <c r="J510" s="3"/>
-      <c r="K510" s="3"/>
-      <c r="L510" s="2"/>
+      <c r="A510" s="10">
+        <v>45007.0</v>
+      </c>
+      <c r="B510" s="10">
+        <v>45010.0</v>
+      </c>
+      <c r="C510" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D510" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E510" s="8">
+        <v>35.72</v>
+      </c>
+      <c r="F510" s="8">
+        <v>28.25</v>
+      </c>
+      <c r="G510" s="8">
+        <v>8.07</v>
+      </c>
+      <c r="H510" s="8">
+        <v>4.78</v>
+      </c>
+      <c r="I510" s="8">
+        <v>11.36</v>
+      </c>
+      <c r="J510" s="8">
+        <v>8.52</v>
+      </c>
+      <c r="K510" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="L510" s="9">
+        <v>2.69</v>
+      </c>
       <c r="M510" s="3"/>
       <c r="N510" s="3"/>
       <c r="O510" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K510" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K512" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27434,18 +27434,43 @@
       <c r="Z510" s="3"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
-      <c r="A511" s="3"/>
-      <c r="B511" s="3"/>
-      <c r="C511" s="3"/>
-      <c r="D511" s="3"/>
-      <c r="E511" s="3"/>
-      <c r="F511" s="3"/>
-      <c r="G511" s="3"/>
-      <c r="H511" s="3"/>
-      <c r="I511" s="3"/>
-      <c r="J511" s="3"/>
-      <c r="K511" s="3"/>
-      <c r="L511" s="2"/>
+      <c r="A511" s="10">
+        <v>45009.0</v>
+      </c>
+      <c r="B511" s="10">
+        <v>45012.0</v>
+      </c>
+      <c r="C511" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D511" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E511" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="F511" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="G511" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H511" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I511" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J511" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K511" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L511" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M511" s="3"/>
       <c r="N511" s="3"/>
       <c r="O511" s="3"/>
@@ -27462,18 +27487,43 @@
       <c r="Z511" s="3"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
-      <c r="A512" s="3"/>
-      <c r="B512" s="3"/>
-      <c r="C512" s="3"/>
-      <c r="D512" s="3"/>
-      <c r="E512" s="3"/>
-      <c r="F512" s="3"/>
-      <c r="G512" s="3"/>
-      <c r="H512" s="3"/>
-      <c r="I512" s="3"/>
-      <c r="J512" s="3"/>
-      <c r="K512" s="3"/>
-      <c r="L512" s="2"/>
+      <c r="A512" s="10">
+        <v>45016.0</v>
+      </c>
+      <c r="B512" s="10">
+        <v>45018.0</v>
+      </c>
+      <c r="C512" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D512" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E512" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="F512" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="G512" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="H512" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I512" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="J512" s="8">
+        <v>8.7</v>
+      </c>
+      <c r="K512" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L512" s="9">
+        <v>9.0</v>
+      </c>
       <c r="M512" s="3"/>
       <c r="N512" s="3"/>
       <c r="O512" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K512" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K514" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27540,18 +27540,43 @@
       <c r="Z512" s="3"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
-      <c r="A513" s="3"/>
-      <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
-      <c r="D513" s="3"/>
-      <c r="E513" s="3"/>
-      <c r="F513" s="3"/>
-      <c r="G513" s="3"/>
-      <c r="H513" s="3"/>
-      <c r="I513" s="3"/>
-      <c r="J513" s="3"/>
-      <c r="K513" s="3"/>
-      <c r="L513" s="2"/>
+      <c r="A513" s="10">
+        <v>45020.0</v>
+      </c>
+      <c r="B513" s="10">
+        <v>45021.0</v>
+      </c>
+      <c r="C513" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D513" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E513" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="F513" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="G513" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="H513" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I513" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="J513" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="K513" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="L513" s="9">
+        <v>0.2</v>
+      </c>
       <c r="M513" s="3"/>
       <c r="N513" s="3"/>
       <c r="O513" s="3"/>
@@ -27568,18 +27593,43 @@
       <c r="Z513" s="3"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
-      <c r="A514" s="3"/>
-      <c r="B514" s="3"/>
-      <c r="C514" s="3"/>
-      <c r="D514" s="3"/>
-      <c r="E514" s="3"/>
-      <c r="F514" s="3"/>
-      <c r="G514" s="3"/>
-      <c r="H514" s="3"/>
-      <c r="I514" s="3"/>
-      <c r="J514" s="3"/>
-      <c r="K514" s="3"/>
-      <c r="L514" s="2"/>
+      <c r="A514" s="10">
+        <v>45050.0</v>
+      </c>
+      <c r="B514" s="10">
+        <v>45021.0</v>
+      </c>
+      <c r="C514" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D514" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E514" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="F514" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="G514" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H514" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="I514" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="J514" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K514" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="L514" s="9">
+        <v>6.3</v>
+      </c>
       <c r="M514" s="3"/>
       <c r="N514" s="3"/>
       <c r="O514" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -27594,7 +27594,7 @@
     </row>
     <row r="514" ht="12.75" customHeight="1">
       <c r="A514" s="10">
-        <v>45050.0</v>
+        <v>45020.0</v>
       </c>
       <c r="B514" s="10">
         <v>45021.0</v>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K514" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K515" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27646,18 +27646,43 @@
       <c r="Z514" s="3"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="A515" s="3"/>
-      <c r="B515" s="3"/>
-      <c r="C515" s="3"/>
-      <c r="D515" s="3"/>
-      <c r="E515" s="3"/>
-      <c r="F515" s="3"/>
-      <c r="G515" s="3"/>
-      <c r="H515" s="3"/>
-      <c r="I515" s="3"/>
-      <c r="J515" s="3"/>
-      <c r="K515" s="3"/>
-      <c r="L515" s="2"/>
+      <c r="A515" s="10">
+        <v>45023.0</v>
+      </c>
+      <c r="B515" s="10">
+        <v>45026.0</v>
+      </c>
+      <c r="C515" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D515" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E515" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F515" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G515" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="H515" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I515" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J515" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K515" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L515" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M515" s="3"/>
       <c r="N515" s="3"/>
       <c r="O515" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K515" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K520" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27699,18 +27699,43 @@
       <c r="Z515" s="3"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="A516" s="3"/>
-      <c r="B516" s="3"/>
-      <c r="C516" s="3"/>
-      <c r="D516" s="3"/>
-      <c r="E516" s="3"/>
-      <c r="F516" s="3"/>
-      <c r="G516" s="3"/>
-      <c r="H516" s="3"/>
-      <c r="I516" s="3"/>
-      <c r="J516" s="3"/>
-      <c r="K516" s="3"/>
-      <c r="L516" s="2"/>
+      <c r="A516" s="10">
+        <v>45030.0</v>
+      </c>
+      <c r="B516" s="10">
+        <v>45031.0</v>
+      </c>
+      <c r="C516" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D516" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E516" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="F516" s="8">
+        <v>24.8</v>
+      </c>
+      <c r="G516" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H516" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I516" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="J516" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K516" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L516" s="9">
+        <v>8.0</v>
+      </c>
       <c r="M516" s="3"/>
       <c r="N516" s="3"/>
       <c r="O516" s="3"/>
@@ -27727,18 +27752,43 @@
       <c r="Z516" s="3"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
-      <c r="A517" s="3"/>
-      <c r="B517" s="3"/>
-      <c r="C517" s="3"/>
-      <c r="D517" s="3"/>
-      <c r="E517" s="3"/>
-      <c r="F517" s="3"/>
-      <c r="G517" s="3"/>
-      <c r="H517" s="3"/>
-      <c r="I517" s="3"/>
-      <c r="J517" s="3"/>
-      <c r="K517" s="3"/>
-      <c r="L517" s="2"/>
+      <c r="A517" s="10">
+        <v>45030.0</v>
+      </c>
+      <c r="B517" s="10">
+        <v>45032.0</v>
+      </c>
+      <c r="C517" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D517" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E517" s="8">
+        <v>32.47</v>
+      </c>
+      <c r="F517" s="8">
+        <v>26.69</v>
+      </c>
+      <c r="G517" s="8">
+        <v>11.14</v>
+      </c>
+      <c r="H517" s="8">
+        <v>5.67</v>
+      </c>
+      <c r="I517" s="8">
+        <v>10.19</v>
+      </c>
+      <c r="J517" s="8">
+        <v>9.52</v>
+      </c>
+      <c r="K517" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L517" s="9">
+        <v>3.32</v>
+      </c>
       <c r="M517" s="3"/>
       <c r="N517" s="3"/>
       <c r="O517" s="3"/>
@@ -27755,18 +27805,43 @@
       <c r="Z517" s="3"/>
     </row>
     <row r="518" ht="12.75" customHeight="1">
-      <c r="A518" s="3"/>
-      <c r="B518" s="3"/>
-      <c r="C518" s="3"/>
-      <c r="D518" s="3"/>
-      <c r="E518" s="3"/>
-      <c r="F518" s="3"/>
-      <c r="G518" s="3"/>
-      <c r="H518" s="3"/>
-      <c r="I518" s="3"/>
-      <c r="J518" s="3"/>
-      <c r="K518" s="3"/>
-      <c r="L518" s="2"/>
+      <c r="A518" s="10">
+        <v>45030.0</v>
+      </c>
+      <c r="B518" s="10">
+        <v>45033.0</v>
+      </c>
+      <c r="C518" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D518" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E518" s="8">
+        <v>34.6</v>
+      </c>
+      <c r="F518" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="G518" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="H518" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I518" s="8">
+        <v>8.8</v>
+      </c>
+      <c r="J518" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="K518" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="L518" s="9">
+        <v>5.8</v>
+      </c>
       <c r="M518" s="3"/>
       <c r="N518" s="3"/>
       <c r="O518" s="3"/>
@@ -27783,18 +27858,43 @@
       <c r="Z518" s="3"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
-      <c r="A519" s="3"/>
-      <c r="B519" s="3"/>
-      <c r="C519" s="3"/>
-      <c r="D519" s="3"/>
-      <c r="E519" s="3"/>
-      <c r="F519" s="3"/>
-      <c r="G519" s="3"/>
-      <c r="H519" s="3"/>
-      <c r="I519" s="3"/>
-      <c r="J519" s="3"/>
-      <c r="K519" s="3"/>
-      <c r="L519" s="2"/>
+      <c r="A519" s="10">
+        <v>45030.0</v>
+      </c>
+      <c r="B519" s="10">
+        <v>45033.0</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E519" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="F519" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="G519" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="H519" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I519" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J519" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K519" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L519" s="9">
+        <v>2.0</v>
+      </c>
       <c r="M519" s="3"/>
       <c r="N519" s="3"/>
       <c r="O519" s="3"/>
@@ -27811,18 +27911,43 @@
       <c r="Z519" s="3"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
-      <c r="A520" s="3"/>
-      <c r="B520" s="3"/>
-      <c r="C520" s="3"/>
-      <c r="D520" s="3"/>
-      <c r="E520" s="3"/>
-      <c r="F520" s="3"/>
-      <c r="G520" s="3"/>
-      <c r="H520" s="3"/>
-      <c r="I520" s="3"/>
-      <c r="J520" s="3"/>
-      <c r="K520" s="3"/>
-      <c r="L520" s="2"/>
+      <c r="A520" s="10">
+        <v>45033.0</v>
+      </c>
+      <c r="B520" s="10">
+        <v>45035.0</v>
+      </c>
+      <c r="C520" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D520" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E520" s="8">
+        <v>34.89</v>
+      </c>
+      <c r="F520" s="8">
+        <v>28.43</v>
+      </c>
+      <c r="G520" s="8">
+        <v>8.56</v>
+      </c>
+      <c r="H520" s="8">
+        <v>5.01</v>
+      </c>
+      <c r="I520" s="8">
+        <v>10.82</v>
+      </c>
+      <c r="J520" s="8">
+        <v>9.05</v>
+      </c>
+      <c r="K520" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29</v>
+      </c>
+      <c r="L520" s="9">
+        <v>2.95</v>
+      </c>
       <c r="M520" s="3"/>
       <c r="N520" s="3"/>
       <c r="O520" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -488,7 +488,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K520" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K522" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -27964,18 +27964,43 @@
       <c r="Z520" s="3"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
-      <c r="A521" s="3"/>
-      <c r="B521" s="3"/>
-      <c r="C521" s="3"/>
-      <c r="D521" s="3"/>
-      <c r="E521" s="3"/>
-      <c r="F521" s="3"/>
-      <c r="G521" s="3"/>
-      <c r="H521" s="3"/>
-      <c r="I521" s="3"/>
-      <c r="J521" s="3"/>
-      <c r="K521" s="3"/>
-      <c r="L521" s="2"/>
+      <c r="A521" s="10">
+        <v>45027.0</v>
+      </c>
+      <c r="B521" s="10">
+        <v>44999.0</v>
+      </c>
+      <c r="C521" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D521" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E521" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="F521" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="G521" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H521" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I521" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J521" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="K521" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L521" s="9">
+        <v>23.0</v>
+      </c>
       <c r="M521" s="3"/>
       <c r="N521" s="3"/>
       <c r="O521" s="3"/>
@@ -27992,18 +28017,43 @@
       <c r="Z521" s="3"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
-      <c r="A522" s="3"/>
-      <c r="B522" s="3"/>
-      <c r="C522" s="3"/>
-      <c r="D522" s="3"/>
-      <c r="E522" s="3"/>
-      <c r="F522" s="3"/>
-      <c r="G522" s="3"/>
-      <c r="H522" s="3"/>
-      <c r="I522" s="3"/>
-      <c r="J522" s="3"/>
-      <c r="K522" s="3"/>
-      <c r="L522" s="2"/>
+      <c r="A522" s="10">
+        <v>45036.0</v>
+      </c>
+      <c r="B522" s="10">
+        <v>45037.0</v>
+      </c>
+      <c r="C522" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D522" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E522" s="8">
+        <v>35.7</v>
+      </c>
+      <c r="F522" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G522" s="8">
+        <v>9.7</v>
+      </c>
+      <c r="H522" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="I522" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="J522" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="K522" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="L522" s="9">
+        <v>3.7</v>
+      </c>
       <c r="M522" s="3"/>
       <c r="N522" s="3"/>
       <c r="O522" s="3"/>

--- a/polldata_gs.xlsx
+++ b/polldata_gs.xlsx
@@ -41425,34 +41425,6 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" ht="12.75" customHeight="1">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0527777777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.0527777777777778"/>
